--- a/BOM/voron2.4_350mm_bom.xlsx
+++ b/BOM/voron2.4_350mm_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwilder/Documents/3D Printing/cee-wals/voron-2.4/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBEFD30-9542-E047-8C3C-D2C45A67363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F0706B-24D2-6D4B-A043-4E37FC11F7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="3460" windowWidth="38640" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,16 +173,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t>Prusa shipping, from Czech to USA, by spool quantity (as of 08/04/2022):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Prusa shipping, from Czech to USA, by spool quantity (as of 08/04/2022):
 </t>
         </r>
         <r>
@@ -192,16 +183,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - 2 x ASA 850g spools: $24.02</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve"> - 2 x ASA 850g spools: $24.02
 </t>
         </r>
         <r>
@@ -211,16 +193,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - 3 x ASA 850g spools: $26.86</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve"> - 3 x ASA 850g spools: $26.86
 </t>
         </r>
         <r>
@@ -230,16 +203,7 @@
             <rFont val="+mn-lt"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> - 5 x ASA 850g spools: $35.89</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="+mn-lt"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve"> - 5 x ASA 850g spools: $35.89
 </t>
         </r>
         <r>
@@ -965,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="488">
   <si>
     <t>Category</t>
   </si>
@@ -2150,9 +2114,6 @@
     <t>Cost (parts only)</t>
   </si>
   <si>
-    <t>Voron 2.4 Motion Kit (silver)</t>
-  </si>
-  <si>
     <t>Actual Qty.</t>
   </si>
   <si>
@@ -2242,9 +2203,6 @@
     <t>Mandala Roseworks ABS Panels Black (350 mm)</t>
   </si>
   <si>
-    <t>350mm white is $63.99</t>
-  </si>
-  <si>
     <t>Mandala Roseworks Ultraflat Magbed (350mm)</t>
   </si>
   <si>
@@ -2376,10 +2334,6 @@
     <t>Voron Txn 1 (TWW-KF-VORON-1) TWW Kids fund (proj. voron): $146.82 on 10/24/2022</t>
   </si>
   <si>
-    <t>TWW-KF-VORON-1
-Pay Citicard CC from TWW account</t>
-  </si>
-  <si>
     <t>Cost Adjustments</t>
   </si>
   <si>
@@ -2390,9 +2344,6 @@
   </si>
   <si>
     <t>TWW direct purchase</t>
-  </si>
-  <si>
-    <t>Voron Txn 1 (TWW-KF-VORON-1) TWW Kids fund (proj. voron): $71.98 on 10/07/2022</t>
   </si>
   <si>
     <t>Voron Zip Tie Kit</t>
@@ -2433,6 +2384,91 @@
   </si>
   <si>
     <t>1 x Voron + 1 x  Polyformer</t>
+  </si>
+  <si>
+    <t>Printed Solide - Aluminum Composite backing Panels</t>
+  </si>
+  <si>
+    <t>Getting the ones from Printed Solid</t>
+  </si>
+  <si>
+    <t>Voron 2.4 Motion Kit (black)</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-4</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-4
+Direct from TWW account</t>
+  </si>
+  <si>
+    <t>Voron Txn 4 (TWW-KF-VORON-4) TWW Kids fund (proj. voron): $543.42 on 12/02/2022</t>
+  </si>
+  <si>
+    <t>Accidentally bought the Z PCB. I originally planned on buying the Omron Mouse Button</t>
+  </si>
+  <si>
+    <t>Voron Txn 1 (TWW-KF-VORON-1) TWW Kids fund (proj. voron): $71.98 on 10/07/2022
+Voron Txn 5 (TWW-KF-VORON-5) TWW Kids fund (proj. voron): $136.98 on 12/02/2022</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-1
+Pay Citicard CC from TWW account
+TWW-KF-VORON-5
+Direct from TWW account</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-5</t>
+  </si>
+  <si>
+    <t>Mandala Roseworks Kinematic center brace for Voron 2.4</t>
+  </si>
+  <si>
+    <t>Mandala Roseworks Matched height kinematic kit</t>
+  </si>
+  <si>
+    <t>Voron Txn 6 (TWW-KF-VORON-6) TWW Kids fund (proj. voron): $131.12 on 12/05/2022</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-6
+Direct from TWW account</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-6</t>
+  </si>
+  <si>
+    <t>Mandala Roseworks The "Gripper" E3DV6 Wrench</t>
+  </si>
+  <si>
+    <t>Voron Txn 7 (TWW-KF-VORON-7) TWW Kids fund (proj. voron): $35.27 on 12/05/2022</t>
+  </si>
+  <si>
+    <t>Layerneer Bed Weld - Original 3D printing adhesive</t>
+  </si>
+  <si>
+    <t>Purchased from Amazon</t>
+  </si>
+  <si>
+    <t>Tool. Not just for Voron though.
+Purchase through Mandala Roseworks - Shop store</t>
+  </si>
+  <si>
+    <t>Shipping is split between orders.
+Purchase through Mandala Roseworks - Shop store</t>
+  </si>
+  <si>
+    <t>Purchase through Mandala Roseworks - Shop store</t>
+  </si>
+  <si>
+    <t>Voron Txn 8 (TWW-KF-VORON-8) TWW Kids fund (proj. voron): $22.95 on 12/05/2022</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-7
+Direct from TWW account</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-8
+Direct from TWW account</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +2848,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3018,6 +3054,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3410,7 +3458,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3548,48 +3596,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3598,9 +3604,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3650,9 +3653,6 @@
     <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3677,9 +3677,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="23" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3697,12 +3694,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3748,6 +3739,138 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4153,3568 +4276,4198 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AD89"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="R56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S61" sqref="S61"/>
+      <selection pane="bottomRight" activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="8" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" style="69" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="71" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="64.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="8" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="64.5" style="57" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.1640625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.5" style="70" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" style="70" customWidth="1"/>
-    <col min="13" max="16" width="10.83203125" style="70"/>
+    <col min="10" max="10" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5" style="56" customWidth="1"/>
+    <col min="12" max="12" width="27.1640625" style="56" customWidth="1"/>
+    <col min="13" max="16" width="10.83203125" style="56"/>
     <col min="17" max="17" width="31.1640625" style="21" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" style="69" customWidth="1"/>
-    <col min="19" max="19" width="41.5" style="71" customWidth="1"/>
-    <col min="20" max="20" width="46" style="71" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="55" customWidth="1"/>
+    <col min="19" max="19" width="41.5" style="57" customWidth="1"/>
+    <col min="20" max="20" width="46" style="57" customWidth="1"/>
     <col min="21" max="29" width="10.83203125" style="21"/>
-    <col min="30" max="30" width="18.1640625" style="102" customWidth="1"/>
+    <col min="30" max="30" width="18.1640625" style="85" customWidth="1"/>
     <col min="31" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-    </row>
-    <row r="2" spans="1:30" s="111" customFormat="1" ht="23" customHeight="1" thickBot="1">
-      <c r="A2" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="112" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+    </row>
+    <row r="2" spans="1:30" s="92" customFormat="1" ht="23" customHeight="1" thickBot="1">
+      <c r="A2" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="112" t="s">
-        <v>378</v>
-      </c>
-      <c r="E2" s="112" t="s">
+      <c r="D2" s="93" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="93" t="s">
         <v>368</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="93" t="s">
         <v>369</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="94" t="s">
         <v>370</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="114" t="s">
-        <v>376</v>
-      </c>
-      <c r="K2" s="115" t="s">
+      <c r="J2" s="95" t="s">
+        <v>375</v>
+      </c>
+      <c r="K2" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="L2" s="96" t="s">
         <v>374</v>
       </c>
-      <c r="M2" s="115" t="s">
+      <c r="M2" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="115" t="s">
+      <c r="N2" s="96" t="s">
         <v>373</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="O2" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="115" t="s">
+      <c r="P2" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="114" t="s">
-        <v>449</v>
-      </c>
-      <c r="R2" s="114" t="s">
-        <v>392</v>
-      </c>
-      <c r="S2" s="116" t="s">
+      <c r="Q2" s="95" t="s">
+        <v>446</v>
+      </c>
+      <c r="R2" s="95" t="s">
+        <v>391</v>
+      </c>
+      <c r="S2" s="97" t="s">
         <v>276</v>
       </c>
-      <c r="T2" s="117" t="s">
+      <c r="T2" s="98" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="32" thickTop="1" thickBot="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="82">
-        <v>0</v>
-      </c>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="67">
+        <v>0</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="76" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="96" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="80" t="s">
         <v>371</v>
       </c>
-      <c r="I3" s="92" t="s">
-        <v>439</v>
-      </c>
-      <c r="J3" s="78">
+      <c r="I3" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="J3" s="63">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="79">
-        <v>0</v>
-      </c>
-      <c r="L3" s="79">
+      <c r="K3" s="64">
+        <v>0</v>
+      </c>
+      <c r="L3" s="64">
         <f>J3*K3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64">
         <f>L3+M3+N3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="78" t="s">
-        <v>445</v>
-      </c>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-      <c r="AD3" s="101" t="s">
-        <v>436</v>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="S3" s="99"/>
+      <c r="T3" s="100"/>
+      <c r="AD3" s="84" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="34" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="103" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="82">
-        <v>1</v>
-      </c>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="104">
+        <v>1</v>
+      </c>
+      <c r="C4" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="76" t="s">
+      <c r="D4" s="104"/>
+      <c r="E4" s="103" t="s">
         <v>300</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="105" t="s">
         <v>301</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="97" t="str">
+      <c r="G4" s="105"/>
+      <c r="H4" s="106" t="str">
         <f>E4</f>
         <v>West3D BDF Stainless Steel Fasteners - Stainless Steel Hammer Head Upgrade</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="78">
+      <c r="I4" s="107"/>
+      <c r="J4" s="108">
         <f>B4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="109">
         <v>84.99</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="109">
         <f t="shared" ref="L4:L47" si="0">J4*K4</f>
         <v>84.99</v>
       </c>
-      <c r="M4" s="79">
-        <v>0</v>
-      </c>
-      <c r="N4" s="79">
-        <v>0</v>
-      </c>
-      <c r="O4" s="79">
+      <c r="M4" s="109">
+        <v>0</v>
+      </c>
+      <c r="N4" s="109">
+        <v>0</v>
+      </c>
+      <c r="O4" s="109">
         <f t="shared" ref="O4:O47" si="1">L4+M4+N4</f>
         <v>84.99</v>
       </c>
-      <c r="P4" s="79">
-        <f>O4</f>
+      <c r="P4" s="109">
+        <f t="shared" ref="P4:P10" si="2">O4</f>
         <v>84.99</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="78" t="s">
+      <c r="Q4" s="107"/>
+      <c r="R4" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S4" s="110" t="s">
+        <v>454</v>
+      </c>
+      <c r="T4" s="111" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD4" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="S4" s="118" t="s">
-        <v>458</v>
-      </c>
-      <c r="T4" s="119" t="s">
-        <v>459</v>
-      </c>
-      <c r="AD4" s="104" t="s">
+    </row>
+    <row r="5" spans="1:30" ht="30">
+      <c r="A5" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="127">
+        <v>1</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="127"/>
+      <c r="E5" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="118" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="129" t="str">
+        <f>G5</f>
+        <v>POWGE Motion Black</v>
+      </c>
+      <c r="I5" s="122" t="s">
+        <v>465</v>
+      </c>
+      <c r="J5" s="119">
+        <f>B5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="123">
+        <v>144.99</v>
+      </c>
+      <c r="L5" s="123">
+        <f t="shared" si="0"/>
+        <v>144.99</v>
+      </c>
+      <c r="M5" s="123">
+        <v>0</v>
+      </c>
+      <c r="N5" s="123">
+        <v>0</v>
+      </c>
+      <c r="O5" s="123">
+        <f t="shared" si="1"/>
+        <v>144.99</v>
+      </c>
+      <c r="P5" s="123">
+        <f t="shared" si="2"/>
+        <v>144.99</v>
+      </c>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="119" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="B5" s="82">
-        <v>1</v>
-      </c>
-      <c r="C5" s="82" t="s">
+      <c r="S5" s="125" t="s">
+        <v>468</v>
+      </c>
+      <c r="T5" s="126" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD5" s="87" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="30">
+      <c r="A6" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="104">
+        <v>6</v>
+      </c>
+      <c r="C6" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="76" t="s">
-        <v>303</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="G5" s="76" t="s">
-        <v>305</v>
-      </c>
-      <c r="H5" s="97" t="str">
-        <f>F5</f>
-        <v>POWGE Motion Silver</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="J5" s="78">
-        <f>B5</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="79">
-        <v>139.99</v>
-      </c>
-      <c r="L5" s="79">
-        <f t="shared" si="0"/>
-        <v>139.99</v>
-      </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79">
-        <f t="shared" si="1"/>
-        <v>139.99</v>
-      </c>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="119"/>
-      <c r="AD5" s="104" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="30">
-      <c r="A6" s="76" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="82">
-        <v>6</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="76" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="103" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="103" t="s">
         <v>308</v>
       </c>
-      <c r="G6" s="76" t="s">
-        <v>429</v>
-      </c>
-      <c r="H6" s="96" t="str">
+      <c r="G6" s="103" t="s">
+        <v>427</v>
+      </c>
+      <c r="H6" s="112" t="str">
         <f>G6</f>
         <v>RobotDigg GS_MGN9-1H-B400 (black anodized)</v>
       </c>
-      <c r="I6" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="J6" s="78">
+      <c r="I6" s="107" t="s">
+        <v>429</v>
+      </c>
+      <c r="J6" s="108">
         <f>B6</f>
         <v>6</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="109">
         <v>15</v>
       </c>
-      <c r="L6" s="79">
+      <c r="L6" s="109">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="109">
         <f>(41.82/($J$6+$J$7))*J6</f>
         <v>35.845714285714287</v>
       </c>
-      <c r="N6" s="79">
-        <v>0</v>
-      </c>
-      <c r="O6" s="79">
+      <c r="N6" s="109">
+        <v>0</v>
+      </c>
+      <c r="O6" s="109">
         <f t="shared" si="1"/>
         <v>125.84571428571428</v>
       </c>
-      <c r="P6" s="79">
-        <f>O6</f>
+      <c r="P6" s="109">
+        <f t="shared" si="2"/>
         <v>125.84571428571428</v>
       </c>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="78" t="s">
-        <v>393</v>
-      </c>
-      <c r="S6" s="118" t="s">
-        <v>447</v>
-      </c>
-      <c r="T6" s="119" t="s">
+      <c r="Q6" s="107"/>
+      <c r="R6" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S6" s="110" t="s">
+        <v>445</v>
+      </c>
+      <c r="T6" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="AD6" s="104" t="s">
-        <v>393</v>
+      <c r="AD6" s="87" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="30">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="82">
-        <v>1</v>
-      </c>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="104">
+        <v>1</v>
+      </c>
+      <c r="C7" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="76" t="s">
+      <c r="D7" s="104"/>
+      <c r="E7" s="103" t="s">
         <v>310</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="103" t="s">
         <v>311</v>
       </c>
-      <c r="G7" s="76" t="s">
-        <v>430</v>
-      </c>
-      <c r="H7" s="96" t="str">
+      <c r="G7" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7" s="112" t="str">
         <f>G7</f>
         <v>RobotDigg GS_MGN12-1H-B400 (black anodized)</v>
       </c>
-      <c r="I7" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="J7" s="78">
+      <c r="I7" s="107" t="s">
+        <v>429</v>
+      </c>
+      <c r="J7" s="108">
         <f>B7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="109">
         <v>15</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="109">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="109">
         <f>(41.82/($J$6+$J$7))*J7</f>
         <v>5.9742857142857142</v>
       </c>
-      <c r="N7" s="79">
-        <v>0</v>
-      </c>
-      <c r="O7" s="79">
+      <c r="N7" s="109">
+        <v>0</v>
+      </c>
+      <c r="O7" s="109">
         <f t="shared" si="1"/>
         <v>20.974285714285713</v>
       </c>
-      <c r="P7" s="79">
-        <f>O7</f>
+      <c r="P7" s="109">
+        <f t="shared" si="2"/>
         <v>20.974285714285713</v>
       </c>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="78" t="s">
-        <v>393</v>
-      </c>
-      <c r="S7" s="118" t="s">
+      <c r="Q7" s="107"/>
+      <c r="R7" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S7" s="110" t="s">
         <v>278</v>
       </c>
-      <c r="T7" s="119" t="s">
+      <c r="T7" s="111" t="s">
         <v>278</v>
       </c>
-      <c r="AD7" s="104" t="s">
-        <v>438</v>
+      <c r="AD7" s="87" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="118" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="127">
         <v>4</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="127" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="97" t="str">
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129" t="str">
         <f>A8</f>
         <v>Updated Rubber Feet for V2.4</v>
       </c>
-      <c r="I8" s="92" t="s">
-        <v>460</v>
-      </c>
-      <c r="J8" s="78">
-        <v>1</v>
-      </c>
-      <c r="K8" s="79">
+      <c r="I8" s="122" t="s">
+        <v>456</v>
+      </c>
+      <c r="J8" s="119">
+        <v>1</v>
+      </c>
+      <c r="K8" s="123">
         <v>8.99</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="123">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79">
+      <c r="M8" s="123">
+        <v>0</v>
+      </c>
+      <c r="N8" s="123">
+        <v>0</v>
+      </c>
+      <c r="O8" s="123">
         <f t="shared" si="1"/>
         <v>8.99</v>
       </c>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="119"/>
-      <c r="AD8" s="104" t="s">
-        <v>445</v>
+      <c r="P8" s="123">
+        <f t="shared" si="2"/>
+        <v>8.99</v>
+      </c>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S8" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="T8" s="126" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD8" s="87" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="30">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="118" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="82">
-        <v>1</v>
-      </c>
-      <c r="C9" s="82" t="s">
+      <c r="B9" s="127">
+        <v>1</v>
+      </c>
+      <c r="C9" s="127" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="76" t="s">
+      <c r="D9" s="127"/>
+      <c r="E9" s="118" t="s">
         <v>315</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="118" t="s">
         <v>372</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="97" t="str">
-        <f>F9</f>
-        <v>Omron Mouse Button - Micro Switch (D2F-01L)</v>
-      </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="78">
-        <f>B9</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="79">
-        <v>2.69</v>
-      </c>
-      <c r="L9" s="79">
+      <c r="G9" s="128"/>
+      <c r="H9" s="129" t="str">
+        <f>A9</f>
+        <v>Z PCB</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>469</v>
+      </c>
+      <c r="J9" s="119">
+        <f t="shared" ref="J9:J23" si="3">B9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="123">
+        <v>4</v>
+      </c>
+      <c r="L9" s="123">
         <f t="shared" si="0"/>
-        <v>2.69</v>
-      </c>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79">
+        <v>4</v>
+      </c>
+      <c r="M9" s="123">
+        <v>0</v>
+      </c>
+      <c r="N9" s="123">
+        <v>0</v>
+      </c>
+      <c r="O9" s="123">
         <f t="shared" si="1"/>
-        <v>2.69</v>
-      </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="119"/>
-      <c r="AD9" s="104" t="s">
-        <v>446</v>
+        <v>4</v>
+      </c>
+      <c r="P9" s="123">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S9" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="T9" s="126" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD9" s="87" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="17" thickBot="1">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="B10" s="82">
-        <v>1</v>
-      </c>
-      <c r="C10" s="82" t="s">
+      <c r="B10" s="127">
+        <v>1</v>
+      </c>
+      <c r="C10" s="127" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="76" t="s">
+      <c r="D10" s="127"/>
+      <c r="E10" s="118" t="s">
         <v>317</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="118" t="s">
         <v>318</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="97" t="str">
+      <c r="G10" s="128"/>
+      <c r="H10" s="129" t="str">
         <f>A10</f>
         <v>XY Microswitch PCB</v>
       </c>
-      <c r="I10" s="92"/>
-      <c r="J10" s="78">
-        <f>B10</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="79">
+      <c r="I10" s="122"/>
+      <c r="J10" s="119">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="123">
         <v>6.49</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="123">
         <f t="shared" si="0"/>
         <v>6.49</v>
       </c>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79">
+      <c r="M10" s="123">
+        <v>0</v>
+      </c>
+      <c r="N10" s="123">
+        <v>0</v>
+      </c>
+      <c r="O10" s="123">
         <f t="shared" si="1"/>
         <v>6.49</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="119"/>
-      <c r="AD10" s="107"/>
+      <c r="P10" s="123">
+        <f t="shared" si="2"/>
+        <v>6.49</v>
+      </c>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S10" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="T10" s="126" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD10" s="88"/>
     </row>
     <row r="11" spans="1:30" ht="17" thickTop="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="82">
-        <v>1</v>
-      </c>
-      <c r="C11" s="82" t="s">
+      <c r="B11" s="67">
+        <v>1</v>
+      </c>
+      <c r="C11" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="76" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="97" t="str">
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="81" t="str">
         <f>E11</f>
         <v>Klicky Probe (Complete)</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="78">
-        <f>B11</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="79">
+      <c r="I11" s="76"/>
+      <c r="J11" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="64">
         <v>27.99</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="64">
         <f t="shared" si="0"/>
         <v>27.99</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79">
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64">
         <f t="shared" si="1"/>
         <v>27.99</v>
       </c>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="119"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="100"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="B12" s="82">
-        <v>1</v>
-      </c>
-      <c r="C12" s="82" t="s">
+      <c r="B12" s="67">
+        <v>1</v>
+      </c>
+      <c r="C12" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="97" t="str">
+      <c r="D12" s="67"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="81" t="str">
         <f>A12</f>
         <v>Bat85 Diode</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="78">
-        <f>B12</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="79">
+      <c r="I12" s="76"/>
+      <c r="J12" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="64">
         <v>0.99</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="64">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79">
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64">
         <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="119"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="100"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="82">
-        <v>1</v>
-      </c>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="67">
+        <v>1</v>
+      </c>
+      <c r="C13" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="76" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="97" t="str">
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="81" t="str">
         <f>E13</f>
         <v>Omron G3NA-210B-DC5 10A SSR</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="78">
-        <f>B13</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="79">
+      <c r="I13" s="77"/>
+      <c r="J13" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="64">
         <v>28.99</v>
       </c>
-      <c r="L13" s="79">
+      <c r="L13" s="64">
         <f t="shared" si="0"/>
         <v>28.99</v>
       </c>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79">
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64">
         <f t="shared" si="1"/>
         <v>28.99</v>
       </c>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="119"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="100"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="103" t="s">
         <v>324</v>
       </c>
-      <c r="B14" s="82">
-        <v>1</v>
-      </c>
-      <c r="C14" s="82" t="s">
+      <c r="B14" s="104">
+        <v>1</v>
+      </c>
+      <c r="C14" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="76" t="s">
+      <c r="D14" s="104"/>
+      <c r="E14" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="97" t="str">
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106" t="str">
         <f>E14</f>
         <v>LDO V 2.4 Motor Kit</v>
       </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="78">
-        <f>B14</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="79">
+      <c r="I14" s="107"/>
+      <c r="J14" s="108">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="109">
         <v>109.99</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="109">
         <f t="shared" si="0"/>
         <v>109.99</v>
       </c>
-      <c r="M14" s="79">
-        <v>0</v>
-      </c>
-      <c r="N14" s="79">
-        <v>0</v>
-      </c>
-      <c r="O14" s="79">
+      <c r="M14" s="109">
+        <v>0</v>
+      </c>
+      <c r="N14" s="109">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
         <f t="shared" si="1"/>
         <v>109.99</v>
       </c>
-      <c r="P14" s="79">
+      <c r="P14" s="109">
         <f>O14</f>
         <v>109.99</v>
       </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="S14" s="118" t="s">
-        <v>461</v>
-      </c>
-      <c r="T14" s="119" t="s">
-        <v>461</v>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S14" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="T14" s="111" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="30">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="82">
-        <v>1</v>
-      </c>
-      <c r="C15" s="82" t="s">
+      <c r="B15" s="67">
+        <v>1</v>
+      </c>
+      <c r="C15" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="76" t="s">
+      <c r="D15" s="67"/>
+      <c r="E15" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="H15" s="97" t="str">
+      <c r="H15" s="81" t="str">
         <f>A15</f>
         <v>Mean Well LRS-200-24 200W 24V 8.8A Power Supply (PSU)</v>
       </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="78">
-        <f>B15</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="79">
+      <c r="I15" s="76"/>
+      <c r="J15" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="64">
         <v>30.99</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="64">
         <f t="shared" si="0"/>
         <v>30.99</v>
       </c>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79">
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64">
         <f t="shared" si="1"/>
         <v>30.99</v>
       </c>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="119"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="100"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="82">
-        <v>1</v>
-      </c>
-      <c r="C16" s="82" t="s">
+      <c r="B16" s="67">
+        <v>1</v>
+      </c>
+      <c r="C16" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="97" t="str">
-        <f t="shared" ref="H16:H23" si="2">A16</f>
+      <c r="D16" s="67"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="81" t="str">
+        <f t="shared" ref="H16:H23" si="4">A16</f>
         <v>Mean Well RS-25-5 25W Power Supply (PSU)</v>
       </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="78">
-        <f>B16</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="79">
+      <c r="I16" s="76"/>
+      <c r="J16" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="64">
         <v>18.989999999999998</v>
       </c>
-      <c r="L16" s="79">
+      <c r="L16" s="64">
         <f t="shared" si="0"/>
         <v>18.989999999999998</v>
       </c>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79">
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64">
         <f t="shared" si="1"/>
         <v>18.989999999999998</v>
       </c>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="119"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="100"/>
     </row>
     <row r="17" spans="1:30" ht="45">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="82">
-        <v>1</v>
-      </c>
-      <c r="C17" s="82" t="s">
+      <c r="B17" s="67">
+        <v>1</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="76" t="s">
+      <c r="D17" s="67"/>
+      <c r="E17" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="97" t="str">
-        <f t="shared" si="2"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="81" t="str">
+        <f t="shared" si="4"/>
         <v>ZF - Rocker Switch DPST 16A On-Off - WRG32F2BBRLN</v>
       </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="78">
-        <f>B17</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="79">
+      <c r="I17" s="76"/>
+      <c r="J17" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="64">
         <v>2.99</v>
       </c>
-      <c r="L17" s="79">
+      <c r="L17" s="64">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79">
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64">
         <f t="shared" si="1"/>
         <v>2.99</v>
       </c>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="119"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="100"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="B18" s="82">
-        <v>1</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="97" t="str">
-        <f t="shared" si="2"/>
+      <c r="B18" s="67">
+        <v>1</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="81" t="str">
+        <f t="shared" si="4"/>
         <v>TycoElectronics - 10EHG1-2 Filtered Power Inlet</v>
       </c>
-      <c r="I18" s="92"/>
-      <c r="J18" s="78">
-        <f>B18</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="79">
+      <c r="I18" s="76"/>
+      <c r="J18" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="64">
         <v>20.99</v>
       </c>
-      <c r="L18" s="79">
+      <c r="L18" s="64">
         <f t="shared" si="0"/>
         <v>20.99</v>
       </c>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79">
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64">
         <f t="shared" si="1"/>
         <v>20.99</v>
       </c>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="119"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="100"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="67">
         <v>3</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="97" t="str">
-        <f t="shared" si="2"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="81" t="str">
+        <f t="shared" si="4"/>
         <v>Fuse 8A 250V Holder Cartridge 5 X 20mm Glass</v>
       </c>
-      <c r="I19" s="92"/>
-      <c r="J19" s="78">
-        <f>B19</f>
+      <c r="I19" s="76"/>
+      <c r="J19" s="63">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K19" s="79">
+      <c r="K19" s="64">
         <v>0.99</v>
       </c>
-      <c r="L19" s="79">
+      <c r="L19" s="64">
         <f t="shared" si="0"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79">
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64">
         <f t="shared" si="1"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="119"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="100"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="82">
-        <v>1</v>
-      </c>
-      <c r="C20" s="82" t="s">
+      <c r="B20" s="67">
+        <v>1</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="76" t="s">
+      <c r="D20" s="67"/>
+      <c r="E20" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="97" t="str">
-        <f t="shared" si="2"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="81" t="str">
+        <f t="shared" si="4"/>
         <v>GDSTIME DC 24V 40x40x10 Axial Fan GDA4010</v>
       </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="78">
-        <f>B20</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="79">
+      <c r="I20" s="76"/>
+      <c r="J20" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="64">
         <v>6.99</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="64">
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79">
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64">
         <f t="shared" si="1"/>
         <v>6.99</v>
       </c>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="119"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="100"/>
     </row>
     <row r="21" spans="1:30" ht="30">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="B21" s="82">
-        <v>1</v>
-      </c>
-      <c r="C21" s="82" t="s">
+      <c r="B21" s="67">
+        <v>1</v>
+      </c>
+      <c r="C21" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="97" t="str">
-        <f t="shared" si="2"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="81" t="str">
+        <f t="shared" si="4"/>
         <v>GDSTIME DC 24V 40x40x20 Centrifugal Blower Fan GDB4020</v>
       </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="78">
-        <f>B21</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="79">
+      <c r="I21" s="76"/>
+      <c r="J21" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="64">
         <v>6.99</v>
       </c>
-      <c r="L21" s="79">
+      <c r="L21" s="64">
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79">
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64">
         <f t="shared" si="1"/>
         <v>6.99</v>
       </c>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="119"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="100"/>
     </row>
     <row r="22" spans="1:30" ht="30">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="B22" s="82">
+      <c r="B22" s="67">
         <v>3</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="97" t="str">
-        <f t="shared" si="2"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="81" t="str">
+        <f t="shared" si="4"/>
         <v>GDSTIME DC 24V 60x60x20 Axial Fan GDA6020 Dual Ball Bearing 5000RPM 1.7W 0.1A XH2.54</v>
       </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="78">
-        <f>B22</f>
+      <c r="I22" s="76"/>
+      <c r="J22" s="63">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K22" s="79">
+      <c r="K22" s="64">
         <v>6.99</v>
       </c>
-      <c r="L22" s="79">
+      <c r="L22" s="64">
         <f t="shared" si="0"/>
         <v>20.97</v>
       </c>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79">
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64">
         <f t="shared" si="1"/>
         <v>20.97</v>
       </c>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="119"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="100"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="61" t="s">
         <v>338</v>
       </c>
-      <c r="B23" s="82">
-        <v>1</v>
-      </c>
-      <c r="C23" s="82" t="s">
+      <c r="B23" s="67">
+        <v>1</v>
+      </c>
+      <c r="C23" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="97" t="str">
-        <f t="shared" si="2"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="81" t="str">
+        <f t="shared" si="4"/>
         <v>125C Cutoff 15A Thermal Fuse</v>
       </c>
-      <c r="I23" s="92"/>
-      <c r="J23" s="78">
-        <f>B23</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="79">
+      <c r="I23" s="76"/>
+      <c r="J23" s="63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="64">
         <v>1.29</v>
       </c>
-      <c r="L23" s="79">
+      <c r="L23" s="64">
         <f t="shared" si="0"/>
         <v>1.29</v>
       </c>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79">
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64">
         <f t="shared" si="1"/>
         <v>1.29</v>
       </c>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="119"/>
-    </row>
-    <row r="24" spans="1:30" s="90" customFormat="1" ht="45">
-      <c r="A24" s="84" t="s">
+      <c r="P23" s="64"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="100"/>
+    </row>
+    <row r="24" spans="1:30" s="74" customFormat="1" ht="45">
+      <c r="A24" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="B24" s="85">
-        <v>1</v>
-      </c>
-      <c r="C24" s="85" t="s">
+      <c r="B24" s="70">
+        <v>1</v>
+      </c>
+      <c r="C24" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="F24" s="86" t="s">
+      <c r="F24" s="71" t="s">
         <v>341</v>
       </c>
-      <c r="G24" s="86" t="s">
+      <c r="G24" s="71" t="s">
         <v>342</v>
       </c>
-      <c r="H24" s="87" t="str">
+      <c r="H24" s="72" t="str">
         <f>F24</f>
         <v>Octopus PRO 429</v>
       </c>
-      <c r="I24" s="91" t="s">
+      <c r="I24" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="J24" s="70">
+        <v>0</v>
+      </c>
+      <c r="K24" s="73">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="L24" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="102"/>
+      <c r="AD24" s="86"/>
+    </row>
+    <row r="25" spans="1:30" ht="30">
+      <c r="A25" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="J24" s="85">
-        <v>0</v>
-      </c>
-      <c r="K24" s="88">
-        <v>74.989999999999995</v>
-      </c>
-      <c r="L24" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="121"/>
-      <c r="AD24" s="103"/>
-    </row>
-    <row r="25" spans="1:30" ht="30">
-      <c r="A25" s="76" t="s">
-        <v>380</v>
-      </c>
-      <c r="B25" s="82">
-        <v>1</v>
-      </c>
-      <c r="C25" s="82" t="s">
+      <c r="B25" s="104">
+        <v>1</v>
+      </c>
+      <c r="C25" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="97" t="str">
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="106" t="str">
         <f>A25</f>
         <v xml:space="preserve">BTT Manta M8P Klipper Controller Board / 3D Printer Control System using CB1/CM4 </v>
       </c>
-      <c r="I25" s="80" t="s">
-        <v>385</v>
-      </c>
-      <c r="J25" s="78">
-        <f>B25</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="79">
+      <c r="I25" s="113" t="s">
+        <v>384</v>
+      </c>
+      <c r="J25" s="108">
+        <f t="shared" ref="J25:J56" si="5">B25</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="109">
         <v>54.99</v>
       </c>
-      <c r="L25" s="79">
+      <c r="L25" s="109">
         <f t="shared" si="0"/>
         <v>54.99</v>
       </c>
-      <c r="M25" s="79">
-        <v>0</v>
-      </c>
-      <c r="N25" s="79">
-        <v>0</v>
-      </c>
-      <c r="O25" s="79">
+      <c r="M25" s="109">
+        <v>0</v>
+      </c>
+      <c r="N25" s="109">
+        <v>0</v>
+      </c>
+      <c r="O25" s="109">
         <f t="shared" si="1"/>
         <v>54.99</v>
       </c>
-      <c r="P25" s="79">
+      <c r="P25" s="109">
         <f>O25</f>
         <v>54.99</v>
       </c>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="S25" s="118" t="s">
-        <v>461</v>
-      </c>
-      <c r="T25" s="119" t="s">
-        <v>461</v>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S25" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="T25" s="111" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="30">
-      <c r="A26" s="76" t="s">
-        <v>381</v>
-      </c>
-      <c r="B26" s="82">
+      <c r="A26" s="103" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="104">
         <v>2</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="104" t="s">
         <v>313</v>
       </c>
-      <c r="D26" s="82" t="s">
-        <v>383</v>
-      </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="97" t="str">
-        <f t="shared" ref="H26:H27" si="3">A26</f>
+      <c r="D26" s="104" t="s">
+        <v>382</v>
+      </c>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="106" t="str">
+        <f t="shared" ref="H26:H27" si="6">A26</f>
         <v>BTT CB1 Computing Core Board Adapter for Manta CBs</v>
       </c>
-      <c r="I26" s="80" t="s">
-        <v>389</v>
-      </c>
-      <c r="J26" s="78">
-        <f>B26</f>
+      <c r="I26" s="113" t="s">
+        <v>388</v>
+      </c>
+      <c r="J26" s="108">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K26" s="79">
+      <c r="K26" s="109">
         <v>29.99</v>
       </c>
-      <c r="L26" s="79">
+      <c r="L26" s="109">
         <f t="shared" si="0"/>
         <v>59.98</v>
       </c>
-      <c r="M26" s="79">
-        <v>0</v>
-      </c>
-      <c r="N26" s="79">
-        <v>0</v>
-      </c>
-      <c r="O26" s="79">
+      <c r="M26" s="109">
+        <v>0</v>
+      </c>
+      <c r="N26" s="109">
+        <v>0</v>
+      </c>
+      <c r="O26" s="109">
         <f t="shared" si="1"/>
         <v>59.98</v>
       </c>
-      <c r="P26" s="79">
-        <f t="shared" ref="P26:P27" si="4">O26</f>
+      <c r="P26" s="109">
+        <f t="shared" ref="P26:P27" si="7">O26</f>
         <v>59.98</v>
       </c>
-      <c r="Q26" s="105">
+      <c r="Q26" s="116">
         <f>K26*1*-1</f>
         <v>-29.99</v>
       </c>
-      <c r="R26" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="S26" s="118" t="s">
-        <v>461</v>
-      </c>
-      <c r="T26" s="119" t="s">
-        <v>461</v>
+      <c r="R26" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S26" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="T26" s="111" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="30">
-      <c r="A27" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="B27" s="82">
-        <v>1</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="97" t="str">
-        <f t="shared" si="3"/>
+      <c r="A27" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="B27" s="104">
+        <v>1</v>
+      </c>
+      <c r="C27" s="104" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="106" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">BTT Pi4B Adapter for CM4 or CB1 </v>
       </c>
-      <c r="I27" s="80" t="s">
-        <v>388</v>
-      </c>
-      <c r="J27" s="78">
-        <f>B27</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="79">
+      <c r="I27" s="113" t="s">
+        <v>387</v>
+      </c>
+      <c r="J27" s="108">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="109">
         <v>22.99</v>
       </c>
-      <c r="L27" s="79">
+      <c r="L27" s="109">
         <f t="shared" si="0"/>
         <v>22.99</v>
       </c>
-      <c r="M27" s="79">
-        <v>0</v>
-      </c>
-      <c r="N27" s="79">
-        <v>0</v>
-      </c>
-      <c r="O27" s="79">
+      <c r="M27" s="109">
+        <v>0</v>
+      </c>
+      <c r="N27" s="109">
+        <v>0</v>
+      </c>
+      <c r="O27" s="109">
         <f t="shared" si="1"/>
         <v>22.99</v>
       </c>
-      <c r="P27" s="79">
-        <f t="shared" si="4"/>
+      <c r="P27" s="109">
+        <f t="shared" si="7"/>
         <v>22.99</v>
       </c>
-      <c r="Q27" s="105">
+      <c r="Q27" s="116">
         <f>O27 * -1</f>
         <v>-22.99</v>
       </c>
-      <c r="R27" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="S27" s="118" t="s">
-        <v>461</v>
-      </c>
-      <c r="T27" s="119" t="s">
-        <v>461</v>
+      <c r="R27" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S27" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="T27" s="111" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28" s="67">
+        <v>7</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="B28" s="82">
-        <v>7</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="G28" s="73"/>
-      <c r="H28" s="97" t="str">
+      <c r="G28" s="58"/>
+      <c r="H28" s="81" t="str">
         <f>E28</f>
         <v>TMC2226</v>
       </c>
-      <c r="I28" s="92"/>
-      <c r="J28" s="78">
-        <f>B28</f>
+      <c r="I28" s="76"/>
+      <c r="J28" s="63">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K28" s="79">
+      <c r="K28" s="64">
         <v>6.49</v>
       </c>
-      <c r="L28" s="79">
+      <c r="L28" s="64">
         <f t="shared" si="0"/>
         <v>45.43</v>
       </c>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79">
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64">
         <f t="shared" si="1"/>
         <v>45.43</v>
       </c>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="119"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="100"/>
     </row>
     <row r="29" spans="1:30" ht="30">
-      <c r="A29" s="76" t="s">
-        <v>462</v>
-      </c>
-      <c r="B29" s="82">
-        <v>0</v>
-      </c>
-      <c r="C29" s="82" t="s">
+      <c r="A29" s="61" t="s">
+        <v>458</v>
+      </c>
+      <c r="B29" s="67">
+        <v>0</v>
+      </c>
+      <c r="C29" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="76" t="s">
-        <v>463</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>464</v>
-      </c>
-      <c r="G29" s="73"/>
-      <c r="H29" s="97" t="str">
+      <c r="D29" s="67"/>
+      <c r="E29" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="H29" s="81" t="str">
         <f>F29</f>
         <v>Touch Screen 7" PiTFT70 (extra)</v>
       </c>
-      <c r="I29" s="92" t="s">
-        <v>465</v>
-      </c>
-      <c r="J29" s="78">
-        <f>B29</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="79">
+      <c r="I29" s="76" t="s">
+        <v>461</v>
+      </c>
+      <c r="J29" s="63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="64">
         <v>69.989999999999995</v>
       </c>
-      <c r="L29" s="79">
+      <c r="L29" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79">
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="105">
+      <c r="P29" s="64"/>
+      <c r="Q29" s="117">
         <f>O29*-1</f>
         <v>0</v>
       </c>
-      <c r="R29" s="78"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="119"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="100"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="B30" s="82">
+      <c r="B30" s="104">
         <v>2</v>
       </c>
-      <c r="C30" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="D30" s="82" t="s">
+      <c r="C30" s="104" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" s="104" t="s">
         <v>313</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="97" t="str">
+      <c r="E30" s="103"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106" t="str">
         <f>A30</f>
         <v>Mini 12864 Display Type B RGB - Choose your color</v>
       </c>
-      <c r="I30" s="92" t="s">
-        <v>466</v>
-      </c>
-      <c r="J30" s="78">
-        <f>B30</f>
+      <c r="I30" s="107" t="s">
+        <v>462</v>
+      </c>
+      <c r="J30" s="108">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K30" s="79">
+      <c r="K30" s="109">
         <v>12.99</v>
       </c>
-      <c r="L30" s="79">
-        <f t="shared" ref="L30" si="5">J30*K30</f>
+      <c r="L30" s="109">
+        <f t="shared" ref="L30" si="8">J30*K30</f>
         <v>25.98</v>
       </c>
-      <c r="M30" s="79">
-        <v>0</v>
-      </c>
-      <c r="N30" s="79">
-        <v>0</v>
-      </c>
-      <c r="O30" s="79">
-        <f t="shared" ref="O30" si="6">L30+M30+N30</f>
+      <c r="M30" s="109">
+        <v>0</v>
+      </c>
+      <c r="N30" s="109">
+        <v>0</v>
+      </c>
+      <c r="O30" s="109">
+        <f t="shared" ref="O30" si="9">L30+M30+N30</f>
         <v>25.98</v>
       </c>
-      <c r="P30" s="79">
+      <c r="P30" s="109">
         <f>O30</f>
         <v>25.98</v>
       </c>
-      <c r="Q30" s="105">
+      <c r="Q30" s="116">
         <f>(K30*1)*-1</f>
         <v>-12.99</v>
       </c>
-      <c r="R30" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="S30" s="118" t="s">
-        <v>461</v>
-      </c>
-      <c r="T30" s="119" t="s">
-        <v>461</v>
+      <c r="R30" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S30" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="T30" s="111" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="76" t="s">
-        <v>391</v>
-      </c>
-      <c r="B31" s="82">
-        <v>1</v>
-      </c>
-      <c r="C31" s="82" t="s">
+      <c r="A31" s="103" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="104">
+        <v>1</v>
+      </c>
+      <c r="C31" s="104" t="s">
         <v>313</v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="97" t="str">
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106" t="str">
         <f>A31</f>
         <v>Voron v2.4 USA Frame Kit (black); 350mm</v>
       </c>
-      <c r="I31" s="92"/>
-      <c r="J31" s="78">
-        <f>B31</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="79">
+      <c r="I31" s="107"/>
+      <c r="J31" s="108">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="109">
         <v>150</v>
       </c>
-      <c r="L31" s="79">
+      <c r="L31" s="109">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="M31" s="79">
+      <c r="M31" s="109">
         <v>10</v>
       </c>
-      <c r="N31" s="79">
-        <v>0</v>
-      </c>
-      <c r="O31" s="79">
+      <c r="N31" s="109">
+        <v>0</v>
+      </c>
+      <c r="O31" s="109">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="P31" s="79">
+      <c r="P31" s="109">
         <f>O31</f>
         <v>160</v>
       </c>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="S31" s="118" t="s">
-        <v>461</v>
-      </c>
-      <c r="T31" s="119" t="s">
-        <v>461</v>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S31" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="T31" s="111" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="B32" s="82">
+      <c r="B32" s="67">
         <v>3</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="96" t="str">
+      <c r="D32" s="67"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="80" t="str">
         <f>A32</f>
         <v>Bowden / PTFE Tube 4mm OD 3mm ID</v>
       </c>
-      <c r="I32" s="92" t="s">
-        <v>395</v>
-      </c>
-      <c r="J32" s="78">
-        <f>B32</f>
+      <c r="I32" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="J32" s="63">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K32" s="79">
+      <c r="K32" s="64">
         <v>3.5</v>
       </c>
-      <c r="L32" s="79">
+      <c r="L32" s="64">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79">
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="119"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="117"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="100"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="B33" s="82">
+      <c r="B33" s="67">
         <v>8</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="96" t="str">
+      <c r="D33" s="67"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="80" t="str">
         <f>A33</f>
         <v>6mm x 3mm Round Neomydium Magnets</v>
       </c>
-      <c r="I33" s="92"/>
-      <c r="J33" s="78">
-        <f>B33</f>
+      <c r="I33" s="76"/>
+      <c r="J33" s="63">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K33" s="79">
+      <c r="K33" s="64">
         <v>0.49</v>
       </c>
-      <c r="L33" s="79">
+      <c r="L33" s="64">
         <f t="shared" si="0"/>
         <v>3.92</v>
       </c>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79">
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64">
         <f t="shared" si="1"/>
         <v>3.92</v>
       </c>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="119"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="100"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="B34" s="82">
-        <v>1</v>
-      </c>
-      <c r="C34" s="82" t="s">
+      <c r="B34" s="67">
+        <v>1</v>
+      </c>
+      <c r="C34" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="96" t="str">
-        <f t="shared" ref="H34:H35" si="7">A34</f>
+      <c r="D34" s="67"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="80" t="str">
+        <f t="shared" ref="H34" si="10">A34</f>
         <v>Bowden Coupler for 4mm OD PTFE Tube</v>
       </c>
-      <c r="I34" s="92"/>
-      <c r="J34" s="78">
-        <f>B34</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="79">
+      <c r="I34" s="76"/>
+      <c r="J34" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="64">
         <v>0.99</v>
       </c>
-      <c r="L34" s="79">
+      <c r="L34" s="64">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79">
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64">
         <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="119"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="100"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="B35" s="82">
-        <v>1</v>
-      </c>
-      <c r="C35" s="82" t="s">
+      <c r="B35" s="67">
+        <v>1</v>
+      </c>
+      <c r="C35" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="96" t="str">
+      <c r="D35" s="67"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="80" t="str">
         <f>A35</f>
         <v>5mm x 10m Single Sided Self Adhesive Tape / 1mm thick</v>
       </c>
-      <c r="I35" s="92"/>
-      <c r="J35" s="78">
-        <f>B35</f>
-        <v>1</v>
-      </c>
-      <c r="K35" s="79">
+      <c r="I35" s="76"/>
+      <c r="J35" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="64">
         <v>4.99</v>
       </c>
-      <c r="L35" s="79">
+      <c r="L35" s="64">
         <f t="shared" si="0"/>
         <v>4.99</v>
       </c>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79">
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64">
         <f t="shared" si="1"/>
         <v>4.99</v>
       </c>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="119"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="100"/>
     </row>
     <row r="36" spans="1:20" ht="30">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="82">
-        <v>1</v>
-      </c>
-      <c r="C36" s="82" t="s">
+      <c r="B36" s="67">
+        <v>1</v>
+      </c>
+      <c r="C36" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="76" t="s">
+      <c r="D36" s="67"/>
+      <c r="E36" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="96" t="str">
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="80" t="str">
         <f>E36</f>
         <v>BMG Components Kit Nano Coated RNC</v>
       </c>
-      <c r="I36" s="92"/>
-      <c r="J36" s="78">
-        <f>B36</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="79">
+      <c r="I36" s="76"/>
+      <c r="J36" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="64">
         <v>32.99</v>
       </c>
-      <c r="L36" s="79">
+      <c r="L36" s="64">
         <f t="shared" si="0"/>
         <v>32.99</v>
       </c>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79">
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64">
         <f t="shared" si="1"/>
         <v>32.99</v>
       </c>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="119"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="117"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="100"/>
     </row>
     <row r="37" spans="1:20" ht="30">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="B37" s="82">
-        <v>1</v>
-      </c>
-      <c r="C37" s="82" t="s">
+      <c r="B37" s="67">
+        <v>1</v>
+      </c>
+      <c r="C37" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="76" t="s">
+      <c r="D37" s="67"/>
+      <c r="E37" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="F37" s="73" t="s">
+      <c r="F37" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="G37" s="73"/>
-      <c r="H37" s="96" t="str">
+      <c r="G37" s="58"/>
+      <c r="H37" s="80" t="str">
         <f>A37</f>
         <v>Wiring Harness for Voron 2.4 / Trident</v>
       </c>
-      <c r="I37" s="92" t="s">
-        <v>398</v>
-      </c>
-      <c r="J37" s="78">
-        <f>B37</f>
-        <v>1</v>
-      </c>
-      <c r="K37" s="79">
+      <c r="I37" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="J37" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="64">
         <v>79.989999999999995</v>
       </c>
-      <c r="L37" s="79">
+      <c r="L37" s="64">
         <f t="shared" si="0"/>
         <v>79.989999999999995</v>
       </c>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79">
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64">
         <f t="shared" si="1"/>
         <v>79.989999999999995</v>
       </c>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="119"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="100"/>
     </row>
     <row r="38" spans="1:20" ht="30">
-      <c r="A38" s="76" t="s">
-        <v>396</v>
-      </c>
-      <c r="B38" s="82">
-        <v>1</v>
-      </c>
-      <c r="C38" s="82" t="s">
+      <c r="A38" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="B38" s="67">
+        <v>1</v>
+      </c>
+      <c r="C38" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="76" t="s">
-        <v>394</v>
-      </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="96" t="str">
+      <c r="D38" s="67"/>
+      <c r="E38" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="80" t="str">
         <f>E38</f>
         <v>IGUS Cable Chain Set (350mm)</v>
       </c>
-      <c r="I38" s="92" t="s">
-        <v>397</v>
-      </c>
-      <c r="J38" s="78">
-        <f>B38</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="79">
+      <c r="I38" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="J38" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="64">
         <v>79.989999999999995</v>
       </c>
-      <c r="L38" s="79">
+      <c r="L38" s="64">
         <f t="shared" si="0"/>
         <v>79.989999999999995</v>
       </c>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79">
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64">
         <f t="shared" si="1"/>
         <v>79.989999999999995</v>
       </c>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="119"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="99"/>
+      <c r="T38" s="100"/>
     </row>
     <row r="39" spans="1:20" ht="30">
-      <c r="A39" s="76" t="s">
-        <v>403</v>
-      </c>
-      <c r="B39" s="82">
-        <v>1</v>
-      </c>
-      <c r="C39" s="82" t="s">
+      <c r="A39" s="118" t="s">
+        <v>402</v>
+      </c>
+      <c r="B39" s="127">
+        <v>1</v>
+      </c>
+      <c r="C39" s="127" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="74" t="s">
-        <v>402</v>
-      </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="96" t="str">
-        <f>E39</f>
-        <v>Mandala Roseworks ABS Panels White</v>
-      </c>
-      <c r="I39" s="92" t="s">
-        <v>404</v>
-      </c>
-      <c r="J39" s="78">
-        <f>B39</f>
-        <v>1</v>
-      </c>
-      <c r="K39" s="79">
-        <v>52.99</v>
-      </c>
-      <c r="L39" s="79">
+      <c r="D39" s="127"/>
+      <c r="E39" s="130" t="s">
+        <v>401</v>
+      </c>
+      <c r="F39" s="118" t="s">
+        <v>463</v>
+      </c>
+      <c r="G39" s="128"/>
+      <c r="H39" s="131" t="str">
+        <f>F39</f>
+        <v>Printed Solide - Aluminum Composite backing Panels</v>
+      </c>
+      <c r="I39" s="122" t="s">
+        <v>464</v>
+      </c>
+      <c r="J39" s="119">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="123">
+        <v>65</v>
+      </c>
+      <c r="L39" s="123">
         <f t="shared" si="0"/>
-        <v>52.99</v>
-      </c>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79">
+        <v>65</v>
+      </c>
+      <c r="M39" s="123">
+        <v>0</v>
+      </c>
+      <c r="N39" s="123">
+        <v>0</v>
+      </c>
+      <c r="O39" s="123">
         <f t="shared" si="1"/>
-        <v>52.99</v>
-      </c>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="118"/>
-      <c r="T39" s="119"/>
+        <v>65</v>
+      </c>
+      <c r="P39" s="123">
+        <f>O39</f>
+        <v>65</v>
+      </c>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S39" s="125" t="s">
+        <v>472</v>
+      </c>
+      <c r="T39" s="126" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="30">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="B40" s="67">
+        <v>1</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="B40" s="82">
-        <v>1</v>
-      </c>
-      <c r="C40" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="D40" s="82"/>
-      <c r="E40" s="74" t="s">
-        <v>400</v>
-      </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="96" t="str">
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="80" t="str">
         <f>A40</f>
         <v>Mandala Roseworks Acrylic Panels Smoked (350mm)</v>
       </c>
-      <c r="I40" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="J40" s="78">
-        <f>B40</f>
-        <v>1</v>
-      </c>
-      <c r="K40" s="79">
+      <c r="I40" s="76" t="s">
+        <v>400</v>
+      </c>
+      <c r="J40" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="64">
         <v>61.99</v>
       </c>
-      <c r="L40" s="79">
+      <c r="L40" s="64">
         <f t="shared" si="0"/>
         <v>61.99</v>
       </c>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79">
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64">
         <f t="shared" si="1"/>
         <v>61.99</v>
       </c>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="119"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="100"/>
     </row>
     <row r="41" spans="1:20" ht="30">
-      <c r="A41" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="B41" s="82">
-        <v>1</v>
-      </c>
-      <c r="C41" s="82" t="s">
+      <c r="A41" s="118" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" s="127">
+        <v>1</v>
+      </c>
+      <c r="C41" s="127" t="s">
         <v>298</v>
       </c>
-      <c r="D41" s="82"/>
-      <c r="E41" s="76" t="s">
-        <v>405</v>
-      </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="83" t="str">
+      <c r="D41" s="127"/>
+      <c r="E41" s="118" t="s">
+        <v>403</v>
+      </c>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="121" t="str">
         <f>E41</f>
         <v>Mandala Roseworks Ultraflat Magbed (350mm)</v>
       </c>
-      <c r="I41" s="92" t="s">
-        <v>407</v>
-      </c>
-      <c r="J41" s="78">
-        <f>B41</f>
-        <v>1</v>
-      </c>
-      <c r="K41" s="79">
+      <c r="I41" s="122" t="s">
+        <v>405</v>
+      </c>
+      <c r="J41" s="119">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="123">
         <v>253.99</v>
       </c>
-      <c r="L41" s="79">
+      <c r="L41" s="123">
         <f t="shared" si="0"/>
         <v>253.99</v>
       </c>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79">
+      <c r="M41" s="123">
+        <v>25</v>
+      </c>
+      <c r="N41" s="123">
+        <v>0</v>
+      </c>
+      <c r="O41" s="123">
         <f t="shared" si="1"/>
-        <v>253.99</v>
-      </c>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="118"/>
-      <c r="T41" s="119"/>
+        <v>278.99</v>
+      </c>
+      <c r="P41" s="123">
+        <f>O41</f>
+        <v>278.99</v>
+      </c>
+      <c r="Q41" s="124"/>
+      <c r="R41" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S41" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="T41" s="126" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="59" t="s">
         <v>354</v>
       </c>
-      <c r="B42" s="82">
-        <v>1</v>
-      </c>
-      <c r="C42" s="82" t="s">
+      <c r="B42" s="67">
+        <v>1</v>
+      </c>
+      <c r="C42" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="76" t="s">
-        <v>408</v>
-      </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="83" t="str">
+      <c r="D42" s="67"/>
+      <c r="E42" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="68" t="str">
         <f>E42</f>
         <v>Fermio Style (350mm)</v>
       </c>
-      <c r="I42" s="92" t="s">
-        <v>409</v>
-      </c>
-      <c r="J42" s="78">
-        <f>B42</f>
-        <v>1</v>
-      </c>
-      <c r="K42" s="79">
+      <c r="I42" s="76" t="s">
+        <v>407</v>
+      </c>
+      <c r="J42" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="64">
         <v>102.99</v>
       </c>
-      <c r="L42" s="79">
+      <c r="L42" s="64">
         <f t="shared" si="0"/>
         <v>102.99</v>
       </c>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79">
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64">
         <f t="shared" si="1"/>
         <v>102.99</v>
       </c>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="119"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="100"/>
     </row>
     <row r="43" spans="1:20" ht="30">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="B43" s="82">
-        <v>1</v>
-      </c>
-      <c r="C43" s="82" t="s">
+      <c r="B43" s="67">
+        <v>1</v>
+      </c>
+      <c r="C43" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="83" t="str">
+      <c r="D43" s="67"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="68" t="str">
         <f>A43</f>
         <v>Magnetic Flex Plate Double-Sided (Texture - Smooth) with 3M Magnetic Backing (Energetic &amp; West3D Collab)</v>
       </c>
-      <c r="I43" s="92" t="s">
-        <v>410</v>
-      </c>
-      <c r="J43" s="78">
-        <f>B43</f>
-        <v>1</v>
-      </c>
-      <c r="K43" s="79">
+      <c r="I43" s="76" t="s">
+        <v>408</v>
+      </c>
+      <c r="J43" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="64">
         <v>59.99</v>
       </c>
-      <c r="L43" s="79">
+      <c r="L43" s="64">
         <f t="shared" si="0"/>
         <v>59.99</v>
       </c>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79">
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64">
         <f t="shared" si="1"/>
         <v>59.99</v>
       </c>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="119"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="100"/>
     </row>
     <row r="44" spans="1:20" ht="30">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="B44" s="82">
-        <v>1</v>
-      </c>
-      <c r="C44" s="82" t="s">
+      <c r="B44" s="67">
+        <v>1</v>
+      </c>
+      <c r="C44" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="74" t="s">
+      <c r="D44" s="67"/>
+      <c r="E44" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F44" s="74" t="s">
+      <c r="F44" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="G44" s="76" t="s">
-        <v>411</v>
-      </c>
-      <c r="H44" s="83" t="str">
+      <c r="G44" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="H44" s="68" t="str">
         <f>G44</f>
         <v>Phaetus Rapido UHF /TL PT1000 (black)</v>
       </c>
-      <c r="I44" s="92"/>
-      <c r="J44" s="78">
-        <f>B44</f>
-        <v>1</v>
-      </c>
-      <c r="K44" s="79">
+      <c r="I44" s="76"/>
+      <c r="J44" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="64">
         <v>119.99</v>
       </c>
-      <c r="L44" s="79">
+      <c r="L44" s="64">
         <f t="shared" si="0"/>
         <v>119.99</v>
       </c>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79">
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64">
         <f t="shared" si="1"/>
         <v>119.99</v>
       </c>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="119"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="100"/>
     </row>
     <row r="45" spans="1:20" ht="30">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="B45" s="82">
-        <v>1</v>
-      </c>
-      <c r="C45" s="82" t="s">
+      <c r="B45" s="67">
+        <v>1</v>
+      </c>
+      <c r="C45" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D45" s="82"/>
-      <c r="E45" s="74" t="s">
+      <c r="D45" s="67"/>
+      <c r="E45" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="I45" s="92" t="s">
-        <v>412</v>
-      </c>
-      <c r="J45" s="78">
-        <f>B45</f>
-        <v>1</v>
-      </c>
-      <c r="K45" s="79">
-        <v>0</v>
-      </c>
-      <c r="L45" s="79">
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="I45" s="76" t="s">
+        <v>410</v>
+      </c>
+      <c r="J45" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="64">
+        <v>0</v>
+      </c>
+      <c r="L45" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79">
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="78"/>
-      <c r="S45" s="118"/>
-      <c r="T45" s="119"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="100"/>
     </row>
     <row r="46" spans="1:20" ht="30">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="B46" s="82">
-        <v>1</v>
-      </c>
-      <c r="C46" s="82" t="s">
+      <c r="B46" s="67">
+        <v>1</v>
+      </c>
+      <c r="C46" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="D46" s="82"/>
-      <c r="E46" s="74" t="s">
+      <c r="D46" s="67"/>
+      <c r="E46" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="F46" s="74" t="s">
+      <c r="F46" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="G46" s="73"/>
-      <c r="H46" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="I46" s="92" t="s">
-        <v>413</v>
-      </c>
-      <c r="J46" s="78">
-        <f>B46</f>
-        <v>1</v>
-      </c>
-      <c r="K46" s="79">
-        <v>0</v>
-      </c>
-      <c r="L46" s="79">
+      <c r="G46" s="58"/>
+      <c r="H46" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="I46" s="76" t="s">
+        <v>411</v>
+      </c>
+      <c r="J46" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="64">
+        <v>0</v>
+      </c>
+      <c r="L46" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79">
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="77"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="118"/>
-      <c r="T46" s="119"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="63"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="100"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="82">
-        <v>1</v>
-      </c>
-      <c r="C47" s="82" t="s">
+      <c r="B47" s="127">
+        <v>1</v>
+      </c>
+      <c r="C47" s="127" t="s">
         <v>313</v>
       </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="83" t="str">
-        <f>A47</f>
+      <c r="D47" s="127"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="121" t="str">
+        <f t="shared" ref="H47:H53" si="11">A47</f>
         <v>Mobil Mobilux EP2 10ml filled syringe with blunt tips</v>
       </c>
-      <c r="I47" s="92"/>
-      <c r="J47" s="78">
-        <f>B47</f>
-        <v>1</v>
-      </c>
-      <c r="K47" s="79">
+      <c r="I47" s="122"/>
+      <c r="J47" s="119">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="123">
         <v>8.99</v>
       </c>
-      <c r="L47" s="79">
+      <c r="L47" s="123">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79">
+      <c r="M47" s="123">
+        <v>0</v>
+      </c>
+      <c r="N47" s="123">
+        <v>0</v>
+      </c>
+      <c r="O47" s="123">
         <f t="shared" si="1"/>
         <v>8.99</v>
       </c>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="77"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="118"/>
-      <c r="T47" s="119"/>
+      <c r="P47" s="123">
+        <f>O47</f>
+        <v>8.99</v>
+      </c>
+      <c r="Q47" s="124"/>
+      <c r="R47" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S47" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="T47" s="126" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="B48" s="82">
-        <v>1</v>
-      </c>
-      <c r="C48" s="82" t="s">
+      <c r="B48" s="67">
+        <v>1</v>
+      </c>
+      <c r="C48" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="83" t="str">
-        <f>A48</f>
+      <c r="D48" s="67"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="68" t="str">
+        <f t="shared" si="11"/>
         <v>Large Printed Parts Decal</v>
       </c>
-      <c r="I48" s="92" t="s">
+      <c r="I48" s="76" t="s">
+        <v>412</v>
+      </c>
+      <c r="J48" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="64">
+        <v>15.99</v>
+      </c>
+      <c r="L48" s="64">
+        <f t="shared" ref="L48:L56" si="12">J48*K48</f>
+        <v>15.99</v>
+      </c>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64">
+        <f t="shared" ref="O48:O56" si="13">L48+M48+N48</f>
+        <v>15.99</v>
+      </c>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="100"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" s="67">
+        <v>1</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" s="67"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="68" t="str">
+        <f t="shared" si="11"/>
+        <v>Voron Design Decal</v>
+      </c>
+      <c r="I49" s="76" t="s">
+        <v>412</v>
+      </c>
+      <c r="J49" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="64">
+        <v>5.99</v>
+      </c>
+      <c r="L49" s="64">
+        <f t="shared" si="12"/>
+        <v>5.99</v>
+      </c>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64">
+        <f t="shared" si="13"/>
+        <v>5.99</v>
+      </c>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="100"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="118" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" s="127">
+        <v>1</v>
+      </c>
+      <c r="C50" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" s="127"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="121" t="str">
+        <f t="shared" si="11"/>
+        <v>Din Rails (Pair); 470mm (350 builds; Model 2.4</v>
+      </c>
+      <c r="I50" s="122"/>
+      <c r="J50" s="119">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="123">
+        <v>11.99</v>
+      </c>
+      <c r="L50" s="123">
+        <f t="shared" si="12"/>
+        <v>11.99</v>
+      </c>
+      <c r="M50" s="123">
+        <v>0</v>
+      </c>
+      <c r="N50" s="123">
+        <v>0</v>
+      </c>
+      <c r="O50" s="123">
+        <f t="shared" si="13"/>
+        <v>11.99</v>
+      </c>
+      <c r="P50" s="123">
+        <f>O50</f>
+        <v>11.99</v>
+      </c>
+      <c r="Q50" s="124"/>
+      <c r="R50" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S50" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="T50" s="126" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="118" t="s">
         <v>414</v>
       </c>
-      <c r="J48" s="78">
-        <f>B48</f>
-        <v>1</v>
-      </c>
-      <c r="K48" s="79">
-        <v>15.99</v>
-      </c>
-      <c r="L48" s="79">
-        <f t="shared" ref="L48:L56" si="8">J48*K48</f>
-        <v>15.99</v>
-      </c>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79">
-        <f t="shared" ref="O48:O56" si="9">L48+M48+N48</f>
-        <v>15.99</v>
-      </c>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="77"/>
-      <c r="R48" s="78"/>
-      <c r="S48" s="118"/>
-      <c r="T48" s="119"/>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="76" t="s">
-        <v>366</v>
-      </c>
-      <c r="B49" s="82">
-        <v>1</v>
-      </c>
-      <c r="C49" s="82" t="s">
+      <c r="B51" s="127">
+        <v>1</v>
+      </c>
+      <c r="C51" s="127" t="s">
         <v>313</v>
       </c>
-      <c r="D49" s="82"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="83" t="str">
-        <f>A49</f>
-        <v>Voron Design Decal</v>
-      </c>
-      <c r="I49" s="92" t="s">
-        <v>414</v>
-      </c>
-      <c r="J49" s="78">
-        <f>B49</f>
-        <v>1</v>
-      </c>
-      <c r="K49" s="79">
-        <v>5.99</v>
-      </c>
-      <c r="L49" s="79">
-        <f t="shared" si="8"/>
-        <v>5.99</v>
-      </c>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79">
-        <f t="shared" si="9"/>
-        <v>5.99</v>
-      </c>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="118"/>
-      <c r="T49" s="119"/>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="B50" s="82">
-        <v>1</v>
-      </c>
-      <c r="C50" s="82" t="s">
+      <c r="D51" s="127"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="121" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Din Rail Clamp / Bracket for Solid State Relay (SSR) </v>
+      </c>
+      <c r="I51" s="122"/>
+      <c r="J51" s="119">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="123">
+        <v>3.99</v>
+      </c>
+      <c r="L51" s="123">
+        <f t="shared" si="12"/>
+        <v>3.99</v>
+      </c>
+      <c r="M51" s="123">
+        <v>0</v>
+      </c>
+      <c r="N51" s="123">
+        <v>0</v>
+      </c>
+      <c r="O51" s="123">
+        <f t="shared" si="13"/>
+        <v>3.99</v>
+      </c>
+      <c r="P51" s="123">
+        <f>O51</f>
+        <v>3.99</v>
+      </c>
+      <c r="Q51" s="124"/>
+      <c r="R51" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S51" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="T51" s="126" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="B52" s="67">
+        <v>3</v>
+      </c>
+      <c r="C52" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="83" t="str">
-        <f>A50</f>
-        <v>Din Rails (Pair); 470mm (350 builds; Model 2.4</v>
-      </c>
-      <c r="I50" s="92"/>
-      <c r="J50" s="78">
-        <f>B50</f>
-        <v>1</v>
-      </c>
-      <c r="K50" s="79">
-        <v>11.99</v>
-      </c>
-      <c r="L50" s="79">
-        <f t="shared" si="8"/>
-        <v>11.99</v>
-      </c>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79">
-        <f t="shared" si="9"/>
-        <v>11.99</v>
-      </c>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="118"/>
-      <c r="T50" s="119"/>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="76" t="s">
+      <c r="D52" s="67"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="68" t="str">
+        <f t="shared" si="11"/>
+        <v>Wire Connectors (Wago 221-415)</v>
+      </c>
+      <c r="I52" s="76"/>
+      <c r="J52" s="63">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K52" s="64">
+        <v>2.79</v>
+      </c>
+      <c r="L52" s="64">
+        <f t="shared" si="12"/>
+        <v>8.370000000000001</v>
+      </c>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64">
+        <f t="shared" si="13"/>
+        <v>8.370000000000001</v>
+      </c>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="99"/>
+      <c r="T52" s="100"/>
+    </row>
+    <row r="53" spans="1:20" ht="30">
+      <c r="A53" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="B53" s="67">
+        <v>2</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="67"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="68" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">3-3 DIN Mounting Fast Wire Cable Connectors / Wago Connector </v>
+      </c>
+      <c r="I53" s="76"/>
+      <c r="J53" s="63">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K53" s="64">
+        <v>3.49</v>
+      </c>
+      <c r="L53" s="64">
+        <f t="shared" si="12"/>
+        <v>6.98</v>
+      </c>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64">
+        <f t="shared" si="13"/>
+        <v>6.98</v>
+      </c>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="100"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="B51" s="82">
-        <v>1</v>
-      </c>
-      <c r="C51" s="82" t="s">
+      <c r="B54" s="67">
+        <v>1</v>
+      </c>
+      <c r="C54" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D51" s="82"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="83" t="str">
-        <f>A51</f>
-        <v xml:space="preserve">Din Rail Clamp / Bracket for Solid State Relay (SSR) </v>
-      </c>
-      <c r="I51" s="92"/>
-      <c r="J51" s="78">
-        <f>B51</f>
-        <v>1</v>
-      </c>
-      <c r="K51" s="79">
-        <v>3.99</v>
-      </c>
-      <c r="L51" s="79">
-        <f t="shared" si="8"/>
-        <v>3.99</v>
-      </c>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79">
-        <f t="shared" si="9"/>
-        <v>3.99</v>
-      </c>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="77"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="118"/>
-      <c r="T51" s="119"/>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="76" t="s">
-        <v>415</v>
-      </c>
-      <c r="B52" s="82">
-        <v>3</v>
-      </c>
-      <c r="C52" s="82" t="s">
+      <c r="D54" s="67"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="68" t="str">
+        <f t="shared" ref="H54:H55" si="14">A54</f>
+        <v xml:space="preserve">ADXL345 Accelerometer </v>
+      </c>
+      <c r="I54" s="76"/>
+      <c r="J54" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="64">
+        <v>3.49</v>
+      </c>
+      <c r="L54" s="64">
+        <f t="shared" si="12"/>
+        <v>3.49</v>
+      </c>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64">
+        <f t="shared" si="13"/>
+        <v>3.49</v>
+      </c>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="100"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="67">
+        <v>1</v>
+      </c>
+      <c r="C55" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D52" s="82"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="83" t="str">
-        <f>A52</f>
-        <v>Wire Connectors (Wago 221-415)</v>
-      </c>
-      <c r="I52" s="92"/>
-      <c r="J52" s="78">
-        <f>B52</f>
-        <v>3</v>
-      </c>
-      <c r="K52" s="79">
-        <v>2.79</v>
-      </c>
-      <c r="L52" s="79">
-        <f t="shared" si="8"/>
-        <v>8.370000000000001</v>
-      </c>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79">
-        <f t="shared" si="9"/>
-        <v>8.370000000000001</v>
-      </c>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="78"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="119"/>
-    </row>
-    <row r="53" spans="1:20" ht="30">
-      <c r="A53" s="76" t="s">
+      <c r="D55" s="67"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="68" t="str">
+        <f t="shared" si="14"/>
+        <v>C13 Power Cord</v>
+      </c>
+      <c r="I55" s="76" t="s">
         <v>417</v>
       </c>
-      <c r="B53" s="82">
-        <v>2</v>
-      </c>
-      <c r="C53" s="82" t="s">
+      <c r="J55" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="99"/>
+      <c r="T55" s="100"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="B56" s="67">
+        <v>1</v>
+      </c>
+      <c r="C56" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="83" t="str">
-        <f>A53</f>
-        <v xml:space="preserve">3-3 DIN Mounting Fast Wire Cable Connectors / Wago Connector </v>
-      </c>
-      <c r="I53" s="92"/>
-      <c r="J53" s="78">
-        <f>B53</f>
-        <v>2</v>
-      </c>
-      <c r="K53" s="79">
-        <v>3.49</v>
-      </c>
-      <c r="L53" s="79">
-        <f t="shared" si="8"/>
-        <v>6.98</v>
-      </c>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79">
-        <f t="shared" si="9"/>
-        <v>6.98</v>
-      </c>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="77"/>
-      <c r="R53" s="78"/>
-      <c r="S53" s="118"/>
-      <c r="T53" s="119"/>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="76" t="s">
+      <c r="D56" s="67"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="J56" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="99"/>
+      <c r="T56" s="100"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="B54" s="82">
-        <v>1</v>
-      </c>
-      <c r="C54" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="83" t="str">
-        <f t="shared" ref="H54:H55" si="10">A54</f>
-        <v xml:space="preserve">ADXL345 Accelerometer </v>
-      </c>
-      <c r="I54" s="92"/>
-      <c r="J54" s="78">
-        <f>B54</f>
-        <v>1</v>
-      </c>
-      <c r="K54" s="79">
-        <v>3.49</v>
-      </c>
-      <c r="L54" s="79">
-        <f t="shared" si="8"/>
-        <v>3.49</v>
-      </c>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79">
-        <f t="shared" si="9"/>
-        <v>3.49</v>
-      </c>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="78"/>
-      <c r="S54" s="118"/>
-      <c r="T54" s="119"/>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="82">
-        <v>1</v>
-      </c>
-      <c r="C55" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="83" t="str">
-        <f t="shared" si="10"/>
-        <v>C13 Power Cord</v>
-      </c>
-      <c r="I55" s="92" t="s">
-        <v>419</v>
-      </c>
-      <c r="J55" s="78">
-        <f>B55</f>
-        <v>1</v>
-      </c>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="79"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="78"/>
-      <c r="S55" s="118"/>
-      <c r="T55" s="119"/>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="74" t="s">
-        <v>367</v>
-      </c>
-      <c r="B56" s="82">
-        <v>1</v>
-      </c>
-      <c r="C56" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="92" t="s">
-        <v>423</v>
-      </c>
-      <c r="J56" s="78">
-        <f>B56</f>
-        <v>1</v>
-      </c>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="77"/>
-      <c r="R56" s="78"/>
-      <c r="S56" s="118"/>
-      <c r="T56" s="119"/>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="B57" s="78">
-        <v>1</v>
-      </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78" t="s">
+      <c r="B57" s="63">
+        <v>1</v>
+      </c>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="81" t="str">
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="66" t="str">
         <f>A57</f>
         <v>3M VHB Tape 5952 5mm width</v>
       </c>
-      <c r="I57" s="92" t="s">
-        <v>422</v>
-      </c>
-      <c r="J57" s="78">
-        <f t="shared" ref="J57:J59" si="11">B57</f>
-        <v>1</v>
-      </c>
-      <c r="K57" s="79">
+      <c r="I57" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="J57" s="63">
+        <f t="shared" ref="J57:J59" si="15">B57</f>
+        <v>1</v>
+      </c>
+      <c r="K57" s="64">
         <v>5.99</v>
       </c>
-      <c r="L57" s="79">
-        <f t="shared" ref="L57:L70" si="12">J57*K57</f>
+      <c r="L57" s="64">
+        <f t="shared" ref="L57:L82" si="16">J57*K57</f>
         <v>5.99</v>
       </c>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79">
-        <f t="shared" ref="O57:O63" si="13">L57+M57+N57</f>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64">
+        <f t="shared" ref="O57:O63" si="17">L57+M57+N57</f>
         <v>5.99</v>
       </c>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="118"/>
-      <c r="T57" s="119"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="99"/>
+      <c r="T57" s="100"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="B58" s="78">
-        <v>1</v>
-      </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78" t="s">
+      <c r="A58" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="B58" s="63">
+        <v>1</v>
+      </c>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="81" t="str">
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="66" t="str">
         <f>A58</f>
         <v>3M VHB Tape 5952 6.35mm width</v>
       </c>
-      <c r="I58" s="92" t="s">
+      <c r="I58" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" s="63">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="64">
+        <v>6.99</v>
+      </c>
+      <c r="L58" s="64">
+        <f t="shared" si="16"/>
+        <v>6.99</v>
+      </c>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64">
+        <f t="shared" si="17"/>
+        <v>6.99</v>
+      </c>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="100"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="61" t="s">
         <v>422</v>
       </c>
-      <c r="J58" s="78">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K58" s="79">
-        <v>6.99</v>
-      </c>
-      <c r="L58" s="79">
-        <f t="shared" si="12"/>
-        <v>6.99</v>
-      </c>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79">
-        <f t="shared" si="13"/>
-        <v>6.99</v>
-      </c>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="78"/>
-      <c r="S58" s="118"/>
-      <c r="T58" s="119"/>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="76" t="s">
-        <v>424</v>
-      </c>
-      <c r="B59" s="78">
-        <v>1</v>
-      </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78" t="s">
+      <c r="B59" s="63">
+        <v>1</v>
+      </c>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="78">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K59" s="79">
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="63">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="64">
         <v>6.5</v>
       </c>
-      <c r="L59" s="79">
-        <f t="shared" si="12"/>
+      <c r="L59" s="64">
+        <f t="shared" si="16"/>
         <v>6.5</v>
       </c>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79">
-        <f t="shared" si="13"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64">
+        <f t="shared" si="17"/>
         <v>6.5</v>
       </c>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="77"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="118"/>
-      <c r="T59" s="119"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="99"/>
+      <c r="T59" s="100"/>
     </row>
     <row r="60" spans="1:20" ht="30">
-      <c r="A60" s="76" t="s">
-        <v>425</v>
-      </c>
-      <c r="B60" s="78">
-        <v>1</v>
-      </c>
-      <c r="C60" s="78" t="s">
+      <c r="A60" s="118" t="s">
+        <v>423</v>
+      </c>
+      <c r="B60" s="119">
+        <v>1</v>
+      </c>
+      <c r="C60" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="119" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="83" t="str">
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="121" t="str">
         <f>A60</f>
         <v>Titanium Backers for Voron 2.4/Trident with screws 3-Pack (350mm)</v>
       </c>
-      <c r="I60" s="92" t="s">
-        <v>426</v>
-      </c>
-      <c r="J60" s="78">
-        <f t="shared" ref="J60:J70" si="14">B60</f>
-        <v>1</v>
-      </c>
-      <c r="K60" s="79">
+      <c r="I60" s="122" t="s">
+        <v>424</v>
+      </c>
+      <c r="J60" s="119">
+        <f t="shared" ref="J60:J82" si="18">B60</f>
+        <v>1</v>
+      </c>
+      <c r="K60" s="123">
         <v>74.989999999999995</v>
       </c>
-      <c r="L60" s="79">
-        <f t="shared" si="12"/>
+      <c r="L60" s="123">
+        <f t="shared" si="16"/>
         <v>74.989999999999995</v>
       </c>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79">
-        <f t="shared" si="13"/>
+      <c r="M60" s="123">
+        <v>0</v>
+      </c>
+      <c r="N60" s="123">
+        <v>0</v>
+      </c>
+      <c r="O60" s="123">
+        <f t="shared" si="17"/>
         <v>74.989999999999995</v>
       </c>
-      <c r="P60" s="79"/>
-      <c r="Q60" s="77"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="118"/>
-      <c r="T60" s="119"/>
+      <c r="P60" s="123">
+        <f>O60</f>
+        <v>74.989999999999995</v>
+      </c>
+      <c r="Q60" s="124"/>
+      <c r="R60" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S60" s="125" t="s">
+        <v>466</v>
+      </c>
+      <c r="T60" s="126" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="76" t="s">
-        <v>427</v>
-      </c>
-      <c r="B61" s="78">
-        <v>1</v>
-      </c>
-      <c r="C61" s="78" t="s">
+      <c r="A61" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="B61" s="63">
+        <v>1</v>
+      </c>
+      <c r="C61" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="83" t="str">
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="68" t="str">
         <f>A61</f>
         <v>Kinematics Mount V2.4 (350mm)</v>
       </c>
-      <c r="I61" s="92" t="s">
-        <v>426</v>
-      </c>
-      <c r="J61" s="78">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K61" s="79">
+      <c r="I61" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="J61" s="63">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="64">
         <v>84.99</v>
       </c>
-      <c r="L61" s="79">
-        <f t="shared" si="12"/>
+      <c r="L61" s="64">
+        <f t="shared" si="16"/>
         <v>84.99</v>
       </c>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79">
-        <f t="shared" si="13"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64">
+        <f t="shared" si="17"/>
         <v>84.99</v>
       </c>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="77"/>
-      <c r="R61" s="78"/>
-      <c r="S61" s="118"/>
-      <c r="T61" s="119"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="99"/>
+      <c r="T61" s="100"/>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="80" t="s">
-        <v>434</v>
-      </c>
-      <c r="B62" s="78">
-        <v>1</v>
-      </c>
-      <c r="C62" s="78" t="s">
+      <c r="A62" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="B62" s="63">
+        <v>1</v>
+      </c>
+      <c r="C62" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="D62" s="78" t="s">
+      <c r="D62" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="83" t="str">
-        <f t="shared" ref="H62:H65" si="15">A62</f>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="68" t="str">
+        <f t="shared" ref="H62:H65" si="19">A62</f>
         <v>Kapton Tape</v>
       </c>
-      <c r="I62" s="92" t="s">
+      <c r="I62" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="J62" s="63">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="64">
+        <v>0</v>
+      </c>
+      <c r="L62" s="64">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="99"/>
+      <c r="T62" s="100"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="91" t="s">
+        <v>450</v>
+      </c>
+      <c r="B63" s="63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="D63" s="63"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="68" t="str">
+        <f t="shared" si="19"/>
+        <v>Voron Zip Tie Kit</v>
+      </c>
+      <c r="I63" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="J63" s="63">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="64">
+        <v>4</v>
+      </c>
+      <c r="L63" s="64">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="99"/>
+      <c r="T63" s="100"/>
+    </row>
+    <row r="64" spans="1:20" ht="75">
+      <c r="A64" s="118" t="s">
         <v>440</v>
       </c>
-      <c r="J62" s="78">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K62" s="79">
-        <v>0</v>
-      </c>
-      <c r="L62" s="79">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="79"/>
-      <c r="Q62" s="77"/>
-      <c r="R62" s="78"/>
-      <c r="S62" s="118"/>
-      <c r="T62" s="119"/>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="110" t="s">
-        <v>454</v>
-      </c>
-      <c r="B63" s="78">
-        <v>1</v>
-      </c>
-      <c r="C63" s="78" t="s">
+      <c r="B64" s="119">
+        <v>3</v>
+      </c>
+      <c r="C64" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="D63" s="78"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Voron Zip Tie Kit</v>
-      </c>
-      <c r="I63" s="92" t="s">
+      <c r="D64" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="121" t="str">
+        <f t="shared" si="19"/>
+        <v>Jet Black ASA Prusament (850g) - Primary color</v>
+      </c>
+      <c r="I64" s="122" t="s">
+        <v>442</v>
+      </c>
+      <c r="J64" s="119">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="K64" s="123">
+        <v>35.99</v>
+      </c>
+      <c r="L64" s="123">
+        <f t="shared" si="16"/>
+        <v>107.97</v>
+      </c>
+      <c r="M64" s="124">
+        <v>0</v>
+      </c>
+      <c r="N64" s="123">
+        <v>0</v>
+      </c>
+      <c r="O64" s="123">
+        <f t="shared" ref="O64:O82" si="20">L64+M64+N64</f>
+        <v>107.97</v>
+      </c>
+      <c r="P64" s="123">
+        <f>O64</f>
+        <v>107.97</v>
+      </c>
+      <c r="Q64" s="124"/>
+      <c r="R64" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S64" s="125" t="s">
+        <v>470</v>
+      </c>
+      <c r="T64" s="126" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="103" t="s">
         <v>441</v>
       </c>
-      <c r="J63" s="78">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K63" s="79">
-        <v>4</v>
-      </c>
-      <c r="L63" s="79">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="M63" s="79"/>
-      <c r="N63" s="79"/>
-      <c r="O63" s="79">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="77"/>
-      <c r="R63" s="78"/>
-      <c r="S63" s="118"/>
-      <c r="T63" s="119"/>
-    </row>
-    <row r="64" spans="1:20" ht="30">
-      <c r="A64" s="76" t="s">
+      <c r="B65" s="108">
+        <v>2</v>
+      </c>
+      <c r="C65" s="108" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="108" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="114" t="str">
+        <f t="shared" si="19"/>
+        <v>Lipstick Red ASA Prusament (850g) - Secondary color</v>
+      </c>
+      <c r="I65" s="107" t="s">
         <v>442</v>
       </c>
-      <c r="B64" s="78">
-        <v>3</v>
-      </c>
-      <c r="C64" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="D64" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Jet Black ASA Prusament (850g) - Primary color</v>
-      </c>
-      <c r="I64" s="92" t="s">
-        <v>444</v>
-      </c>
-      <c r="J64" s="78">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="K64" s="79">
+      <c r="J65" s="108">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="K65" s="109">
         <v>35.99</v>
       </c>
-      <c r="L64" s="79">
-        <f t="shared" si="12"/>
-        <v>107.97</v>
-      </c>
-      <c r="M64" s="105">
-        <v>0</v>
-      </c>
-      <c r="N64" s="79"/>
-      <c r="O64" s="79">
-        <f t="shared" ref="O64:O70" si="16">L64+M64+N64</f>
-        <v>107.97</v>
-      </c>
-      <c r="P64" s="79">
-        <f>K64 * 1</f>
-        <v>35.99</v>
-      </c>
-      <c r="Q64" s="77"/>
-      <c r="R64" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="S64" s="118" t="s">
-        <v>453</v>
-      </c>
-      <c r="T64" s="119" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="76" t="s">
-        <v>443</v>
-      </c>
-      <c r="B65" s="78">
-        <v>2</v>
-      </c>
-      <c r="C65" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="D65" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Lipstick Red ASA Prusament (850g) - Secondary color</v>
-      </c>
-      <c r="I65" s="92" t="s">
-        <v>444</v>
-      </c>
-      <c r="J65" s="78">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="K65" s="79">
-        <v>35.99</v>
-      </c>
-      <c r="L65" s="79">
-        <f t="shared" si="12"/>
-        <v>71.98</v>
-      </c>
-      <c r="M65" s="79">
-        <v>0</v>
-      </c>
-      <c r="N65" s="79"/>
-      <c r="O65" s="79">
+      <c r="L65" s="109">
         <f t="shared" si="16"/>
         <v>71.98</v>
       </c>
-      <c r="P65" s="79">
+      <c r="M65" s="109">
+        <v>0</v>
+      </c>
+      <c r="N65" s="109"/>
+      <c r="O65" s="109">
+        <f t="shared" si="20"/>
+        <v>71.98</v>
+      </c>
+      <c r="P65" s="109">
         <f>K65 * 1</f>
         <v>35.99</v>
       </c>
-      <c r="Q65" s="77"/>
-      <c r="R65" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="S65" s="118" t="s">
+      <c r="Q65" s="107"/>
+      <c r="R65" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="S65" s="110" t="s">
         <v>278</v>
       </c>
-      <c r="T65" s="119" t="s">
+      <c r="T65" s="111" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="76" t="s">
-        <v>455</v>
-      </c>
-      <c r="B66" s="78">
-        <v>1</v>
-      </c>
-      <c r="C66" s="78" t="s">
+      <c r="A66" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="B66" s="63">
+        <v>1</v>
+      </c>
+      <c r="C66" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="D66" s="78" t="s">
+      <c r="D66" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="83" t="str">
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="68" t="str">
         <f>A66</f>
         <v xml:space="preserve">BTT Smart Filament Runout Sensor (SFS) </v>
       </c>
-      <c r="I66" s="92"/>
-      <c r="J66" s="78">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="K66" s="79">
+      <c r="I66" s="76"/>
+      <c r="J66" s="63">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K66" s="64">
         <v>14.99</v>
       </c>
-      <c r="L66" s="79">
-        <f t="shared" si="12"/>
-        <v>14.99</v>
-      </c>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="79">
+      <c r="L66" s="64">
         <f t="shared" si="16"/>
         <v>14.99</v>
       </c>
-      <c r="P66" s="79"/>
-      <c r="Q66" s="77"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="118"/>
-      <c r="T66" s="119"/>
-    </row>
-    <row r="67" spans="1:20" ht="17">
-      <c r="A67" s="68" t="s">
-        <v>456</v>
-      </c>
-      <c r="B67" s="78">
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64">
+        <f t="shared" si="20"/>
+        <v>14.99</v>
+      </c>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="76"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="99"/>
+      <c r="T66" s="100"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="103" t="s">
+        <v>452</v>
+      </c>
+      <c r="B67" s="108">
         <v>2</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="108" t="s">
         <v>313</v>
       </c>
-      <c r="D67" s="78" t="s">
+      <c r="D67" s="108" t="s">
         <v>298</v>
       </c>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="83" t="str">
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="114" t="str">
         <f>A67</f>
         <v>BTT CB1 Heatsink</v>
       </c>
-      <c r="I67" s="92" t="s">
-        <v>457</v>
-      </c>
-      <c r="J67" s="78">
-        <f t="shared" si="14"/>
+      <c r="I67" s="107" t="s">
+        <v>453</v>
+      </c>
+      <c r="J67" s="108">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="K67" s="79">
+      <c r="K67" s="109">
         <v>5.99</v>
       </c>
-      <c r="L67" s="79">
-        <f t="shared" si="12"/>
-        <v>11.98</v>
-      </c>
-      <c r="M67" s="79">
-        <v>0</v>
-      </c>
-      <c r="N67" s="79">
-        <v>0</v>
-      </c>
-      <c r="O67" s="79">
+      <c r="L67" s="109">
         <f t="shared" si="16"/>
         <v>11.98</v>
       </c>
-      <c r="P67" s="79">
+      <c r="M67" s="109">
+        <v>0</v>
+      </c>
+      <c r="N67" s="109">
+        <v>0</v>
+      </c>
+      <c r="O67" s="109">
+        <f t="shared" si="20"/>
+        <v>11.98</v>
+      </c>
+      <c r="P67" s="109">
         <f>O67</f>
         <v>11.98</v>
       </c>
-      <c r="Q67" s="105">
+      <c r="Q67" s="116">
         <f>(K67*1) * -1</f>
         <v>-5.99</v>
       </c>
-      <c r="R67" s="78" t="s">
+      <c r="R67" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="S67" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="T67" s="111" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="30">
+      <c r="A68" s="118" t="s">
+        <v>473</v>
+      </c>
+      <c r="B68" s="119">
+        <v>1</v>
+      </c>
+      <c r="C68" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E68" s="120"/>
+      <c r="F68" s="120"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="121" t="str">
+        <f>A68</f>
+        <v>Mandala Roseworks Kinematic center brace for Voron 2.4</v>
+      </c>
+      <c r="I68" s="122" t="s">
+        <v>483</v>
+      </c>
+      <c r="J68" s="119">
+        <f t="shared" ref="J68:J79" si="21">B68</f>
+        <v>1</v>
+      </c>
+      <c r="K68" s="123">
+        <v>35</v>
+      </c>
+      <c r="L68" s="123">
+        <f t="shared" ref="L68:L79" si="22">J68*K68</f>
+        <v>35</v>
+      </c>
+      <c r="M68" s="123">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="N68" s="123">
+        <v>0</v>
+      </c>
+      <c r="O68" s="123">
+        <f t="shared" ref="O68:O79" si="23">L68+M68+N68</f>
+        <v>39.06</v>
+      </c>
+      <c r="P68" s="123">
+        <f>O68</f>
+        <v>39.06</v>
+      </c>
+      <c r="Q68" s="124"/>
+      <c r="R68" s="119" t="s">
         <v>280</v>
       </c>
-      <c r="S67" s="118" t="s">
-        <v>461</v>
-      </c>
-      <c r="T67" s="119" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="A68" s="80"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="78">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="79"/>
-      <c r="N68" s="79"/>
-      <c r="O68" s="79">
+      <c r="S68" s="125" t="s">
+        <v>475</v>
+      </c>
+      <c r="T68" s="126" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="B69" s="119">
+        <v>1</v>
+      </c>
+      <c r="C69" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D69" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="121" t="str">
+        <f>A69</f>
+        <v>Mandala Roseworks Matched height kinematic kit</v>
+      </c>
+      <c r="I69" s="122" t="s">
+        <v>484</v>
+      </c>
+      <c r="J69" s="119">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="123">
+        <v>88</v>
+      </c>
+      <c r="L69" s="123">
+        <f t="shared" si="22"/>
+        <v>88</v>
+      </c>
+      <c r="M69" s="123">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="N69" s="123">
+        <v>0</v>
+      </c>
+      <c r="O69" s="123">
+        <f t="shared" si="23"/>
+        <v>92.06</v>
+      </c>
+      <c r="P69" s="123">
+        <f>O69</f>
+        <v>92.06</v>
+      </c>
+      <c r="Q69" s="122"/>
+      <c r="R69" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S69" s="125" t="s">
+        <v>477</v>
+      </c>
+      <c r="T69" s="126" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="30">
+      <c r="A70" s="118" t="s">
+        <v>478</v>
+      </c>
+      <c r="B70" s="119">
+        <v>1</v>
+      </c>
+      <c r="C70" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D70" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E70" s="120"/>
+      <c r="F70" s="120"/>
+      <c r="G70" s="120"/>
+      <c r="H70" s="121" t="str">
+        <f>A70</f>
+        <v>Mandala Roseworks The "Gripper" E3DV6 Wrench</v>
+      </c>
+      <c r="I70" s="122" t="s">
+        <v>482</v>
+      </c>
+      <c r="J70" s="119">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="123">
+        <v>29</v>
+      </c>
+      <c r="L70" s="123">
+        <f t="shared" si="22"/>
+        <v>29</v>
+      </c>
+      <c r="M70" s="123">
+        <v>6.27</v>
+      </c>
+      <c r="N70" s="123">
+        <v>0</v>
+      </c>
+      <c r="O70" s="123">
+        <f t="shared" si="23"/>
+        <v>35.269999999999996</v>
+      </c>
+      <c r="P70" s="123">
+        <f>O70</f>
+        <v>35.269999999999996</v>
+      </c>
+      <c r="Q70" s="124">
+        <f>-1*P70</f>
+        <v>-35.269999999999996</v>
+      </c>
+      <c r="R70" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S70" s="125" t="s">
+        <v>479</v>
+      </c>
+      <c r="T70" s="126" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="30">
+      <c r="A71" s="118" t="s">
+        <v>480</v>
+      </c>
+      <c r="B71" s="119">
+        <v>1</v>
+      </c>
+      <c r="C71" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="121" t="str">
+        <f>A71</f>
+        <v>Layerneer Bed Weld - Original 3D printing adhesive</v>
+      </c>
+      <c r="I71" s="122" t="s">
+        <v>481</v>
+      </c>
+      <c r="J71" s="119">
+        <f t="shared" ref="J71:J76" si="24">B71</f>
+        <v>1</v>
+      </c>
+      <c r="K71" s="123">
+        <v>22.95</v>
+      </c>
+      <c r="L71" s="123">
+        <f t="shared" ref="L71:L76" si="25">J71*K71</f>
+        <v>22.95</v>
+      </c>
+      <c r="M71" s="123">
+        <v>0</v>
+      </c>
+      <c r="N71" s="123">
+        <v>0</v>
+      </c>
+      <c r="O71" s="123">
+        <f t="shared" ref="O71:O76" si="26">L71+M71+N71</f>
+        <v>22.95</v>
+      </c>
+      <c r="P71" s="123">
+        <f>O71</f>
+        <v>22.95</v>
+      </c>
+      <c r="Q71" s="124">
+        <f>-1*P71</f>
+        <v>-22.95</v>
+      </c>
+      <c r="R71" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S71" s="125" t="s">
+        <v>485</v>
+      </c>
+      <c r="T71" s="126" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="65"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="63">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="76"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="99"/>
+      <c r="T72" s="100"/>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="65"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="63">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="76"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="99"/>
+      <c r="T73" s="100"/>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="65"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="63">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="O74" s="64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="76"/>
+      <c r="R74" s="63"/>
+      <c r="S74" s="99"/>
+      <c r="T74" s="100"/>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="65"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="63">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="O75" s="64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="76"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="99"/>
+      <c r="T75" s="100"/>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="65"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="63">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="O76" s="64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="76"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="99"/>
+      <c r="T76" s="100"/>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="65"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="63">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="64"/>
+      <c r="N77" s="64"/>
+      <c r="O77" s="64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="76"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="99"/>
+      <c r="T77" s="100"/>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="65"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="63">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="64"/>
+      <c r="L78" s="64">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="64"/>
+      <c r="N78" s="64"/>
+      <c r="O78" s="64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="76"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="99"/>
+      <c r="T78" s="100"/>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="65"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="63">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="64"/>
+      <c r="L79" s="64">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="64"/>
+      <c r="N79" s="64"/>
+      <c r="O79" s="64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="76"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="99"/>
+      <c r="T79" s="100"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="65"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="63">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="64"/>
+      <c r="L80" s="64">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P68" s="79"/>
-      <c r="Q68" s="77"/>
-      <c r="R68" s="78"/>
-      <c r="S68" s="118"/>
-      <c r="T68" s="119"/>
-    </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="80"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="78">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79">
+      <c r="M80" s="64"/>
+      <c r="N80" s="64"/>
+      <c r="O80" s="64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="64"/>
+      <c r="Q80" s="76"/>
+      <c r="R80" s="63"/>
+      <c r="S80" s="99"/>
+      <c r="T80" s="100"/>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" s="65"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="63">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="78"/>
-      <c r="S69" s="118"/>
-      <c r="T69" s="119"/>
-    </row>
-    <row r="70" spans="1:20">
-      <c r="A70" s="80"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="78">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79">
+      <c r="M81" s="64"/>
+      <c r="N81" s="64"/>
+      <c r="O81" s="64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="76"/>
+      <c r="R81" s="63"/>
+      <c r="S81" s="99"/>
+      <c r="T81" s="100"/>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="65"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="63">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="64"/>
+      <c r="L82" s="64">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P70" s="79"/>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="78"/>
-      <c r="S70" s="118"/>
-      <c r="T70" s="119"/>
-    </row>
-    <row r="71" spans="1:20" ht="17" thickBot="1">
-      <c r="A71" s="80"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="77"/>
-      <c r="S71" s="80"/>
-      <c r="T71" s="80"/>
-    </row>
-    <row r="72" spans="1:20" ht="17" thickTop="1">
-      <c r="A72" s="80"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="98" t="s">
-        <v>428</v>
-      </c>
-      <c r="J72" s="95"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94">
-        <f>SUM(O3:O70)</f>
-        <v>2361.9499999999998</v>
-      </c>
-      <c r="P72" s="94">
-        <f>SUM(P3:P70)</f>
-        <v>749.7</v>
-      </c>
-      <c r="Q72" s="106"/>
-      <c r="R72" s="100"/>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="80"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="80" t="s">
-        <v>435</v>
-      </c>
-      <c r="R73" s="79">
-        <f>O72-P72</f>
-        <v>1612.2499999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="80"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="79"/>
-      <c r="P74" s="79"/>
-      <c r="Q74" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="R74" s="79">
-        <f>P72</f>
-        <v>749.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="80"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="78"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="80" t="s">
+      <c r="M82" s="64"/>
+      <c r="N82" s="64"/>
+      <c r="O82" s="64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="76"/>
+      <c r="R82" s="63"/>
+      <c r="S82" s="99"/>
+      <c r="T82" s="100"/>
+    </row>
+    <row r="83" spans="1:20" ht="17" thickBot="1">
+      <c r="A83" s="65"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="64"/>
+      <c r="L83" s="64"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="64"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="62"/>
+      <c r="S83" s="65"/>
+      <c r="T83" s="65"/>
+    </row>
+    <row r="84" spans="1:20" ht="18" thickTop="1">
+      <c r="A84" s="65"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="146" t="s">
+        <v>426</v>
+      </c>
+      <c r="J84" s="79"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="78"/>
+      <c r="N84" s="78"/>
+      <c r="O84" s="78">
+        <f>SUM(O3:O82)</f>
+        <v>2594.6099999999992</v>
+      </c>
+      <c r="P84" s="78">
+        <f>SUM(P3:P82)</f>
+        <v>1619.44</v>
+      </c>
+      <c r="Q84" s="78">
+        <f>SUM(Q3:Q82)</f>
+        <v>-130.17999999999998</v>
+      </c>
+      <c r="R84" s="83"/>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" s="65"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="64"/>
+      <c r="N85" s="64"/>
+      <c r="O85" s="64"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="65" t="s">
         <v>433</v>
       </c>
-      <c r="R75" s="79">
-        <f>SUM(Q3:Q70)*-1</f>
-        <v>71.959999999999994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="80"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="78"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="79"/>
-      <c r="Q76" s="108" t="s">
-        <v>450</v>
-      </c>
-      <c r="R76" s="109">
+      <c r="R85" s="64">
+        <f>O84-P84+Q84</f>
+        <v>844.98999999999921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" s="65"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="R86" s="64">
+        <f>P84</f>
+        <v>1619.44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" s="65"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="64"/>
+      <c r="M87" s="64"/>
+      <c r="N87" s="64"/>
+      <c r="O87" s="64"/>
+      <c r="P87" s="64"/>
+      <c r="Q87" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="R87" s="64">
+        <f>SUM(Q3:Q82)*-1</f>
+        <v>130.17999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" s="65"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="64"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="64"/>
+      <c r="N88" s="64"/>
+      <c r="O88" s="64"/>
+      <c r="P88" s="64"/>
+      <c r="Q88" s="89" t="s">
+        <v>447</v>
+      </c>
+      <c r="R88" s="90">
         <v>146.82</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="80"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="79"/>
-      <c r="M77" s="79"/>
-      <c r="N77" s="79"/>
-      <c r="O77" s="79"/>
-      <c r="P77" s="79"/>
-      <c r="Q77" s="108" t="s">
-        <v>451</v>
-      </c>
-      <c r="R77" s="109">
+    <row r="89" spans="1:20">
+      <c r="A89" s="65"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="64"/>
+      <c r="L89" s="64"/>
+      <c r="M89" s="64"/>
+      <c r="N89" s="64"/>
+      <c r="O89" s="64"/>
+      <c r="P89" s="64"/>
+      <c r="Q89" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="R89" s="90">
         <v>71.98</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="80"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="78"/>
-      <c r="K78" s="79"/>
-      <c r="L78" s="79"/>
-      <c r="M78" s="79"/>
-      <c r="N78" s="79"/>
-      <c r="O78" s="79"/>
-      <c r="P78" s="79"/>
-      <c r="Q78" s="80" t="s">
-        <v>452</v>
-      </c>
-      <c r="R78" s="79">
-        <v>530.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="80"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="77"/>
-      <c r="J79" s="78"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="79"/>
-      <c r="Q79" s="80"/>
-      <c r="R79" s="79"/>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="H80" s="83"/>
-      <c r="Q80" s="71"/>
-      <c r="R80" s="79"/>
-    </row>
-    <row r="81" spans="8:18">
-      <c r="H81" s="83"/>
-      <c r="Q81" s="71"/>
-      <c r="R81" s="79"/>
-    </row>
-    <row r="82" spans="8:18">
-      <c r="H82" s="83"/>
-      <c r="Q82" s="71"/>
-      <c r="R82" s="79"/>
-    </row>
-    <row r="83" spans="8:18">
-      <c r="Q83" s="71"/>
-      <c r="R83" s="79"/>
-    </row>
-    <row r="84" spans="8:18">
-      <c r="Q84" s="71"/>
-      <c r="R84" s="79"/>
-    </row>
-    <row r="85" spans="8:18">
-      <c r="Q85" s="71"/>
-      <c r="R85" s="79"/>
-    </row>
-    <row r="86" spans="8:18">
-      <c r="Q86" s="71"/>
-      <c r="R86" s="79"/>
-    </row>
-    <row r="87" spans="8:18">
-      <c r="Q87" s="71"/>
-      <c r="R87" s="79"/>
-    </row>
-    <row r="88" spans="8:18">
-      <c r="Q88" s="71"/>
-      <c r="R88" s="79"/>
-    </row>
-    <row r="89" spans="8:18">
-      <c r="R89" s="79"/>
+    <row r="90" spans="1:20">
+      <c r="A90" s="65"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="64"/>
+      <c r="L90" s="64"/>
+      <c r="M90" s="64"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="64"/>
+      <c r="P90" s="64"/>
+      <c r="Q90" s="65" t="s">
+        <v>449</v>
+      </c>
+      <c r="R90" s="64">
+        <f>530.9+136.98+543.42+131.12+35.27+22.95</f>
+        <v>1400.64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="65"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="62"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="M91" s="64"/>
+      <c r="N91" s="64"/>
+      <c r="O91" s="64"/>
+      <c r="P91" s="64"/>
+      <c r="Q91" s="65"/>
+      <c r="R91" s="64"/>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="H92" s="68"/>
+      <c r="Q92" s="57"/>
+      <c r="R92" s="64"/>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="H93" s="68"/>
+      <c r="Q93" s="57"/>
+      <c r="R93" s="64"/>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="H94" s="68"/>
+      <c r="Q94" s="57"/>
+      <c r="R94" s="64"/>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="Q95" s="57"/>
+      <c r="R95" s="64"/>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="Q96" s="57"/>
+      <c r="R96" s="64"/>
+    </row>
+    <row r="97" spans="17:18">
+      <c r="Q97" s="57"/>
+      <c r="R97" s="64"/>
+    </row>
+    <row r="98" spans="17:18">
+      <c r="Q98" s="57"/>
+      <c r="R98" s="64"/>
+    </row>
+    <row r="99" spans="17:18">
+      <c r="Q99" s="57"/>
+      <c r="R99" s="64"/>
+    </row>
+    <row r="100" spans="17:18">
+      <c r="Q100" s="57"/>
+      <c r="R100" s="64"/>
+    </row>
+    <row r="101" spans="17:18">
+      <c r="R101" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R70" xr:uid="{DB0DC2B0-407F-9946-A6F5-0517B7729D5C}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R82" xr:uid="{DB0DC2B0-407F-9946-A6F5-0517B7729D5C}">
       <formula1>$AD$4:$AD$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -7809,9 +8562,15 @@
     <hyperlink ref="A67" r:id="rId88" xr:uid="{E8977432-3FE9-3349-A5F6-7E10358CF36F}"/>
     <hyperlink ref="F29" r:id="rId89" xr:uid="{13FF8408-FD63-9241-A7DF-357B2ADD15D8}"/>
     <hyperlink ref="A30" r:id="rId90" xr:uid="{C01B79DE-8912-2B41-91DF-EC5EA1DD3888}"/>
+    <hyperlink ref="F39" r:id="rId91" xr:uid="{88603DA9-A020-654B-AB72-175FC13D034C}"/>
+    <hyperlink ref="A47" r:id="rId92" xr:uid="{D2A36D58-E15F-7E44-8EA3-6C4685C8E3B6}"/>
+    <hyperlink ref="A68" r:id="rId93" xr:uid="{85B2FF62-2608-CB48-BB1D-A10E8DC456BE}"/>
+    <hyperlink ref="A69" r:id="rId94" xr:uid="{9C431DE7-49E1-604B-B724-7A37503178F1}"/>
+    <hyperlink ref="A70" r:id="rId95" xr:uid="{74A5D6C7-F7CE-964A-91E1-00B79BAFEB5B}"/>
+    <hyperlink ref="A71" r:id="rId96" xr:uid="{D4E64753-7DF1-BC46-9783-EE4EA90305B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId91"/>
+  <legacyDrawing r:id="rId97"/>
 </worksheet>
 </file>
 
@@ -9789,24 +10548,24 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17" thickBot="1">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="133" t="s">
         <v>288</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="57"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="134"/>
+      <c r="K73" s="134"/>
+      <c r="L73" s="134"/>
+      <c r="M73" s="134"/>
+      <c r="N73" s="134"/>
+      <c r="O73" s="134"/>
+      <c r="P73" s="135"/>
     </row>
     <row r="74" spans="1:16" ht="17">
       <c r="A74" s="13" t="s">
@@ -10014,24 +10773,24 @@
     </row>
     <row r="85" spans="1:16" ht="17" thickBot="1"/>
     <row r="86" spans="1:16" ht="17" thickBot="1">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="63"/>
-      <c r="O86" s="63"/>
-      <c r="P86" s="64"/>
+      <c r="B86" s="137"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="137"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="137"/>
+      <c r="K86" s="137"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="137"/>
+      <c r="O86" s="137"/>
+      <c r="P86" s="138"/>
     </row>
     <row r="87" spans="1:16" ht="17">
       <c r="A87" s="13" t="s">
@@ -10454,10 +11213,10 @@
     </row>
     <row r="104" spans="1:16" ht="17" thickBot="1"/>
     <row r="105" spans="1:16" ht="17" thickTop="1">
-      <c r="A105" s="58" t="s">
+      <c r="A105" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="59"/>
+      <c r="B105" s="140"/>
       <c r="C105" s="24"/>
       <c r="D105" s="25"/>
       <c r="E105" s="26"/>
@@ -10474,8 +11233,8 @@
       <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" ht="17" thickBot="1">
-      <c r="A106" s="60"/>
-      <c r="B106" s="61"/>
+      <c r="A106" s="141"/>
+      <c r="B106" s="142"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -12825,24 +13584,24 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17" thickBot="1">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="133" t="s">
         <v>288</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="57"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="134"/>
+      <c r="K73" s="134"/>
+      <c r="L73" s="134"/>
+      <c r="M73" s="134"/>
+      <c r="N73" s="134"/>
+      <c r="O73" s="134"/>
+      <c r="P73" s="135"/>
     </row>
     <row r="74" spans="1:16" ht="17">
       <c r="A74" s="13" t="s">
@@ -13050,24 +13809,24 @@
     </row>
     <row r="85" spans="1:16" ht="17" thickBot="1"/>
     <row r="86" spans="1:16" ht="17" thickBot="1">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="63"/>
-      <c r="O86" s="63"/>
-      <c r="P86" s="64"/>
+      <c r="B86" s="137"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="137"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="137"/>
+      <c r="K86" s="137"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="137"/>
+      <c r="O86" s="137"/>
+      <c r="P86" s="138"/>
     </row>
     <row r="87" spans="1:16" ht="17">
       <c r="A87" s="13" t="s">
@@ -13490,10 +14249,10 @@
     </row>
     <row r="104" spans="1:16" ht="17" thickBot="1"/>
     <row r="105" spans="1:16" ht="17" thickTop="1">
-      <c r="A105" s="58" t="s">
+      <c r="A105" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="59"/>
+      <c r="B105" s="140"/>
       <c r="C105" s="24"/>
       <c r="D105" s="25"/>
       <c r="E105" s="26"/>
@@ -13510,8 +14269,8 @@
       <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" ht="17" thickBot="1">
-      <c r="A106" s="60"/>
-      <c r="B106" s="61"/>
+      <c r="A106" s="141"/>
+      <c r="B106" s="142"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -17449,10 +18208,10 @@
         <f>voron2.4_350mm_bom!M1</f>
         <v>Notes</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="143" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="66"/>
+      <c r="R1" s="144"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="str">
@@ -20672,18 +21431,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="19">
       <c r="A2" s="3" t="s">

--- a/BOM/voron2.4_350mm_bom.xlsx
+++ b/BOM/voron2.4_350mm_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwilder/Documents/3D Printing/cee-wals/voron-2.4/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F0706B-24D2-6D4B-A043-4E37FC11F7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0FBAE9-24A6-CE44-830F-B6FCAA28012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3460" windowWidth="38640" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="50420" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="West3D Voron 2.4 BOM" sheetId="6" r:id="rId1"/>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="502">
   <si>
     <t>Category</t>
   </si>
@@ -2331,9 +2331,6 @@
     <t>Partial Order</t>
   </si>
   <si>
-    <t>Voron Txn 1 (TWW-KF-VORON-1) TWW Kids fund (proj. voron): $146.82 on 10/24/2022</t>
-  </si>
-  <si>
     <t>Cost Adjustments</t>
   </si>
   <si>
@@ -2356,9 +2353,6 @@
   </si>
   <si>
     <t>1 for Voron. 1 for private stock</t>
-  </si>
-  <si>
-    <t>Voron Txn 3 (TWW-KF-VORON-3) TWW Kids fund (proj. voron): $530.90 on 11/11/2022</t>
   </si>
   <si>
     <t>TWW-KF-VORON-3
@@ -2402,14 +2396,7 @@
 Direct from TWW account</t>
   </si>
   <si>
-    <t>Voron Txn 4 (TWW-KF-VORON-4) TWW Kids fund (proj. voron): $543.42 on 12/02/2022</t>
-  </si>
-  <si>
     <t>Accidentally bought the Z PCB. I originally planned on buying the Omron Mouse Button</t>
-  </si>
-  <si>
-    <t>Voron Txn 1 (TWW-KF-VORON-1) TWW Kids fund (proj. voron): $71.98 on 10/07/2022
-Voron Txn 5 (TWW-KF-VORON-5) TWW Kids fund (proj. voron): $136.98 on 12/02/2022</t>
   </si>
   <si>
     <t>TWW-KF-VORON-1
@@ -2427,9 +2414,6 @@
     <t>Mandala Roseworks Matched height kinematic kit</t>
   </si>
   <si>
-    <t>Voron Txn 6 (TWW-KF-VORON-6) TWW Kids fund (proj. voron): $131.12 on 12/05/2022</t>
-  </si>
-  <si>
     <t>TWW-KF-VORON-6
 Direct from TWW account</t>
   </si>
@@ -2440,9 +2424,6 @@
     <t>Mandala Roseworks The "Gripper" E3DV6 Wrench</t>
   </si>
   <si>
-    <t>Voron Txn 7 (TWW-KF-VORON-7) TWW Kids fund (proj. voron): $35.27 on 12/05/2022</t>
-  </si>
-  <si>
     <t>Layerneer Bed Weld - Original 3D printing adhesive</t>
   </si>
   <si>
@@ -2453,22 +2434,105 @@
 Purchase through Mandala Roseworks - Shop store</t>
   </si>
   <si>
-    <t>Shipping is split between orders.
-Purchase through Mandala Roseworks - Shop store</t>
-  </si>
-  <si>
-    <t>Purchase through Mandala Roseworks - Shop store</t>
-  </si>
-  <si>
-    <t>Voron Txn 8 (TWW-KF-VORON-8) TWW Kids fund (proj. voron): $22.95 on 12/05/2022</t>
-  </si>
-  <si>
     <t>TWW-KF-VORON-7
 Direct from TWW account</t>
   </si>
   <si>
     <t>TWW-KF-VORON-8
 Direct from TWW account</t>
+  </si>
+  <si>
+    <t>Voron Tap - rail w/ optotap v2 (5-24v) and HW kit; from DFH</t>
+  </si>
+  <si>
+    <t>Not required but highly recommended
+Shipping is split between orders.
+Purchased from Mandala Roseworks - Shop store</t>
+  </si>
+  <si>
+    <t>Nightlight on a stick - LED Strip; from DFH</t>
+  </si>
+  <si>
+    <t>Disco stick on black PCB - LED Strip; from DFH</t>
+  </si>
+  <si>
+    <t>Daylight on a stick on black PCB; from DFH</t>
+  </si>
+  <si>
+    <t>OV5640 Camera Module; from DFH</t>
+  </si>
+  <si>
+    <t>Seeeduino XIAO; from DFH</t>
+  </si>
+  <si>
+    <t>Optional add-on
+Purchased from DFH - Shop store</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-9
+Direct from TWW account</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-9</t>
+  </si>
+  <si>
+    <t>Bought for other projects
+Purchased from DFH - Shop store</t>
+  </si>
+  <si>
+    <t>Not all for Voron. LED controller and other projects
+Purchased from DFH - Shop store</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-2
+Pay Apple CC from TWW account</t>
+  </si>
+  <si>
+    <t>Shipping is split between items. 
+Purchased from DFH - Shop store</t>
+  </si>
+  <si>
+    <t>Shipping is split between items.
+Purchased from Mandala Roseworks - Shop store</t>
+  </si>
+  <si>
+    <t>Voron Txn 7 (TWW-KF-VORON-7)
+TWW Kids fund (proj. voron): $35.27 on 12/05/2022
+total shipping: $6.27</t>
+  </si>
+  <si>
+    <t>Voron Txn 6 (TWW-KF-VORON-6) 
+TWW Kids fund (proj. voron): $131.12 on 12/05/2022
+total shipping: $8.12</t>
+  </si>
+  <si>
+    <t>Voron Txn 1 (TWW-KF-VORON-1)
+TWW Kids fund (proj. voron): $71.98 on 10/07/2022
+Voron Txn 5 (TWW-KF-VORON-5)
+TWW Kids fund (proj. voron): $136.98 on 12/02/2022</t>
+  </si>
+  <si>
+    <t>Voron Txn 8 (TWW-KF-VORON-8)
+TWW Kids fund (proj. voron): $22.95 on 12/05/2022</t>
+  </si>
+  <si>
+    <t>Voron Txn 9 (TWW-KF-VORON-9)
+TWW Kids fund (proj. voron): $182.63 on 12/08/2022
+total shipping: $20.18; total discount: $18.05</t>
+  </si>
+  <si>
+    <t>Voron Txn 2 (TWW-KF-VORON-2)
+TWW Kids fund (proj. voron): $146.82 on 10/24/2022
+total shipping: $41.82</t>
+  </si>
+  <si>
+    <t>Voron Txn 4 (TWW-KF-VORON-4)
+TWW Kids fund (proj. voron): $543.42 on 12/02/2022</t>
+  </si>
+  <si>
+    <t>Voron Txn 3 (TWW-KF-VORON-3)
+TWW Kids fund (proj. voron): $530.90 on 11/11/2022
+total shipping: $10.00</t>
   </si>
 </sst>
 </file>
@@ -3827,6 +3891,9 @@
     <xf numFmtId="0" fontId="45" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3868,9 +3935,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4276,13 +4340,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AD101"/>
+  <dimension ref="A1:AD111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="M57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R85" sqref="R85"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4294,7 +4358,7 @@
     <col min="6" max="6" width="21.33203125" style="57" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" style="57" customWidth="1"/>
     <col min="8" max="8" width="64.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.1640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="41" style="21" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.5" style="56" customWidth="1"/>
     <col min="12" max="12" width="27.1640625" style="56" customWidth="1"/>
@@ -4309,28 +4373,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
     </row>
     <row r="2" spans="1:30" s="92" customFormat="1" ht="23" customHeight="1" thickBot="1">
       <c r="A2" s="93" t="s">
@@ -4382,7 +4446,7 @@
         <v>139</v>
       </c>
       <c r="Q2" s="95" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R2" s="95" t="s">
         <v>391</v>
@@ -4444,7 +4508,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="34" customHeight="1">
+    <row r="4" spans="1:30" ht="45">
       <c r="A4" s="103" t="s">
         <v>299</v>
       </c>
@@ -4497,10 +4561,10 @@
         <v>392</v>
       </c>
       <c r="S4" s="110" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="T4" s="111" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AD4" s="87" t="s">
         <v>280</v>
@@ -4531,7 +4595,7 @@
         <v>POWGE Motion Black</v>
       </c>
       <c r="I5" s="122" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J5" s="119">
         <f>B5</f>
@@ -4563,16 +4627,16 @@
         <v>280</v>
       </c>
       <c r="S5" s="125" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="T5" s="126" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AD5" s="87" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="30">
+    <row r="6" spans="1:30" ht="45">
       <c r="A6" s="103" t="s">
         <v>306</v>
       </c>
@@ -4630,10 +4694,10 @@
         <v>392</v>
       </c>
       <c r="S6" s="110" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="T6" s="111" t="s">
-        <v>281</v>
+        <v>491</v>
       </c>
       <c r="AD6" s="87" t="s">
         <v>392</v>
@@ -4697,10 +4761,10 @@
         <v>392</v>
       </c>
       <c r="S7" s="110" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="T7" s="111" t="s">
-        <v>278</v>
+        <v>491</v>
       </c>
       <c r="AD7" s="87" t="s">
         <v>436</v>
@@ -4725,7 +4789,7 @@
         <v>Updated Rubber Feet for V2.4</v>
       </c>
       <c r="I8" s="122" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J8" s="119">
         <v>1</v>
@@ -4756,10 +4820,10 @@
         <v>280</v>
       </c>
       <c r="S8" s="125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T8" s="126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AD8" s="87" t="s">
         <v>443</v>
@@ -4788,7 +4852,7 @@
         <v>Z PCB</v>
       </c>
       <c r="I9" s="122" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J9" s="119">
         <f t="shared" ref="J9:J23" si="3">B9</f>
@@ -4820,10 +4884,10 @@
         <v>280</v>
       </c>
       <c r="S9" s="125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T9" s="126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AD9" s="87" t="s">
         <v>444</v>
@@ -4882,10 +4946,10 @@
         <v>280</v>
       </c>
       <c r="S10" s="125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T10" s="126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AD10" s="88"/>
     </row>
@@ -5070,10 +5134,10 @@
         <v>392</v>
       </c>
       <c r="S14" s="110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T14" s="111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="30">
@@ -5565,10 +5629,10 @@
         <v>392</v>
       </c>
       <c r="S25" s="110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T25" s="111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="30">
@@ -5627,10 +5691,10 @@
         <v>392</v>
       </c>
       <c r="S26" s="110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T26" s="111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="30">
@@ -5689,10 +5753,10 @@
         <v>392</v>
       </c>
       <c r="S27" s="110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T27" s="111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -5743,7 +5807,7 @@
     </row>
     <row r="29" spans="1:30" ht="30">
       <c r="A29" s="61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B29" s="67">
         <v>0</v>
@@ -5753,10 +5817,10 @@
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G29" s="58"/>
       <c r="H29" s="81" t="str">
@@ -5764,7 +5828,7 @@
         <v>Touch Screen 7" PiTFT70 (extra)</v>
       </c>
       <c r="I29" s="76" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J29" s="63">
         <f t="shared" si="5"/>
@@ -5813,7 +5877,7 @@
         <v>Mini 12864 Display Type B RGB - Choose your color</v>
       </c>
       <c r="I30" s="107" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J30" s="108">
         <f t="shared" si="5"/>
@@ -5848,10 +5912,10 @@
         <v>392</v>
       </c>
       <c r="S30" s="110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T30" s="111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -5903,10 +5967,10 @@
         <v>392</v>
       </c>
       <c r="S31" s="110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T31" s="111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -6232,7 +6296,7 @@
         <v>401</v>
       </c>
       <c r="F39" s="118" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G39" s="128"/>
       <c r="H39" s="131" t="str">
@@ -6240,7 +6304,7 @@
         <v>Printed Solide - Aluminum Composite backing Panels</v>
       </c>
       <c r="I39" s="122" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J39" s="119">
         <f t="shared" si="5"/>
@@ -6272,10 +6336,10 @@
         <v>280</v>
       </c>
       <c r="S39" s="125" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="T39" s="126" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="30">
@@ -6377,10 +6441,10 @@
         <v>280</v>
       </c>
       <c r="S41" s="125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T41" s="126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -6662,10 +6726,10 @@
         <v>280</v>
       </c>
       <c r="S47" s="125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T47" s="126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -6805,10 +6869,10 @@
         <v>280</v>
       </c>
       <c r="S50" s="125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T50" s="126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -6860,10 +6924,10 @@
         <v>280</v>
       </c>
       <c r="S51" s="125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T51" s="126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -7102,7 +7166,7 @@
         <v>5.99</v>
       </c>
       <c r="L57" s="64">
-        <f t="shared" ref="L57:L82" si="16">J57*K57</f>
+        <f t="shared" ref="L57:L92" si="16">J57*K57</f>
         <v>5.99</v>
       </c>
       <c r="M57" s="64"/>
@@ -7224,7 +7288,7 @@
         <v>424</v>
       </c>
       <c r="J60" s="119">
-        <f t="shared" ref="J60:J82" si="18">B60</f>
+        <f t="shared" ref="J60:J92" si="18">B60</f>
         <v>1</v>
       </c>
       <c r="K60" s="123">
@@ -7253,57 +7317,72 @@
         <v>280</v>
       </c>
       <c r="S60" s="125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T60" s="126" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61" s="61" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="45">
+      <c r="A61" s="118" t="s">
         <v>425</v>
       </c>
-      <c r="B61" s="63">
-        <v>1</v>
-      </c>
-      <c r="C61" s="63" t="s">
+      <c r="B61" s="119">
+        <v>1</v>
+      </c>
+      <c r="C61" s="119" t="s">
         <v>313</v>
       </c>
-      <c r="D61" s="63" t="s">
+      <c r="D61" s="119" t="s">
         <v>298</v>
       </c>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="68" t="str">
-        <f>A61</f>
-        <v>Kinematics Mount V2.4 (350mm)</v>
-      </c>
-      <c r="I61" s="76" t="s">
-        <v>424</v>
-      </c>
-      <c r="J61" s="63">
+      <c r="E61" s="118" t="s">
+        <v>470</v>
+      </c>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="121" t="str">
+        <f>E61</f>
+        <v>Mandala Roseworks Matched height kinematic kit</v>
+      </c>
+      <c r="I61" s="122" t="s">
+        <v>480</v>
+      </c>
+      <c r="J61" s="119">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K61" s="64">
-        <v>84.99</v>
-      </c>
-      <c r="L61" s="64">
+      <c r="K61" s="123">
+        <v>88</v>
+      </c>
+      <c r="L61" s="123">
         <f t="shared" si="16"/>
-        <v>84.99</v>
-      </c>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="64">
+        <v>88</v>
+      </c>
+      <c r="M61" s="123">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="N61" s="123">
+        <v>0</v>
+      </c>
+      <c r="O61" s="123">
         <f t="shared" si="17"/>
-        <v>84.99</v>
-      </c>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="99"/>
-      <c r="T61" s="100"/>
+        <v>92.06</v>
+      </c>
+      <c r="P61" s="123">
+        <f>O61</f>
+        <v>92.06</v>
+      </c>
+      <c r="Q61" s="122"/>
+      <c r="R61" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S61" s="125" t="s">
+        <v>472</v>
+      </c>
+      <c r="T61" s="126" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="65" t="s">
@@ -7353,7 +7432,7 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B63" s="63">
         <v>1</v>
@@ -7436,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="123">
-        <f t="shared" ref="O64:O82" si="20">L64+M64+N64</f>
+        <f t="shared" ref="O64:O92" si="20">L64+M64+N64</f>
         <v>107.97</v>
       </c>
       <c r="P64" s="123">
@@ -7448,10 +7527,10 @@
         <v>280</v>
       </c>
       <c r="S64" s="125" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="T64" s="126" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -7513,7 +7592,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B66" s="63">
         <v>1</v>
@@ -7528,7 +7607,7 @@
       <c r="F66" s="65"/>
       <c r="G66" s="65"/>
       <c r="H66" s="68" t="str">
-        <f>A66</f>
+        <f t="shared" ref="H66:H70" si="21">A66</f>
         <v xml:space="preserve">BTT Smart Filament Runout Sensor (SFS) </v>
       </c>
       <c r="I66" s="76"/>
@@ -7557,7 +7636,7 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="103" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B67" s="108">
         <v>2</v>
@@ -7572,11 +7651,11 @@
       <c r="F67" s="113"/>
       <c r="G67" s="113"/>
       <c r="H67" s="114" t="str">
-        <f>A67</f>
+        <f t="shared" si="21"/>
         <v>BTT CB1 Heatsink</v>
       </c>
       <c r="I67" s="107" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J67" s="108">
         <f t="shared" si="18"/>
@@ -7611,15 +7690,15 @@
         <v>392</v>
       </c>
       <c r="S67" s="110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T67" s="111" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="30">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="45">
       <c r="A68" s="118" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B68" s="119">
         <v>1</v>
@@ -7634,21 +7713,21 @@
       <c r="F68" s="120"/>
       <c r="G68" s="120"/>
       <c r="H68" s="121" t="str">
-        <f>A68</f>
+        <f t="shared" si="21"/>
         <v>Mandala Roseworks Kinematic center brace for Voron 2.4</v>
       </c>
       <c r="I68" s="122" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="J68" s="119">
-        <f t="shared" ref="J68:J79" si="21">B68</f>
+        <f t="shared" ref="J68:J89" si="22">B68</f>
         <v>1</v>
       </c>
       <c r="K68" s="123">
         <v>35</v>
       </c>
       <c r="L68" s="123">
-        <f t="shared" ref="L68:L79" si="22">J68*K68</f>
+        <f t="shared" ref="L68:L89" si="23">J68*K68</f>
         <v>35</v>
       </c>
       <c r="M68" s="123">
@@ -7658,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="123">
-        <f t="shared" ref="O68:O79" si="23">L68+M68+N68</f>
+        <f t="shared" ref="O68:O89" si="24">L68+M68+N68</f>
         <v>39.06</v>
       </c>
       <c r="P68" s="123">
@@ -7670,15 +7749,15 @@
         <v>280</v>
       </c>
       <c r="S68" s="125" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="T68" s="126" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="45">
       <c r="A69" s="118" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B69" s="119">
         <v>1</v>
@@ -7693,43 +7772,46 @@
       <c r="F69" s="120"/>
       <c r="G69" s="120"/>
       <c r="H69" s="121" t="str">
-        <f>A69</f>
-        <v>Mandala Roseworks Matched height kinematic kit</v>
+        <f t="shared" si="21"/>
+        <v>Mandala Roseworks The "Gripper" E3DV6 Wrench</v>
       </c>
       <c r="I69" s="122" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J69" s="119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K69" s="123">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="L69" s="123">
-        <f t="shared" si="22"/>
-        <v>88</v>
+        <f t="shared" si="23"/>
+        <v>29</v>
       </c>
       <c r="M69" s="123">
-        <v>4.0599999999999996</v>
+        <v>6.27</v>
       </c>
       <c r="N69" s="123">
         <v>0</v>
       </c>
       <c r="O69" s="123">
-        <f t="shared" si="23"/>
-        <v>92.06</v>
+        <f t="shared" si="24"/>
+        <v>35.269999999999996</v>
       </c>
       <c r="P69" s="123">
         <f>O69</f>
-        <v>92.06</v>
-      </c>
-      <c r="Q69" s="122"/>
+        <v>35.269999999999996</v>
+      </c>
+      <c r="Q69" s="124">
+        <f>-1*P69</f>
+        <v>-35.269999999999996</v>
+      </c>
       <c r="R69" s="119" t="s">
         <v>280</v>
       </c>
       <c r="S69" s="125" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="T69" s="126" t="s">
         <v>477</v>
@@ -7737,7 +7819,7 @@
     </row>
     <row r="70" spans="1:20" ht="30">
       <c r="A70" s="118" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B70" s="119">
         <v>1</v>
@@ -7752,54 +7834,54 @@
       <c r="F70" s="120"/>
       <c r="G70" s="120"/>
       <c r="H70" s="121" t="str">
-        <f>A70</f>
-        <v>Mandala Roseworks The "Gripper" E3DV6 Wrench</v>
+        <f t="shared" si="21"/>
+        <v>Layerneer Bed Weld - Original 3D printing adhesive</v>
       </c>
       <c r="I70" s="122" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="J70" s="119">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J70:J86" si="25">B70</f>
         <v>1</v>
       </c>
       <c r="K70" s="123">
-        <v>29</v>
+        <v>22.95</v>
       </c>
       <c r="L70" s="123">
-        <f t="shared" si="22"/>
-        <v>29</v>
+        <f t="shared" ref="L70:L86" si="26">J70*K70</f>
+        <v>22.95</v>
       </c>
       <c r="M70" s="123">
-        <v>6.27</v>
+        <v>0</v>
       </c>
       <c r="N70" s="123">
         <v>0</v>
       </c>
       <c r="O70" s="123">
-        <f t="shared" si="23"/>
-        <v>35.269999999999996</v>
+        <f t="shared" ref="O70:O86" si="27">L70+M70+N70</f>
+        <v>22.95</v>
       </c>
       <c r="P70" s="123">
         <f>O70</f>
-        <v>35.269999999999996</v>
+        <v>22.95</v>
       </c>
       <c r="Q70" s="124">
         <f>-1*P70</f>
-        <v>-35.269999999999996</v>
+        <v>-22.95</v>
       </c>
       <c r="R70" s="119" t="s">
         <v>280</v>
       </c>
       <c r="S70" s="125" t="s">
+        <v>497</v>
+      </c>
+      <c r="T70" s="126" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="45">
+      <c r="A71" s="118" t="s">
         <v>479</v>
-      </c>
-      <c r="T70" s="126" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="30">
-      <c r="A71" s="118" t="s">
-        <v>480</v>
       </c>
       <c r="B71" s="119">
         <v>1</v>
@@ -7815,204 +7897,356 @@
       <c r="G71" s="120"/>
       <c r="H71" s="121" t="str">
         <f>A71</f>
-        <v>Layerneer Bed Weld - Original 3D printing adhesive</v>
+        <v>Voron Tap - rail w/ optotap v2 (5-24v) and HW kit; from DFH</v>
       </c>
       <c r="I71" s="122" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="J71" s="119">
-        <f t="shared" ref="J71:J76" si="24">B71</f>
+        <f t="shared" ref="J71:J81" si="28">B71</f>
         <v>1</v>
       </c>
       <c r="K71" s="123">
-        <v>22.95</v>
+        <v>45</v>
       </c>
       <c r="L71" s="123">
-        <f t="shared" ref="L71:L76" si="25">J71*K71</f>
-        <v>22.95</v>
+        <f t="shared" ref="L71:L81" si="29">J71*K71</f>
+        <v>45</v>
       </c>
       <c r="M71" s="123">
-        <v>0</v>
+        <f>(20.18/9)*J71</f>
+        <v>2.2422222222222223</v>
       </c>
       <c r="N71" s="123">
         <v>0</v>
       </c>
       <c r="O71" s="123">
-        <f t="shared" ref="O71:O76" si="26">L71+M71+N71</f>
-        <v>22.95</v>
+        <f t="shared" ref="O71:O81" si="30">L71+M71+N71</f>
+        <v>47.242222222222225</v>
       </c>
       <c r="P71" s="123">
-        <f>O71</f>
-        <v>22.95</v>
-      </c>
-      <c r="Q71" s="124">
-        <f>-1*P71</f>
-        <v>-22.95</v>
-      </c>
+        <f>O71-((18.05/9)*J71)</f>
+        <v>45.236666666666672</v>
+      </c>
+      <c r="Q71" s="122"/>
       <c r="R71" s="119" t="s">
         <v>280</v>
       </c>
       <c r="S71" s="125" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="T71" s="126" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="65"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="63">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="64">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="64"/>
-      <c r="Q72" s="76"/>
-      <c r="R72" s="63"/>
-      <c r="S72" s="99"/>
-      <c r="T72" s="100"/>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="65"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="63">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="64">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="64"/>
-      <c r="Q73" s="76"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="99"/>
-      <c r="T73" s="100"/>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="65"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="63">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="64"/>
-      <c r="L74" s="64">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="64"/>
-      <c r="N74" s="64"/>
-      <c r="O74" s="64">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="64"/>
-      <c r="Q74" s="76"/>
-      <c r="R74" s="63"/>
-      <c r="S74" s="99"/>
-      <c r="T74" s="100"/>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="65"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="63">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
-      <c r="O75" s="64">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="64"/>
-      <c r="Q75" s="76"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="99"/>
-      <c r="T75" s="100"/>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="65"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="63">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="64"/>
-      <c r="L76" s="64">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="64"/>
-      <c r="N76" s="64"/>
-      <c r="O76" s="64">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="64"/>
-      <c r="Q76" s="76"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="99"/>
-      <c r="T76" s="100"/>
+    <row r="72" spans="1:20" ht="30">
+      <c r="A72" s="118" t="s">
+        <v>481</v>
+      </c>
+      <c r="B72" s="119">
+        <v>2</v>
+      </c>
+      <c r="C72" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D72" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" s="120"/>
+      <c r="F72" s="120"/>
+      <c r="G72" s="120"/>
+      <c r="H72" s="121" t="str">
+        <f>A72</f>
+        <v>Nightlight on a stick - LED Strip; from DFH</v>
+      </c>
+      <c r="I72" s="122" t="s">
+        <v>486</v>
+      </c>
+      <c r="J72" s="119">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="K72" s="123">
+        <v>17.5</v>
+      </c>
+      <c r="L72" s="123">
+        <f t="shared" si="29"/>
+        <v>35</v>
+      </c>
+      <c r="M72" s="123">
+        <f t="shared" ref="M72:M76" si="31">(20.18/9)*J72</f>
+        <v>4.4844444444444447</v>
+      </c>
+      <c r="N72" s="123">
+        <v>0</v>
+      </c>
+      <c r="O72" s="123">
+        <f t="shared" si="30"/>
+        <v>39.484444444444442</v>
+      </c>
+      <c r="P72" s="123">
+        <f t="shared" ref="P72:P76" si="32">O72-((18.05/9)*J72)</f>
+        <v>35.473333333333329</v>
+      </c>
+      <c r="Q72" s="124">
+        <f>-1*P72</f>
+        <v>-35.473333333333329</v>
+      </c>
+      <c r="R72" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S72" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="T72" s="126" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="30">
+      <c r="A73" s="118" t="s">
+        <v>482</v>
+      </c>
+      <c r="B73" s="119">
+        <v>2</v>
+      </c>
+      <c r="C73" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D73" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73" s="120"/>
+      <c r="F73" s="120"/>
+      <c r="G73" s="120"/>
+      <c r="H73" s="121" t="str">
+        <f>A73</f>
+        <v>Disco stick on black PCB - LED Strip; from DFH</v>
+      </c>
+      <c r="I73" s="122" t="s">
+        <v>486</v>
+      </c>
+      <c r="J73" s="119">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="K73" s="123">
+        <v>16.5</v>
+      </c>
+      <c r="L73" s="123">
+        <f t="shared" si="29"/>
+        <v>33</v>
+      </c>
+      <c r="M73" s="123">
+        <f t="shared" si="31"/>
+        <v>4.4844444444444447</v>
+      </c>
+      <c r="N73" s="123">
+        <v>0</v>
+      </c>
+      <c r="O73" s="123">
+        <f t="shared" si="30"/>
+        <v>37.484444444444442</v>
+      </c>
+      <c r="P73" s="123">
+        <f t="shared" si="32"/>
+        <v>33.473333333333329</v>
+      </c>
+      <c r="Q73" s="122"/>
+      <c r="R73" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S73" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="T73" s="126" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="30">
+      <c r="A74" s="118" t="s">
+        <v>484</v>
+      </c>
+      <c r="B74" s="119">
+        <v>1</v>
+      </c>
+      <c r="C74" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D74" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E74" s="120"/>
+      <c r="F74" s="120"/>
+      <c r="G74" s="120"/>
+      <c r="H74" s="121" t="str">
+        <f>A74</f>
+        <v>OV5640 Camera Module; from DFH</v>
+      </c>
+      <c r="I74" s="122" t="s">
+        <v>486</v>
+      </c>
+      <c r="J74" s="119">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="123">
+        <v>32.5</v>
+      </c>
+      <c r="L74" s="123">
+        <f t="shared" si="29"/>
+        <v>32.5</v>
+      </c>
+      <c r="M74" s="123">
+        <f t="shared" si="31"/>
+        <v>2.2422222222222223</v>
+      </c>
+      <c r="N74" s="123">
+        <v>0</v>
+      </c>
+      <c r="O74" s="123">
+        <f t="shared" si="30"/>
+        <v>34.742222222222225</v>
+      </c>
+      <c r="P74" s="123">
+        <f t="shared" si="32"/>
+        <v>32.736666666666672</v>
+      </c>
+      <c r="Q74" s="122"/>
+      <c r="R74" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S74" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="T74" s="126" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="30">
+      <c r="A75" s="118" t="s">
+        <v>485</v>
+      </c>
+      <c r="B75" s="119">
+        <v>2</v>
+      </c>
+      <c r="C75" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" s="119" t="s">
+        <v>383</v>
+      </c>
+      <c r="E75" s="120"/>
+      <c r="F75" s="120"/>
+      <c r="G75" s="120"/>
+      <c r="H75" s="121" t="str">
+        <f>A75</f>
+        <v>Seeeduino XIAO; from DFH</v>
+      </c>
+      <c r="I75" s="122" t="s">
+        <v>490</v>
+      </c>
+      <c r="J75" s="119">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="K75" s="123">
+        <v>10</v>
+      </c>
+      <c r="L75" s="123">
+        <f t="shared" si="29"/>
+        <v>20</v>
+      </c>
+      <c r="M75" s="123">
+        <f t="shared" si="31"/>
+        <v>4.4844444444444447</v>
+      </c>
+      <c r="N75" s="123">
+        <v>0</v>
+      </c>
+      <c r="O75" s="123">
+        <f t="shared" si="30"/>
+        <v>24.484444444444446</v>
+      </c>
+      <c r="P75" s="123">
+        <f t="shared" si="32"/>
+        <v>20.473333333333336</v>
+      </c>
+      <c r="Q75" s="124">
+        <f>-1*(P75/2)</f>
+        <v>-10.236666666666668</v>
+      </c>
+      <c r="R75" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S75" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="T75" s="126" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="30">
+      <c r="A76" s="118" t="s">
+        <v>483</v>
+      </c>
+      <c r="B76" s="119">
+        <v>1</v>
+      </c>
+      <c r="C76" s="119" t="s">
+        <v>313</v>
+      </c>
+      <c r="D76" s="119" t="s">
+        <v>383</v>
+      </c>
+      <c r="E76" s="120"/>
+      <c r="F76" s="120"/>
+      <c r="G76" s="120"/>
+      <c r="H76" s="121" t="str">
+        <f>A76</f>
+        <v>Daylight on a stick on black PCB; from DFH</v>
+      </c>
+      <c r="I76" s="122" t="s">
+        <v>489</v>
+      </c>
+      <c r="J76" s="119">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="K76" s="123">
+        <v>15</v>
+      </c>
+      <c r="L76" s="123">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+      <c r="M76" s="123">
+        <f t="shared" si="31"/>
+        <v>2.2422222222222223</v>
+      </c>
+      <c r="N76" s="123">
+        <v>0</v>
+      </c>
+      <c r="O76" s="123">
+        <f t="shared" si="30"/>
+        <v>17.242222222222221</v>
+      </c>
+      <c r="P76" s="123">
+        <f t="shared" si="32"/>
+        <v>15.236666666666665</v>
+      </c>
+      <c r="Q76" s="124">
+        <f>-1*P76</f>
+        <v>-15.236666666666665</v>
+      </c>
+      <c r="R76" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="S76" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="T76" s="126" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="65"/>
@@ -8025,18 +8259,18 @@
       <c r="H77" s="68"/>
       <c r="I77" s="76"/>
       <c r="J77" s="63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K77" s="64"/>
       <c r="L77" s="64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M77" s="64"/>
       <c r="N77" s="64"/>
       <c r="O77" s="64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P77" s="64"/>
@@ -8056,18 +8290,18 @@
       <c r="H78" s="68"/>
       <c r="I78" s="76"/>
       <c r="J78" s="63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K78" s="64"/>
       <c r="L78" s="64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M78" s="64"/>
       <c r="N78" s="64"/>
       <c r="O78" s="64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P78" s="64"/>
@@ -8087,18 +8321,18 @@
       <c r="H79" s="68"/>
       <c r="I79" s="76"/>
       <c r="J79" s="63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K79" s="64"/>
       <c r="L79" s="64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M79" s="64"/>
       <c r="N79" s="64"/>
       <c r="O79" s="64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P79" s="64"/>
@@ -8118,18 +8352,18 @@
       <c r="H80" s="68"/>
       <c r="I80" s="76"/>
       <c r="J80" s="63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K80" s="64"/>
       <c r="L80" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M80" s="64"/>
       <c r="N80" s="64"/>
       <c r="O80" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P80" s="64"/>
@@ -8149,18 +8383,18 @@
       <c r="H81" s="68"/>
       <c r="I81" s="76"/>
       <c r="J81" s="63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K81" s="64"/>
       <c r="L81" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M81" s="64"/>
       <c r="N81" s="64"/>
       <c r="O81" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P81" s="64"/>
@@ -8180,18 +8414,18 @@
       <c r="H82" s="68"/>
       <c r="I82" s="76"/>
       <c r="J82" s="63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K82" s="64"/>
       <c r="L82" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M82" s="64"/>
       <c r="N82" s="64"/>
       <c r="O82" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P82" s="64"/>
@@ -8200,7 +8434,7 @@
       <c r="S82" s="99"/>
       <c r="T82" s="100"/>
     </row>
-    <row r="83" spans="1:20" ht="17" thickBot="1">
+    <row r="83" spans="1:20">
       <c r="A83" s="65"/>
       <c r="B83" s="63"/>
       <c r="C83" s="63"/>
@@ -8210,47 +8444,57 @@
       <c r="G83" s="65"/>
       <c r="H83" s="68"/>
       <c r="I83" s="76"/>
-      <c r="J83" s="63"/>
+      <c r="J83" s="63">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
+      <c r="L83" s="64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="M83" s="64"/>
       <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
+      <c r="O83" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="P83" s="64"/>
-      <c r="Q83" s="62"/>
-      <c r="S83" s="65"/>
-      <c r="T83" s="65"/>
-    </row>
-    <row r="84" spans="1:20" ht="18" thickTop="1">
+      <c r="Q83" s="76"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="99"/>
+      <c r="T83" s="100"/>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="65"/>
       <c r="B84" s="63"/>
       <c r="C84" s="63"/>
       <c r="D84" s="63"/>
       <c r="E84" s="65"/>
       <c r="F84" s="65"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="78"/>
-      <c r="I84" s="146" t="s">
-        <v>426</v>
-      </c>
-      <c r="J84" s="79"/>
-      <c r="K84" s="78"/>
-      <c r="L84" s="78"/>
-      <c r="M84" s="78"/>
-      <c r="N84" s="78"/>
-      <c r="O84" s="78">
-        <f>SUM(O3:O82)</f>
-        <v>2594.6099999999992</v>
-      </c>
-      <c r="P84" s="78">
-        <f>SUM(P3:P82)</f>
-        <v>1619.44</v>
-      </c>
-      <c r="Q84" s="78">
-        <f>SUM(Q3:Q82)</f>
-        <v>-130.17999999999998</v>
-      </c>
-      <c r="R84" s="83"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="63">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="64"/>
+      <c r="N84" s="64"/>
+      <c r="O84" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="76"/>
+      <c r="R84" s="63"/>
+      <c r="S84" s="99"/>
+      <c r="T84" s="100"/>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="65"/>
@@ -8262,20 +8506,26 @@
       <c r="G85" s="65"/>
       <c r="H85" s="68"/>
       <c r="I85" s="76"/>
-      <c r="J85" s="63"/>
+      <c r="J85" s="63">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="K85" s="64"/>
-      <c r="L85" s="64"/>
+      <c r="L85" s="64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="M85" s="64"/>
       <c r="N85" s="64"/>
-      <c r="O85" s="64"/>
+      <c r="O85" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="P85" s="64"/>
-      <c r="Q85" s="65" t="s">
-        <v>433</v>
-      </c>
-      <c r="R85" s="64">
-        <f>O84-P84+Q84</f>
-        <v>844.98999999999921</v>
-      </c>
+      <c r="Q85" s="76"/>
+      <c r="R85" s="63"/>
+      <c r="S85" s="99"/>
+      <c r="T85" s="100"/>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="65"/>
@@ -8287,20 +8537,26 @@
       <c r="G86" s="65"/>
       <c r="H86" s="68"/>
       <c r="I86" s="76"/>
-      <c r="J86" s="63"/>
+      <c r="J86" s="63">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
+      <c r="L86" s="64">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="M86" s="64"/>
       <c r="N86" s="64"/>
-      <c r="O86" s="64"/>
+      <c r="O86" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="P86" s="64"/>
-      <c r="Q86" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="R86" s="64">
-        <f>P84</f>
-        <v>1619.44</v>
-      </c>
+      <c r="Q86" s="76"/>
+      <c r="R86" s="63"/>
+      <c r="S86" s="99"/>
+      <c r="T86" s="100"/>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="65"/>
@@ -8312,20 +8568,26 @@
       <c r="G87" s="65"/>
       <c r="H87" s="68"/>
       <c r="I87" s="76"/>
-      <c r="J87" s="63"/>
+      <c r="J87" s="63">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="K87" s="64"/>
-      <c r="L87" s="64"/>
+      <c r="L87" s="64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="M87" s="64"/>
       <c r="N87" s="64"/>
-      <c r="O87" s="64"/>
+      <c r="O87" s="64">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="P87" s="64"/>
-      <c r="Q87" s="65" t="s">
-        <v>431</v>
-      </c>
-      <c r="R87" s="64">
-        <f>SUM(Q3:Q82)*-1</f>
-        <v>130.17999999999998</v>
-      </c>
+      <c r="Q87" s="76"/>
+      <c r="R87" s="63"/>
+      <c r="S87" s="99"/>
+      <c r="T87" s="100"/>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="65"/>
@@ -8336,20 +8598,27 @@
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
       <c r="H88" s="68"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="63"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="63">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="K88" s="64"/>
-      <c r="L88" s="64"/>
+      <c r="L88" s="64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="M88" s="64"/>
       <c r="N88" s="64"/>
-      <c r="O88" s="64"/>
+      <c r="O88" s="64">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="P88" s="64"/>
-      <c r="Q88" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="R88" s="90">
-        <v>146.82</v>
-      </c>
+      <c r="Q88" s="76"/>
+      <c r="R88" s="63"/>
+      <c r="S88" s="99"/>
+      <c r="T88" s="100"/>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="65"/>
@@ -8360,20 +8629,27 @@
       <c r="F89" s="65"/>
       <c r="G89" s="65"/>
       <c r="H89" s="68"/>
-      <c r="I89" s="62"/>
-      <c r="J89" s="63"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="63">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="K89" s="64"/>
-      <c r="L89" s="64"/>
+      <c r="L89" s="64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="M89" s="64"/>
       <c r="N89" s="64"/>
-      <c r="O89" s="64"/>
+      <c r="O89" s="64">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="P89" s="64"/>
-      <c r="Q89" s="89" t="s">
-        <v>448</v>
-      </c>
-      <c r="R89" s="90">
-        <v>71.98</v>
-      </c>
+      <c r="Q89" s="76"/>
+      <c r="R89" s="63"/>
+      <c r="S89" s="99"/>
+      <c r="T89" s="100"/>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="65"/>
@@ -8384,21 +8660,27 @@
       <c r="F90" s="65"/>
       <c r="G90" s="65"/>
       <c r="H90" s="68"/>
-      <c r="I90" s="62"/>
-      <c r="J90" s="63"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="63">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="K90" s="64"/>
-      <c r="L90" s="64"/>
+      <c r="L90" s="64">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="M90" s="64"/>
       <c r="N90" s="64"/>
-      <c r="O90" s="64"/>
+      <c r="O90" s="64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="P90" s="64"/>
-      <c r="Q90" s="65" t="s">
-        <v>449</v>
-      </c>
-      <c r="R90" s="64">
-        <f>530.9+136.98+543.42+131.12+35.27+22.95</f>
-        <v>1400.64</v>
-      </c>
+      <c r="Q90" s="76"/>
+      <c r="R90" s="63"/>
+      <c r="S90" s="99"/>
+      <c r="T90" s="100"/>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="65"/>
@@ -8409,65 +8691,336 @@
       <c r="F91" s="65"/>
       <c r="G91" s="65"/>
       <c r="H91" s="68"/>
-      <c r="I91" s="62"/>
-      <c r="J91" s="63"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="63">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
+      <c r="L91" s="64">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="M91" s="64"/>
       <c r="N91" s="64"/>
-      <c r="O91" s="64"/>
+      <c r="O91" s="64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="P91" s="64"/>
-      <c r="Q91" s="65"/>
-      <c r="R91" s="64"/>
+      <c r="Q91" s="76"/>
+      <c r="R91" s="63"/>
+      <c r="S91" s="99"/>
+      <c r="T91" s="100"/>
     </row>
     <row r="92" spans="1:20">
+      <c r="A92" s="65"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
       <c r="H92" s="68"/>
-      <c r="Q92" s="57"/>
-      <c r="R92" s="64"/>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="I92" s="76"/>
+      <c r="J92" s="63">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="64"/>
+      <c r="L92" s="64">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="64"/>
+      <c r="N92" s="64"/>
+      <c r="O92" s="64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="64"/>
+      <c r="Q92" s="76"/>
+      <c r="R92" s="63"/>
+      <c r="S92" s="99"/>
+      <c r="T92" s="100"/>
+    </row>
+    <row r="93" spans="1:20" ht="17" thickBot="1">
+      <c r="A93" s="65"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
       <c r="H93" s="68"/>
-      <c r="Q93" s="57"/>
-      <c r="R93" s="64"/>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="H94" s="68"/>
-      <c r="Q94" s="57"/>
-      <c r="R94" s="64"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="64"/>
+      <c r="L93" s="64"/>
+      <c r="M93" s="64"/>
+      <c r="N93" s="64"/>
+      <c r="O93" s="64"/>
+      <c r="P93" s="64"/>
+      <c r="Q93" s="62"/>
+      <c r="S93" s="65"/>
+      <c r="T93" s="65"/>
+    </row>
+    <row r="94" spans="1:20" ht="18" thickTop="1">
+      <c r="A94" s="65"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="78"/>
+      <c r="I94" s="132" t="s">
+        <v>426</v>
+      </c>
+      <c r="J94" s="79"/>
+      <c r="K94" s="78"/>
+      <c r="L94" s="78">
+        <f t="shared" ref="L94:N94" si="33">SUM(L3:L92)</f>
+        <v>2598.9099999999994</v>
+      </c>
+      <c r="M94" s="78">
+        <f t="shared" si="33"/>
+        <v>111.39000000000001</v>
+      </c>
+      <c r="N94" s="78">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="78">
+        <f>SUM(O3:O92)</f>
+        <v>2710.2999999999988</v>
+      </c>
+      <c r="P94" s="78">
+        <f>SUM(P3:P92)</f>
+        <v>1802.0700000000002</v>
+      </c>
+      <c r="Q94" s="78">
+        <f>SUM(Q3:Q92)</f>
+        <v>-191.12666666666667</v>
+      </c>
+      <c r="R94" s="83"/>
     </row>
     <row r="95" spans="1:20">
-      <c r="Q95" s="57"/>
-      <c r="R95" s="64"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="64"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="64"/>
+      <c r="N95" s="64"/>
+      <c r="O95" s="64"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="R95" s="64">
+        <f>O94-P94+Q94</f>
+        <v>717.10333333333199</v>
+      </c>
     </row>
     <row r="96" spans="1:20">
-      <c r="Q96" s="57"/>
-      <c r="R96" s="64"/>
-    </row>
-    <row r="97" spans="17:18">
-      <c r="Q97" s="57"/>
-      <c r="R97" s="64"/>
-    </row>
-    <row r="98" spans="17:18">
-      <c r="Q98" s="57"/>
-      <c r="R98" s="64"/>
-    </row>
-    <row r="99" spans="17:18">
-      <c r="Q99" s="57"/>
-      <c r="R99" s="64"/>
-    </row>
-    <row r="100" spans="17:18">
-      <c r="Q100" s="57"/>
-      <c r="R100" s="64"/>
-    </row>
-    <row r="101" spans="17:18">
+      <c r="A96" s="65"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="64"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="64"/>
+      <c r="N96" s="64"/>
+      <c r="O96" s="64"/>
+      <c r="P96" s="64"/>
+      <c r="Q96" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="R96" s="64">
+        <f>P94</f>
+        <v>1802.0700000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="65"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="76"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="64"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="64"/>
+      <c r="O97" s="64"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="R97" s="64">
+        <f>SUM(Q3:Q92)*-1</f>
+        <v>191.12666666666667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="65"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="62"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="64"/>
+      <c r="N98" s="64"/>
+      <c r="O98" s="64"/>
+      <c r="P98" s="64"/>
+      <c r="Q98" s="89" t="s">
+        <v>446</v>
+      </c>
+      <c r="R98" s="90">
+        <v>146.82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="65"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="62"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="64"/>
+      <c r="L99" s="64"/>
+      <c r="M99" s="64"/>
+      <c r="N99" s="64"/>
+      <c r="O99" s="64"/>
+      <c r="P99" s="64"/>
+      <c r="Q99" s="89" t="s">
+        <v>447</v>
+      </c>
+      <c r="R99" s="90">
+        <v>71.98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="65"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="62"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="64"/>
+      <c r="L100" s="64"/>
+      <c r="M100" s="64"/>
+      <c r="N100" s="64"/>
+      <c r="O100" s="64"/>
+      <c r="P100" s="64"/>
+      <c r="Q100" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="R100" s="64">
+        <f>530.9+136.98+543.42+131.12+35.27+22.95+182.63</f>
+        <v>1583.27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="65"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="62"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="64"/>
+      <c r="L101" s="64"/>
+      <c r="M101" s="64"/>
+      <c r="N101" s="64"/>
+      <c r="O101" s="64"/>
+      <c r="P101" s="64"/>
+      <c r="Q101" s="65"/>
       <c r="R101" s="64"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="H102" s="68"/>
+      <c r="Q102" s="57"/>
+      <c r="R102" s="64"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="H103" s="68"/>
+      <c r="Q103" s="57"/>
+      <c r="R103" s="64"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="H104" s="68"/>
+      <c r="Q104" s="57"/>
+      <c r="R104" s="64"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="Q105" s="57"/>
+      <c r="R105" s="64"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="Q106" s="57"/>
+      <c r="R106" s="64"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="Q107" s="57"/>
+      <c r="R107" s="64"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="Q108" s="57"/>
+      <c r="R108" s="64"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="Q109" s="57"/>
+      <c r="R109" s="64"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="Q110" s="57"/>
+      <c r="R110" s="64"/>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="R111" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R82" xr:uid="{DB0DC2B0-407F-9946-A6F5-0517B7729D5C}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R92" xr:uid="{DB0DC2B0-407F-9946-A6F5-0517B7729D5C}">
       <formula1>$AD$4:$AD$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -8565,12 +9118,18 @@
     <hyperlink ref="F39" r:id="rId91" xr:uid="{88603DA9-A020-654B-AB72-175FC13D034C}"/>
     <hyperlink ref="A47" r:id="rId92" xr:uid="{D2A36D58-E15F-7E44-8EA3-6C4685C8E3B6}"/>
     <hyperlink ref="A68" r:id="rId93" xr:uid="{85B2FF62-2608-CB48-BB1D-A10E8DC456BE}"/>
-    <hyperlink ref="A69" r:id="rId94" xr:uid="{9C431DE7-49E1-604B-B724-7A37503178F1}"/>
-    <hyperlink ref="A70" r:id="rId95" xr:uid="{74A5D6C7-F7CE-964A-91E1-00B79BAFEB5B}"/>
-    <hyperlink ref="A71" r:id="rId96" xr:uid="{D4E64753-7DF1-BC46-9783-EE4EA90305B4}"/>
+    <hyperlink ref="A69" r:id="rId94" xr:uid="{74A5D6C7-F7CE-964A-91E1-00B79BAFEB5B}"/>
+    <hyperlink ref="A70" r:id="rId95" xr:uid="{D4E64753-7DF1-BC46-9783-EE4EA90305B4}"/>
+    <hyperlink ref="E61" r:id="rId96" xr:uid="{A782B948-F32A-DF45-85B9-9862EE145443}"/>
+    <hyperlink ref="A71" r:id="rId97" xr:uid="{E39F14A3-4AE1-FE41-AADE-2275E109D5E7}"/>
+    <hyperlink ref="A72" r:id="rId98" xr:uid="{B31ACB39-14B2-F342-BF62-356704801E5C}"/>
+    <hyperlink ref="A73" r:id="rId99" xr:uid="{E0DFEB3E-1B65-104C-895C-63E7833C538C}"/>
+    <hyperlink ref="A74" r:id="rId100" xr:uid="{D4CC3802-04BE-B14C-8DCE-3AB15733D983}"/>
+    <hyperlink ref="A75" r:id="rId101" xr:uid="{86DAA688-EE23-6A4A-A517-12DB5FD32832}"/>
+    <hyperlink ref="A76" r:id="rId102" xr:uid="{A6FC9FB5-F7AB-7E42-9201-841F5EB0F339}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId97"/>
+  <legacyDrawing r:id="rId103"/>
 </worksheet>
 </file>
 
@@ -10548,24 +11107,24 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17" thickBot="1">
-      <c r="A73" s="133" t="s">
+      <c r="A73" s="134" t="s">
         <v>288</v>
       </c>
-      <c r="B73" s="134"/>
-      <c r="C73" s="134"/>
-      <c r="D73" s="134"/>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="134"/>
-      <c r="I73" s="134"/>
-      <c r="J73" s="134"/>
-      <c r="K73" s="134"/>
-      <c r="L73" s="134"/>
-      <c r="M73" s="134"/>
-      <c r="N73" s="134"/>
-      <c r="O73" s="134"/>
-      <c r="P73" s="135"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="135"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="135"/>
+      <c r="I73" s="135"/>
+      <c r="J73" s="135"/>
+      <c r="K73" s="135"/>
+      <c r="L73" s="135"/>
+      <c r="M73" s="135"/>
+      <c r="N73" s="135"/>
+      <c r="O73" s="135"/>
+      <c r="P73" s="136"/>
     </row>
     <row r="74" spans="1:16" ht="17">
       <c r="A74" s="13" t="s">
@@ -10773,24 +11332,24 @@
     </row>
     <row r="85" spans="1:16" ht="17" thickBot="1"/>
     <row r="86" spans="1:16" ht="17" thickBot="1">
-      <c r="A86" s="136" t="s">
+      <c r="A86" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
-      <c r="J86" s="137"/>
-      <c r="K86" s="137"/>
-      <c r="L86" s="137"/>
-      <c r="M86" s="137"/>
-      <c r="N86" s="137"/>
-      <c r="O86" s="137"/>
-      <c r="P86" s="138"/>
+      <c r="B86" s="138"/>
+      <c r="C86" s="138"/>
+      <c r="D86" s="138"/>
+      <c r="E86" s="138"/>
+      <c r="F86" s="138"/>
+      <c r="G86" s="138"/>
+      <c r="H86" s="138"/>
+      <c r="I86" s="138"/>
+      <c r="J86" s="138"/>
+      <c r="K86" s="138"/>
+      <c r="L86" s="138"/>
+      <c r="M86" s="138"/>
+      <c r="N86" s="138"/>
+      <c r="O86" s="138"/>
+      <c r="P86" s="139"/>
     </row>
     <row r="87" spans="1:16" ht="17">
       <c r="A87" s="13" t="s">
@@ -11213,10 +11772,10 @@
     </row>
     <row r="104" spans="1:16" ht="17" thickBot="1"/>
     <row r="105" spans="1:16" ht="17" thickTop="1">
-      <c r="A105" s="139" t="s">
+      <c r="A105" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="140"/>
+      <c r="B105" s="141"/>
       <c r="C105" s="24"/>
       <c r="D105" s="25"/>
       <c r="E105" s="26"/>
@@ -11233,8 +11792,8 @@
       <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" ht="17" thickBot="1">
-      <c r="A106" s="141"/>
-      <c r="B106" s="142"/>
+      <c r="A106" s="142"/>
+      <c r="B106" s="143"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -13584,24 +14143,24 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17" thickBot="1">
-      <c r="A73" s="133" t="s">
+      <c r="A73" s="134" t="s">
         <v>288</v>
       </c>
-      <c r="B73" s="134"/>
-      <c r="C73" s="134"/>
-      <c r="D73" s="134"/>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="134"/>
-      <c r="I73" s="134"/>
-      <c r="J73" s="134"/>
-      <c r="K73" s="134"/>
-      <c r="L73" s="134"/>
-      <c r="M73" s="134"/>
-      <c r="N73" s="134"/>
-      <c r="O73" s="134"/>
-      <c r="P73" s="135"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="135"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="135"/>
+      <c r="I73" s="135"/>
+      <c r="J73" s="135"/>
+      <c r="K73" s="135"/>
+      <c r="L73" s="135"/>
+      <c r="M73" s="135"/>
+      <c r="N73" s="135"/>
+      <c r="O73" s="135"/>
+      <c r="P73" s="136"/>
     </row>
     <row r="74" spans="1:16" ht="17">
       <c r="A74" s="13" t="s">
@@ -13809,24 +14368,24 @@
     </row>
     <row r="85" spans="1:16" ht="17" thickBot="1"/>
     <row r="86" spans="1:16" ht="17" thickBot="1">
-      <c r="A86" s="136" t="s">
+      <c r="A86" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
-      <c r="J86" s="137"/>
-      <c r="K86" s="137"/>
-      <c r="L86" s="137"/>
-      <c r="M86" s="137"/>
-      <c r="N86" s="137"/>
-      <c r="O86" s="137"/>
-      <c r="P86" s="138"/>
+      <c r="B86" s="138"/>
+      <c r="C86" s="138"/>
+      <c r="D86" s="138"/>
+      <c r="E86" s="138"/>
+      <c r="F86" s="138"/>
+      <c r="G86" s="138"/>
+      <c r="H86" s="138"/>
+      <c r="I86" s="138"/>
+      <c r="J86" s="138"/>
+      <c r="K86" s="138"/>
+      <c r="L86" s="138"/>
+      <c r="M86" s="138"/>
+      <c r="N86" s="138"/>
+      <c r="O86" s="138"/>
+      <c r="P86" s="139"/>
     </row>
     <row r="87" spans="1:16" ht="17">
       <c r="A87" s="13" t="s">
@@ -14249,10 +14808,10 @@
     </row>
     <row r="104" spans="1:16" ht="17" thickBot="1"/>
     <row r="105" spans="1:16" ht="17" thickTop="1">
-      <c r="A105" s="139" t="s">
+      <c r="A105" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="140"/>
+      <c r="B105" s="141"/>
       <c r="C105" s="24"/>
       <c r="D105" s="25"/>
       <c r="E105" s="26"/>
@@ -14269,8 +14828,8 @@
       <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" ht="17" thickBot="1">
-      <c r="A106" s="141"/>
-      <c r="B106" s="142"/>
+      <c r="A106" s="142"/>
+      <c r="B106" s="143"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -18208,10 +18767,10 @@
         <f>voron2.4_350mm_bom!M1</f>
         <v>Notes</v>
       </c>
-      <c r="Q1" s="143" t="s">
+      <c r="Q1" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="144"/>
+      <c r="R1" s="145"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="str">
@@ -21431,18 +21990,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="19">
       <c r="A2" s="3" t="s">

--- a/BOM/voron2.4_350mm_bom.xlsx
+++ b/BOM/voron2.4_350mm_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwilder/Documents/3D Printing/cee-wals/voron-2.4/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447E070-1D8D-F047-96D3-5F692D5F71B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1648580-090B-E947-B7B2-E3C0C57DAB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="520" windowWidth="50420" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="50420" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="West3D Voron 2.4 BOM" sheetId="6" r:id="rId1"/>
@@ -151,6 +151,144 @@
       </text>
     </comment>
     <comment ref="M64" authorId="0" shapeId="0" xr:uid="{DF034578-A371-6746-86EF-80D8575D15DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Prusa shipping, from Czech to USA, by spool quantity (as of 08/04/2022):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - 2 x ASA 850g spools: $24.02
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - 3 x ASA 850g spools: $26.86
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - 5 x ASA 850g spools: $35.89
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="+mn-lt"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K65" authorId="0" shapeId="0" xr:uid="{F3BDFA9C-1A61-4440-B93B-51CA58FFA78A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Prusa costs per spool (w/o shipping &amp; taxes): $29.99
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">PrintedSolid (USA) cost per spool (free shipping):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">$35.99
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M65" authorId="0" shapeId="0" xr:uid="{2239A192-E39D-BA48-9DB6-85709F4CEDA9}">
       <text>
         <r>
           <rPr>
@@ -1023,7 +1161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="672">
   <si>
     <t>Category</t>
   </si>
@@ -3123,6 +3261,46 @@
   </si>
   <si>
     <t>TWW-KF-VORON-20</t>
+  </si>
+  <si>
+    <t>Voron Txn 21 (TWW-KF-VORON-21)
+TWW Kids fund (proj. voron): $18.01 on 12/28/2022</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-21
+Direct from TWW account</t>
+  </si>
+  <si>
+    <t>Additional 2020 M3 T-Nuts. B/c ball-joint T-Nuts are the shiz</t>
+  </si>
+  <si>
+    <t>Spring Loaded M3 T-Nuts for 2020  Series Aluminum Extrusions; 100 pack</t>
+  </si>
+  <si>
+    <t>vendor: printedsolid.com; Purchased: 3</t>
+  </si>
+  <si>
+    <t>Voron Txn 22 (TWW-KF-VORON-22)
+TWW Kids fund (proj. voron): $55.99 on 01/03/2022</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-22
+Direct from TWW account</t>
+  </si>
+  <si>
+    <t>TWW-KF-VORON-22</t>
+  </si>
+  <si>
+    <t>Jessie Premium PLA 1.75mm X Blue Moon 1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vendor: printedsolid.com; for initial calibration and testing </t>
+  </si>
+  <si>
+    <t>Jet Black ASA Prusament (850g) - Primary color; for mods</t>
+  </si>
+  <si>
+    <t>vendor: printedsolid.com; Additional filament for printing mods</t>
   </si>
 </sst>
 </file>
@@ -4112,7 +4290,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4486,6 +4664,16 @@
     <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4528,20 +4716,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="39" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="39" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4946,13 +5125,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AD148"/>
+  <dimension ref="A1:AD150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S100" sqref="S100"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4979,28 +5158,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
     </row>
     <row r="2" spans="1:30" s="90" customFormat="1" ht="23" customHeight="1" thickBot="1">
       <c r="A2" s="91" t="s">
@@ -7150,7 +7329,7 @@
         <v>65</v>
       </c>
       <c r="P39" s="107">
-        <f>O39</f>
+        <f t="shared" ref="P39:P44" si="13">O39</f>
         <v>65</v>
       </c>
       <c r="Q39" s="114"/>
@@ -7165,62 +7344,62 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="30">
-      <c r="A40" s="116" t="s">
+      <c r="A40" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="B40" s="129">
-        <v>1</v>
-      </c>
-      <c r="C40" s="129" t="s">
+      <c r="B40" s="102">
+        <v>1</v>
+      </c>
+      <c r="C40" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D40" s="129"/>
-      <c r="E40" s="132" t="s">
+      <c r="D40" s="102"/>
+      <c r="E40" s="126" t="s">
         <v>398</v>
       </c>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="131" t="str">
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="110" t="str">
         <f>E40</f>
         <v>Mandala Roseworks Acrylic Panels Clear</v>
       </c>
-      <c r="I40" s="120" t="s">
+      <c r="I40" s="105" t="s">
         <v>646</v>
       </c>
-      <c r="J40" s="117">
+      <c r="J40" s="106">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K40" s="121">
+      <c r="K40" s="107">
         <v>48.99</v>
       </c>
-      <c r="L40" s="121">
+      <c r="L40" s="107">
         <f t="shared" si="0"/>
         <v>48.99</v>
       </c>
-      <c r="M40" s="121">
+      <c r="M40" s="107">
         <f>39.15/2</f>
         <v>19.574999999999999</v>
       </c>
-      <c r="N40" s="121">
-        <v>0</v>
-      </c>
-      <c r="O40" s="121">
+      <c r="N40" s="107">
+        <v>0</v>
+      </c>
+      <c r="O40" s="107">
         <f t="shared" si="1"/>
         <v>68.564999999999998</v>
       </c>
-      <c r="P40" s="121">
-        <f>O40</f>
+      <c r="P40" s="107">
+        <f t="shared" si="13"/>
         <v>68.564999999999998</v>
       </c>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S40" s="123" t="s">
+      <c r="Q40" s="105"/>
+      <c r="R40" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S40" s="108" t="s">
         <v>636</v>
       </c>
-      <c r="T40" s="124" t="s">
+      <c r="T40" s="109" t="s">
         <v>636</v>
       </c>
     </row>
@@ -7269,7 +7448,7 @@
         <v>278.99</v>
       </c>
       <c r="P41" s="107">
-        <f>O41</f>
+        <f t="shared" si="13"/>
         <v>278.99</v>
       </c>
       <c r="Q41" s="114"/>
@@ -7284,63 +7463,63 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="30">
-      <c r="A42" s="132" t="s">
+      <c r="A42" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="B42" s="129">
-        <v>1</v>
-      </c>
-      <c r="C42" s="129" t="s">
+      <c r="B42" s="102">
+        <v>1</v>
+      </c>
+      <c r="C42" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="129"/>
-      <c r="E42" s="116" t="s">
+      <c r="D42" s="102"/>
+      <c r="E42" s="101" t="s">
         <v>404</v>
       </c>
-      <c r="F42" s="116" t="s">
+      <c r="F42" s="101" t="s">
         <v>628</v>
       </c>
-      <c r="G42" s="130"/>
-      <c r="H42" s="119" t="str">
+      <c r="G42" s="103"/>
+      <c r="H42" s="112" t="str">
         <f>F42</f>
         <v>Fermoi Style (350mm) from Keenovo Store</v>
       </c>
-      <c r="I42" s="120" t="s">
+      <c r="I42" s="105" t="s">
         <v>629</v>
       </c>
-      <c r="J42" s="117">
+      <c r="J42" s="106">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K42" s="121">
+      <c r="K42" s="107">
         <v>102.12</v>
       </c>
-      <c r="L42" s="121">
+      <c r="L42" s="107">
         <f t="shared" si="0"/>
         <v>102.12</v>
       </c>
-      <c r="M42" s="121">
+      <c r="M42" s="107">
         <v>32</v>
       </c>
-      <c r="N42" s="121">
-        <v>0</v>
-      </c>
-      <c r="O42" s="121">
+      <c r="N42" s="107">
+        <v>0</v>
+      </c>
+      <c r="O42" s="107">
         <f t="shared" si="1"/>
         <v>134.12</v>
       </c>
-      <c r="P42" s="121">
-        <f>O42</f>
+      <c r="P42" s="107">
+        <f t="shared" si="13"/>
         <v>134.12</v>
       </c>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S42" s="123" t="s">
+      <c r="Q42" s="105"/>
+      <c r="R42" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S42" s="108" t="s">
         <v>631</v>
       </c>
-      <c r="T42" s="124" t="s">
+      <c r="T42" s="109" t="s">
         <v>630</v>
       </c>
     </row>
@@ -7388,7 +7567,7 @@
         <v>79.564999999999998</v>
       </c>
       <c r="P43" s="121">
-        <f>O43</f>
+        <f t="shared" si="13"/>
         <v>79.564999999999998</v>
       </c>
       <c r="Q43" s="120"/>
@@ -7449,7 +7628,7 @@
         <v>119.99</v>
       </c>
       <c r="P44" s="121">
-        <f>O44</f>
+        <f t="shared" si="13"/>
         <v>119.99</v>
       </c>
       <c r="Q44" s="120"/>
@@ -7570,7 +7749,7 @@
       <c r="F47" s="103"/>
       <c r="G47" s="103"/>
       <c r="H47" s="112" t="str">
-        <f t="shared" ref="H47:H53" si="13">A47</f>
+        <f t="shared" ref="H47:H53" si="14">A47</f>
         <v>Mobil Mobilux EP2 10ml filled syringe with blunt tips</v>
       </c>
       <c r="I47" s="105"/>
@@ -7625,7 +7804,7 @@
       <c r="F48" s="58"/>
       <c r="G48" s="58"/>
       <c r="H48" s="67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Large Printed Parts Decal</v>
       </c>
       <c r="I48" s="75" t="s">
@@ -7639,13 +7818,13 @@
         <v>15.99</v>
       </c>
       <c r="L48" s="64">
-        <f t="shared" ref="L48:L56" si="14">J48*K48</f>
+        <f t="shared" ref="L48:L56" si="15">J48*K48</f>
         <v>15.99</v>
       </c>
       <c r="M48" s="64"/>
       <c r="N48" s="64"/>
       <c r="O48" s="64">
-        <f t="shared" ref="O48:O56" si="15">L48+M48+N48</f>
+        <f t="shared" ref="O48:O56" si="16">L48+M48+N48</f>
         <v>15.99</v>
       </c>
       <c r="P48" s="64"/>
@@ -7669,7 +7848,7 @@
       <c r="F49" s="58"/>
       <c r="G49" s="58"/>
       <c r="H49" s="67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Voron Design Decal</v>
       </c>
       <c r="I49" s="75" t="s">
@@ -7683,13 +7862,13 @@
         <v>5.99</v>
       </c>
       <c r="L49" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.99</v>
       </c>
       <c r="M49" s="64"/>
       <c r="N49" s="64"/>
       <c r="O49" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.99</v>
       </c>
       <c r="P49" s="64"/>
@@ -7713,7 +7892,7 @@
       <c r="F50" s="103"/>
       <c r="G50" s="103"/>
       <c r="H50" s="112" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Din Rails (Pair); 470mm (350 builds; Model 2.4</v>
       </c>
       <c r="I50" s="105"/>
@@ -7725,7 +7904,7 @@
         <v>11.99</v>
       </c>
       <c r="L50" s="107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.99</v>
       </c>
       <c r="M50" s="107">
@@ -7735,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.99</v>
       </c>
       <c r="P50" s="107">
@@ -7768,7 +7947,7 @@
       <c r="F51" s="103"/>
       <c r="G51" s="103"/>
       <c r="H51" s="112" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">Din Rail Clamp / Bracket for Solid State Relay (SSR) </v>
       </c>
       <c r="I51" s="105"/>
@@ -7780,7 +7959,7 @@
         <v>3.99</v>
       </c>
       <c r="L51" s="107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.99</v>
       </c>
       <c r="M51" s="107">
@@ -7790,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.99</v>
       </c>
       <c r="P51" s="107">
@@ -7823,7 +8002,7 @@
       <c r="F52" s="58"/>
       <c r="G52" s="58"/>
       <c r="H52" s="67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Wire Connectors (Wago 221-415)</v>
       </c>
       <c r="I52" s="75"/>
@@ -7835,13 +8014,13 @@
         <v>2.79</v>
       </c>
       <c r="L52" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.370000000000001</v>
       </c>
       <c r="M52" s="64"/>
       <c r="N52" s="64"/>
       <c r="O52" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.370000000000001</v>
       </c>
       <c r="P52" s="64"/>
@@ -7865,7 +8044,7 @@
       <c r="F53" s="130"/>
       <c r="G53" s="130"/>
       <c r="H53" s="119" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">3-3 DIN Mounting Fast Wire Cable Connectors / Wago Connector </v>
       </c>
       <c r="I53" s="120" t="s">
@@ -7878,7 +8057,7 @@
         <v>3.49</v>
       </c>
       <c r="L53" s="121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.47</v>
       </c>
       <c r="M53" s="121">
@@ -7910,63 +8089,63 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="30">
-      <c r="A54" s="116" t="s">
+      <c r="A54" s="101" t="s">
         <v>413</v>
       </c>
-      <c r="B54" s="129">
-        <v>1</v>
-      </c>
-      <c r="C54" s="129" t="s">
+      <c r="B54" s="102">
+        <v>1</v>
+      </c>
+      <c r="C54" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D54" s="129" t="s">
+      <c r="D54" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="E54" s="116" t="s">
+      <c r="E54" s="101" t="s">
         <v>620</v>
       </c>
-      <c r="F54" s="130"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="119" t="str">
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="112" t="str">
         <f>E54</f>
         <v>LDO Input Shaper kit; ADXL345 and more</v>
       </c>
-      <c r="I54" s="120" t="s">
+      <c r="I54" s="105" t="s">
         <v>621</v>
       </c>
-      <c r="J54" s="117">
+      <c r="J54" s="106">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K54" s="121">
+      <c r="K54" s="107">
         <v>9.99</v>
       </c>
-      <c r="L54" s="121">
-        <f t="shared" si="14"/>
+      <c r="L54" s="107">
+        <f t="shared" si="15"/>
         <v>9.99</v>
       </c>
-      <c r="M54" s="121">
+      <c r="M54" s="107">
         <v>4.99</v>
       </c>
-      <c r="N54" s="121">
-        <v>0</v>
-      </c>
-      <c r="O54" s="121">
-        <f t="shared" si="15"/>
+      <c r="N54" s="107">
+        <v>0</v>
+      </c>
+      <c r="O54" s="107">
+        <f t="shared" si="16"/>
         <v>14.98</v>
       </c>
-      <c r="P54" s="121">
+      <c r="P54" s="107">
         <f>O54</f>
         <v>14.98</v>
       </c>
-      <c r="Q54" s="120"/>
-      <c r="R54" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S54" s="123" t="s">
+      <c r="Q54" s="105"/>
+      <c r="R54" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S54" s="108" t="s">
         <v>623</v>
       </c>
-      <c r="T54" s="124" t="s">
+      <c r="T54" s="109" t="s">
         <v>624</v>
       </c>
     </row>
@@ -7985,7 +8164,7 @@
       <c r="F55" s="58"/>
       <c r="G55" s="65"/>
       <c r="H55" s="67" t="str">
-        <f t="shared" ref="H55" si="16">A55</f>
+        <f t="shared" ref="H55" si="17">A55</f>
         <v>C13 Power Cord</v>
       </c>
       <c r="I55" s="75" t="s">
@@ -7997,13 +8176,13 @@
       </c>
       <c r="K55" s="64"/>
       <c r="L55" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M55" s="64"/>
       <c r="N55" s="64"/>
       <c r="O55" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P55" s="64"/>
@@ -8036,13 +8215,13 @@
       </c>
       <c r="K56" s="64"/>
       <c r="L56" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M56" s="64"/>
       <c r="N56" s="64"/>
       <c r="O56" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P56" s="64"/>
@@ -8065,7 +8244,7 @@
       <c r="E57" s="118"/>
       <c r="F57" s="118"/>
       <c r="G57" s="130"/>
-      <c r="H57" s="154" t="str">
+      <c r="H57" s="138" t="str">
         <f>A57</f>
         <v>3M VHB Tape 5952 5mm width</v>
       </c>
@@ -8073,14 +8252,14 @@
         <v>417</v>
       </c>
       <c r="J57" s="117">
-        <f t="shared" ref="J57:J59" si="17">B57</f>
+        <f t="shared" ref="J57:J59" si="18">B57</f>
         <v>1</v>
       </c>
       <c r="K57" s="121">
         <v>5.99</v>
       </c>
       <c r="L57" s="121">
-        <f t="shared" ref="L57:L129" si="18">J57*K57</f>
+        <f t="shared" ref="L57:L131" si="19">J57*K57</f>
         <v>5.99</v>
       </c>
       <c r="M57" s="121">
@@ -8091,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="121">
-        <f t="shared" ref="O57:O63" si="19">L57+M57+N57</f>
+        <f t="shared" ref="O57:O63" si="20">L57+M57+N57</f>
         <v>7.3660000000000005</v>
       </c>
       <c r="P57" s="121">
@@ -8123,7 +8302,7 @@
       <c r="E58" s="118"/>
       <c r="F58" s="118"/>
       <c r="G58" s="130"/>
-      <c r="H58" s="154" t="str">
+      <c r="H58" s="138" t="str">
         <f>A58</f>
         <v>3M VHB Tape 5952 6.35mm width</v>
       </c>
@@ -8131,14 +8310,14 @@
         <v>417</v>
       </c>
       <c r="J58" s="117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K58" s="121">
         <v>6.99</v>
       </c>
       <c r="L58" s="121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.99</v>
       </c>
       <c r="M58" s="121">
@@ -8149,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.3659999999999997</v>
       </c>
       <c r="P58" s="121">
@@ -8184,20 +8363,20 @@
       <c r="H59" s="67"/>
       <c r="I59" s="75"/>
       <c r="J59" s="63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K59" s="64">
         <v>6.5</v>
       </c>
       <c r="L59" s="64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.5</v>
       </c>
       <c r="M59" s="64"/>
       <c r="N59" s="64"/>
       <c r="O59" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.5</v>
       </c>
       <c r="P59" s="64"/>
@@ -8230,14 +8409,14 @@
         <v>421</v>
       </c>
       <c r="J60" s="106">
-        <f t="shared" ref="J60:J129" si="20">B60</f>
+        <f t="shared" ref="J60:J131" si="21">B60</f>
         <v>1</v>
       </c>
       <c r="K60" s="107">
         <v>74.989999999999995</v>
       </c>
       <c r="L60" s="107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>74.989999999999995</v>
       </c>
       <c r="M60" s="107">
@@ -8247,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>74.989999999999995</v>
       </c>
       <c r="P60" s="107">
@@ -8291,14 +8470,14 @@
         <v>477</v>
       </c>
       <c r="J61" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="K61" s="107">
         <v>88</v>
       </c>
       <c r="L61" s="107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>88</v>
       </c>
       <c r="M61" s="107">
@@ -8308,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>92.06</v>
       </c>
       <c r="P61" s="107">
@@ -8343,27 +8522,27 @@
       <c r="F62" s="65"/>
       <c r="G62" s="65"/>
       <c r="H62" s="67" t="str">
-        <f t="shared" ref="H62:H65" si="21">A62</f>
+        <f t="shared" ref="H62:H66" si="22">A62</f>
         <v>Kapton Tape</v>
       </c>
       <c r="I62" s="75" t="s">
         <v>435</v>
       </c>
       <c r="J62" s="63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="K62" s="64">
         <v>0</v>
       </c>
       <c r="L62" s="64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M62" s="64"/>
       <c r="N62" s="64"/>
       <c r="O62" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P62" s="64"/>
@@ -8387,27 +8566,27 @@
       <c r="F63" s="65"/>
       <c r="G63" s="65"/>
       <c r="H63" s="67" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Voron Zip Tie Kit</v>
       </c>
       <c r="I63" s="75" t="s">
         <v>436</v>
       </c>
       <c r="J63" s="63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="K63" s="64">
         <v>4</v>
       </c>
       <c r="L63" s="64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="M63" s="64"/>
       <c r="N63" s="64"/>
       <c r="O63" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="P63" s="64"/>
@@ -8433,21 +8612,21 @@
       <c r="F64" s="111"/>
       <c r="G64" s="111"/>
       <c r="H64" s="112" t="str">
+        <f t="shared" si="22"/>
+        <v>Jet Black ASA Prusament (850g) - Primary color</v>
+      </c>
+      <c r="I64" s="105" t="s">
+        <v>664</v>
+      </c>
+      <c r="J64" s="106">
         <f t="shared" si="21"/>
-        <v>Jet Black ASA Prusament (850g) - Primary color</v>
-      </c>
-      <c r="I64" s="105" t="s">
-        <v>439</v>
-      </c>
-      <c r="J64" s="106">
-        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="K64" s="107">
         <v>35.99</v>
       </c>
       <c r="L64" s="107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>107.97</v>
       </c>
       <c r="M64" s="114">
@@ -8457,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="107">
-        <f t="shared" ref="O64:O129" si="22">L64+M64+N64</f>
+        <f t="shared" ref="O64:O131" si="23">L64+M64+N64</f>
         <v>107.97</v>
       </c>
       <c r="P64" s="107">
@@ -8475,252 +8654,247 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="101" t="s">
+    <row r="65" spans="1:20" ht="30">
+      <c r="A65" s="116" t="s">
+        <v>670</v>
+      </c>
+      <c r="B65" s="117">
+        <v>1</v>
+      </c>
+      <c r="C65" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="117" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119" t="str">
+        <f t="shared" ref="H65" si="24">A65</f>
+        <v>Jet Black ASA Prusament (850g) - Primary color; for mods</v>
+      </c>
+      <c r="I65" s="120" t="s">
+        <v>671</v>
+      </c>
+      <c r="J65" s="117">
+        <f t="shared" ref="J65" si="25">B65</f>
+        <v>1</v>
+      </c>
+      <c r="K65" s="121">
+        <v>35.99</v>
+      </c>
+      <c r="L65" s="121">
+        <f t="shared" ref="L65" si="26">J65*K65</f>
+        <v>35.99</v>
+      </c>
+      <c r="M65" s="122">
+        <v>0</v>
+      </c>
+      <c r="N65" s="121">
+        <v>0</v>
+      </c>
+      <c r="O65" s="121">
+        <f t="shared" ref="O65" si="27">L65+M65+N65</f>
+        <v>35.99</v>
+      </c>
+      <c r="P65" s="121">
+        <f>O65</f>
+        <v>35.99</v>
+      </c>
+      <c r="Q65" s="122"/>
+      <c r="R65" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="S65" s="123" t="s">
+        <v>665</v>
+      </c>
+      <c r="T65" s="124" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="101" t="s">
         <v>438</v>
       </c>
-      <c r="B65" s="106">
-        <v>2</v>
-      </c>
-      <c r="C65" s="106" t="s">
+      <c r="B66" s="106">
+        <v>1</v>
+      </c>
+      <c r="C66" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D65" s="106" t="s">
+      <c r="D66" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="112" t="str">
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="112" t="str">
+        <f t="shared" si="22"/>
+        <v>Lipstick Red ASA Prusament (850g) - Secondary color</v>
+      </c>
+      <c r="I66" s="105" t="s">
+        <v>439</v>
+      </c>
+      <c r="J66" s="106">
         <f t="shared" si="21"/>
-        <v>Lipstick Red ASA Prusament (850g) - Secondary color</v>
-      </c>
-      <c r="I65" s="105" t="s">
-        <v>439</v>
-      </c>
-      <c r="J65" s="106">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="K65" s="107">
+        <v>1</v>
+      </c>
+      <c r="K66" s="107">
         <v>35.99</v>
       </c>
-      <c r="L65" s="107">
-        <f t="shared" si="18"/>
-        <v>71.98</v>
-      </c>
-      <c r="M65" s="107">
-        <v>0</v>
-      </c>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107">
-        <f t="shared" si="22"/>
-        <v>71.98</v>
-      </c>
-      <c r="P65" s="107">
-        <f>K65 * 1</f>
+      <c r="L66" s="107">
+        <f t="shared" si="19"/>
         <v>35.99</v>
       </c>
-      <c r="Q65" s="105"/>
-      <c r="R65" s="106" t="s">
-        <v>441</v>
-      </c>
-      <c r="S65" s="108" t="s">
+      <c r="M66" s="107">
+        <v>0</v>
+      </c>
+      <c r="N66" s="107"/>
+      <c r="O66" s="107">
+        <f t="shared" si="23"/>
+        <v>35.99</v>
+      </c>
+      <c r="P66" s="107">
+        <f>K66 * 1</f>
+        <v>35.99</v>
+      </c>
+      <c r="Q66" s="105"/>
+      <c r="R66" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S66" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="T65" s="109" t="s">
+      <c r="T66" s="109" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="30">
-      <c r="A66" s="116" t="s">
+    <row r="67" spans="1:20">
+      <c r="A67" s="116" t="s">
+        <v>668</v>
+      </c>
+      <c r="B67" s="117">
+        <v>1</v>
+      </c>
+      <c r="C67" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="D67" s="117" t="s">
+        <v>298</v>
+      </c>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="119" t="str">
+        <f t="shared" ref="H67" si="28">A67</f>
+        <v>Jessie Premium PLA 1.75mm X Blue Moon 1kg</v>
+      </c>
+      <c r="I67" s="120" t="s">
+        <v>669</v>
+      </c>
+      <c r="J67" s="117">
+        <f t="shared" ref="J67" si="29">B67</f>
+        <v>1</v>
+      </c>
+      <c r="K67" s="121">
+        <v>20</v>
+      </c>
+      <c r="L67" s="121">
+        <f t="shared" ref="L67" si="30">J67*K67</f>
+        <v>20</v>
+      </c>
+      <c r="M67" s="121">
+        <v>0</v>
+      </c>
+      <c r="N67" s="121"/>
+      <c r="O67" s="121">
+        <f t="shared" ref="O67" si="31">L67+M67+N67</f>
+        <v>20</v>
+      </c>
+      <c r="P67" s="121">
+        <f>K67 * 1</f>
+        <v>20</v>
+      </c>
+      <c r="Q67" s="120"/>
+      <c r="R67" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="S67" s="123" t="s">
+        <v>667</v>
+      </c>
+      <c r="T67" s="124" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="30">
+      <c r="A68" s="116" t="s">
         <v>447</v>
       </c>
-      <c r="B66" s="117">
-        <v>1</v>
-      </c>
-      <c r="C66" s="117" t="s">
+      <c r="B68" s="117">
+        <v>1</v>
+      </c>
+      <c r="C68" s="117" t="s">
         <v>313</v>
       </c>
-      <c r="D66" s="117" t="s">
+      <c r="D68" s="117" t="s">
         <v>298</v>
       </c>
-      <c r="E66" s="116" t="s">
+      <c r="E68" s="116" t="s">
         <v>632</v>
       </c>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="119" t="str">
-        <f>E66</f>
+      <c r="F68" s="118"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="119" t="str">
+        <f>E68</f>
         <v>BTT SFS V1.0 Smart Filament Sensor (from DFH)</v>
       </c>
-      <c r="I66" s="120" t="s">
+      <c r="I68" s="120" t="s">
         <v>633</v>
       </c>
-      <c r="J66" s="117">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="K66" s="121">
+      <c r="J68" s="117">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K68" s="121">
         <v>20</v>
       </c>
-      <c r="L66" s="121">
-        <f t="shared" si="18"/>
+      <c r="L68" s="121">
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="M66" s="121">
+      <c r="M68" s="121">
         <f>13.1/4</f>
         <v>3.2749999999999999</v>
       </c>
-      <c r="N66" s="121">
-        <v>0</v>
-      </c>
-      <c r="O66" s="121">
-        <f t="shared" si="22"/>
+      <c r="N68" s="121">
+        <v>0</v>
+      </c>
+      <c r="O68" s="121">
+        <f t="shared" si="23"/>
         <v>23.274999999999999</v>
       </c>
-      <c r="P66" s="121">
-        <f>O66</f>
+      <c r="P68" s="121">
+        <f>O68</f>
         <v>23.274999999999999</v>
       </c>
-      <c r="Q66" s="120"/>
-      <c r="R66" s="117" t="s">
+      <c r="Q68" s="120"/>
+      <c r="R68" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="S66" s="123" t="s">
+      <c r="S68" s="123" t="s">
         <v>642</v>
       </c>
-      <c r="T66" s="124" t="s">
+      <c r="T68" s="124" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="101" t="s">
+    <row r="69" spans="1:20">
+      <c r="A69" s="101" t="s">
         <v>448</v>
       </c>
-      <c r="B67" s="106">
+      <c r="B69" s="106">
         <v>2</v>
-      </c>
-      <c r="C67" s="106" t="s">
-        <v>313</v>
-      </c>
-      <c r="D67" s="106" t="s">
-        <v>298</v>
-      </c>
-      <c r="E67" s="111"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="112" t="str">
-        <f t="shared" ref="H67:H70" si="23">A67</f>
-        <v>BTT CB1 Heatsink</v>
-      </c>
-      <c r="I67" s="105" t="s">
-        <v>449</v>
-      </c>
-      <c r="J67" s="106">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="K67" s="107">
-        <v>5.99</v>
-      </c>
-      <c r="L67" s="107">
-        <f t="shared" si="18"/>
-        <v>11.98</v>
-      </c>
-      <c r="M67" s="107">
-        <v>0</v>
-      </c>
-      <c r="N67" s="107">
-        <v>0</v>
-      </c>
-      <c r="O67" s="107">
-        <f t="shared" si="22"/>
-        <v>11.98</v>
-      </c>
-      <c r="P67" s="107">
-        <f>O67</f>
-        <v>11.98</v>
-      </c>
-      <c r="Q67" s="114">
-        <f>(K67*1) * -1</f>
-        <v>-5.99</v>
-      </c>
-      <c r="R67" s="106" t="s">
-        <v>392</v>
-      </c>
-      <c r="S67" s="108" t="s">
-        <v>452</v>
-      </c>
-      <c r="T67" s="109" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="45">
-      <c r="A68" s="101" t="s">
-        <v>466</v>
-      </c>
-      <c r="B68" s="106">
-        <v>1</v>
-      </c>
-      <c r="C68" s="106" t="s">
-        <v>313</v>
-      </c>
-      <c r="D68" s="106" t="s">
-        <v>298</v>
-      </c>
-      <c r="E68" s="111"/>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="112" t="str">
-        <f t="shared" si="23"/>
-        <v>Mandala Roseworks Kinematic center brace for Voron 2.4</v>
-      </c>
-      <c r="I68" s="105" t="s">
-        <v>490</v>
-      </c>
-      <c r="J68" s="106">
-        <f t="shared" ref="J68:J126" si="24">B68</f>
-        <v>1</v>
-      </c>
-      <c r="K68" s="107">
-        <v>35</v>
-      </c>
-      <c r="L68" s="107">
-        <f t="shared" ref="L68:L126" si="25">J68*K68</f>
-        <v>35</v>
-      </c>
-      <c r="M68" s="107">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="N68" s="107">
-        <v>0</v>
-      </c>
-      <c r="O68" s="107">
-        <f t="shared" ref="O68:O126" si="26">L68+M68+N68</f>
-        <v>39.06</v>
-      </c>
-      <c r="P68" s="107">
-        <f>O68</f>
-        <v>39.06</v>
-      </c>
-      <c r="Q68" s="114"/>
-      <c r="R68" s="106" t="s">
-        <v>392</v>
-      </c>
-      <c r="S68" s="108" t="s">
-        <v>492</v>
-      </c>
-      <c r="T68" s="109" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="45">
-      <c r="A69" s="101" t="s">
-        <v>470</v>
-      </c>
-      <c r="B69" s="106">
-        <v>1</v>
       </c>
       <c r="C69" s="106" t="s">
         <v>313</v>
@@ -8732,54 +8906,54 @@
       <c r="F69" s="111"/>
       <c r="G69" s="111"/>
       <c r="H69" s="112" t="str">
+        <f t="shared" ref="H69:H72" si="32">A69</f>
+        <v>BTT CB1 Heatsink</v>
+      </c>
+      <c r="I69" s="105" t="s">
+        <v>449</v>
+      </c>
+      <c r="J69" s="106">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="K69" s="107">
+        <v>5.99</v>
+      </c>
+      <c r="L69" s="107">
+        <f t="shared" si="19"/>
+        <v>11.98</v>
+      </c>
+      <c r="M69" s="107">
+        <v>0</v>
+      </c>
+      <c r="N69" s="107">
+        <v>0</v>
+      </c>
+      <c r="O69" s="107">
         <f t="shared" si="23"/>
-        <v>Mandala Roseworks The "Gripper" E3DV6 Wrench</v>
-      </c>
-      <c r="I69" s="105" t="s">
-        <v>473</v>
-      </c>
-      <c r="J69" s="106">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="K69" s="107">
-        <v>29</v>
-      </c>
-      <c r="L69" s="107">
-        <f t="shared" si="25"/>
-        <v>29</v>
-      </c>
-      <c r="M69" s="107">
-        <v>6.27</v>
-      </c>
-      <c r="N69" s="107">
-        <v>0</v>
-      </c>
-      <c r="O69" s="107">
-        <f t="shared" si="26"/>
-        <v>35.269999999999996</v>
+        <v>11.98</v>
       </c>
       <c r="P69" s="107">
         <f>O69</f>
-        <v>35.269999999999996</v>
+        <v>11.98</v>
       </c>
       <c r="Q69" s="114">
-        <f>-1*P69</f>
-        <v>-35.269999999999996</v>
+        <f>(K69*1) * -1</f>
+        <v>-5.99</v>
       </c>
       <c r="R69" s="106" t="s">
         <v>392</v>
       </c>
       <c r="S69" s="108" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="T69" s="109" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="30">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="45">
       <c r="A70" s="101" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B70" s="106">
         <v>1</v>
@@ -8794,180 +8968,178 @@
       <c r="F70" s="111"/>
       <c r="G70" s="111"/>
       <c r="H70" s="112" t="str">
-        <f t="shared" si="23"/>
-        <v>Layerneer Bed Weld - Original 3D printing adhesive</v>
+        <f t="shared" si="32"/>
+        <v>Mandala Roseworks Kinematic center brace for Voron 2.4</v>
       </c>
       <c r="I70" s="105" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="J70" s="106">
-        <f t="shared" ref="J70:J123" si="27">B70</f>
+        <f t="shared" ref="J70:J128" si="33">B70</f>
         <v>1</v>
       </c>
       <c r="K70" s="107">
-        <v>22.95</v>
+        <v>35</v>
       </c>
       <c r="L70" s="107">
-        <f t="shared" ref="L70:L123" si="28">J70*K70</f>
-        <v>22.95</v>
+        <f t="shared" ref="L70:L128" si="34">J70*K70</f>
+        <v>35</v>
       </c>
       <c r="M70" s="107">
-        <v>0</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="N70" s="107">
         <v>0</v>
       </c>
       <c r="O70" s="107">
-        <f t="shared" ref="O70:O123" si="29">L70+M70+N70</f>
-        <v>22.95</v>
+        <f t="shared" ref="O70:O128" si="35">L70+M70+N70</f>
+        <v>39.06</v>
       </c>
       <c r="P70" s="107">
         <f>O70</f>
-        <v>22.95</v>
-      </c>
-      <c r="Q70" s="114">
-        <f>-1*P70</f>
-        <v>-22.95</v>
-      </c>
+        <v>39.06</v>
+      </c>
+      <c r="Q70" s="114"/>
       <c r="R70" s="106" t="s">
         <v>392</v>
       </c>
       <c r="S70" s="108" t="s">
+        <v>492</v>
+      </c>
+      <c r="T70" s="109" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="45">
+      <c r="A71" s="101" t="s">
+        <v>470</v>
+      </c>
+      <c r="B71" s="106">
+        <v>1</v>
+      </c>
+      <c r="C71" s="106" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="106" t="s">
+        <v>298</v>
+      </c>
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="112" t="str">
+        <f t="shared" si="32"/>
+        <v>Mandala Roseworks The "Gripper" E3DV6 Wrench</v>
+      </c>
+      <c r="I71" s="105" t="s">
+        <v>473</v>
+      </c>
+      <c r="J71" s="106">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="107">
+        <v>29</v>
+      </c>
+      <c r="L71" s="107">
+        <f t="shared" si="34"/>
+        <v>29</v>
+      </c>
+      <c r="M71" s="107">
+        <v>6.27</v>
+      </c>
+      <c r="N71" s="107">
+        <v>0</v>
+      </c>
+      <c r="O71" s="107">
+        <f t="shared" si="35"/>
+        <v>35.269999999999996</v>
+      </c>
+      <c r="P71" s="107">
+        <f>O71</f>
+        <v>35.269999999999996</v>
+      </c>
+      <c r="Q71" s="114">
+        <f>-1*P71</f>
+        <v>-35.269999999999996</v>
+      </c>
+      <c r="R71" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S71" s="108" t="s">
+        <v>491</v>
+      </c>
+      <c r="T71" s="109" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="30">
+      <c r="A72" s="101" t="s">
+        <v>471</v>
+      </c>
+      <c r="B72" s="106">
+        <v>1</v>
+      </c>
+      <c r="C72" s="106" t="s">
+        <v>313</v>
+      </c>
+      <c r="D72" s="106" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="112" t="str">
+        <f t="shared" si="32"/>
+        <v>Layerneer Bed Weld - Original 3D printing adhesive</v>
+      </c>
+      <c r="I72" s="105" t="s">
+        <v>472</v>
+      </c>
+      <c r="J72" s="106">
+        <f t="shared" ref="J72:J125" si="36">B72</f>
+        <v>1</v>
+      </c>
+      <c r="K72" s="107">
+        <v>22.95</v>
+      </c>
+      <c r="L72" s="107">
+        <f t="shared" ref="L72:L125" si="37">J72*K72</f>
+        <v>22.95</v>
+      </c>
+      <c r="M72" s="107">
+        <v>0</v>
+      </c>
+      <c r="N72" s="107">
+        <v>0</v>
+      </c>
+      <c r="O72" s="107">
+        <f t="shared" ref="O72:O125" si="38">L72+M72+N72</f>
+        <v>22.95</v>
+      </c>
+      <c r="P72" s="107">
+        <f>O72</f>
+        <v>22.95</v>
+      </c>
+      <c r="Q72" s="114">
+        <f>-1*P72</f>
+        <v>-22.95</v>
+      </c>
+      <c r="R72" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S72" s="108" t="s">
         <v>494</v>
       </c>
-      <c r="T70" s="109" t="s">
+      <c r="T72" s="109" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="45">
-      <c r="A71" s="116" t="s">
+    <row r="73" spans="1:20" ht="45">
+      <c r="A73" s="116" t="s">
         <v>476</v>
       </c>
-      <c r="B71" s="117">
-        <v>1</v>
-      </c>
-      <c r="C71" s="117" t="s">
-        <v>313</v>
-      </c>
-      <c r="D71" s="117" t="s">
-        <v>298</v>
-      </c>
-      <c r="E71" s="118"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="119" t="str">
-        <f t="shared" ref="H71:H76" si="30">A71</f>
-        <v>Voron Tap - rail w/ optotap v2 (5-24v) and HW kit; from DFH</v>
-      </c>
-      <c r="I71" s="120" t="s">
-        <v>489</v>
-      </c>
-      <c r="J71" s="117">
-        <f t="shared" ref="J71:J118" si="31">B71</f>
-        <v>1</v>
-      </c>
-      <c r="K71" s="121">
-        <v>45</v>
-      </c>
-      <c r="L71" s="121">
-        <f t="shared" ref="L71:L118" si="32">J71*K71</f>
-        <v>45</v>
-      </c>
-      <c r="M71" s="121">
-        <f>(20.18/9)*J71</f>
-        <v>2.2422222222222223</v>
-      </c>
-      <c r="N71" s="121">
-        <v>0</v>
-      </c>
-      <c r="O71" s="121">
-        <f t="shared" ref="O71:O118" si="33">L71+M71+N71</f>
-        <v>47.242222222222225</v>
-      </c>
-      <c r="P71" s="121">
-        <f>O71-((18.05/9)*J71)</f>
-        <v>45.236666666666672</v>
-      </c>
-      <c r="Q71" s="120"/>
-      <c r="R71" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S71" s="123" t="s">
-        <v>495</v>
-      </c>
-      <c r="T71" s="124" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="30">
-      <c r="A72" s="116" t="s">
-        <v>478</v>
-      </c>
-      <c r="B72" s="117">
-        <v>2</v>
-      </c>
-      <c r="C72" s="117" t="s">
-        <v>313</v>
-      </c>
-      <c r="D72" s="117" t="s">
-        <v>298</v>
-      </c>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="118"/>
-      <c r="H72" s="119" t="str">
-        <f t="shared" si="30"/>
-        <v>Nightlight on a stick - LED Strip; from DFH</v>
-      </c>
-      <c r="I72" s="120" t="s">
-        <v>483</v>
-      </c>
-      <c r="J72" s="117">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="K72" s="121">
-        <v>17.5</v>
-      </c>
-      <c r="L72" s="121">
-        <f t="shared" si="32"/>
-        <v>35</v>
-      </c>
-      <c r="M72" s="121">
-        <f t="shared" ref="M72:M76" si="34">(20.18/9)*J72</f>
-        <v>4.4844444444444447</v>
-      </c>
-      <c r="N72" s="121">
-        <v>0</v>
-      </c>
-      <c r="O72" s="121">
-        <f t="shared" si="33"/>
-        <v>39.484444444444442</v>
-      </c>
-      <c r="P72" s="121">
-        <f t="shared" ref="P72:P76" si="35">O72-((18.05/9)*J72)</f>
-        <v>35.473333333333329</v>
-      </c>
-      <c r="Q72" s="122">
-        <f>-1*P72</f>
-        <v>-35.473333333333329</v>
-      </c>
-      <c r="R72" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S72" s="123" t="s">
-        <v>485</v>
-      </c>
-      <c r="T72" s="124" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="30">
-      <c r="A73" s="116" t="s">
-        <v>479</v>
-      </c>
       <c r="B73" s="117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="117" t="s">
         <v>313</v>
@@ -8979,55 +9151,55 @@
       <c r="F73" s="118"/>
       <c r="G73" s="118"/>
       <c r="H73" s="119" t="str">
-        <f t="shared" si="30"/>
-        <v>Disco stick on black PCB - LED Strip; from DFH</v>
+        <f t="shared" ref="H73:H78" si="39">A73</f>
+        <v>Voron Tap - rail w/ optotap v2 (5-24v) and HW kit; from DFH</v>
       </c>
       <c r="I73" s="120" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="J73" s="117">
-        <f t="shared" si="31"/>
-        <v>2</v>
+        <f t="shared" ref="J73:J120" si="40">B73</f>
+        <v>1</v>
       </c>
       <c r="K73" s="121">
-        <v>16.5</v>
+        <v>45</v>
       </c>
       <c r="L73" s="121">
-        <f t="shared" si="32"/>
-        <v>33</v>
+        <f t="shared" ref="L73:L120" si="41">J73*K73</f>
+        <v>45</v>
       </c>
       <c r="M73" s="121">
-        <f t="shared" si="34"/>
-        <v>4.4844444444444447</v>
+        <f>(20.18/9)*J73</f>
+        <v>2.2422222222222223</v>
       </c>
       <c r="N73" s="121">
         <v>0</v>
       </c>
       <c r="O73" s="121">
-        <f t="shared" si="33"/>
-        <v>37.484444444444442</v>
+        <f t="shared" ref="O73:O120" si="42">L73+M73+N73</f>
+        <v>47.242222222222225</v>
       </c>
       <c r="P73" s="121">
-        <f t="shared" si="35"/>
-        <v>33.473333333333329</v>
+        <f>O73-((18.05/9)*J73)</f>
+        <v>45.236666666666672</v>
       </c>
       <c r="Q73" s="120"/>
       <c r="R73" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S73" s="123" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="T73" s="124" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="30">
       <c r="A74" s="116" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B74" s="117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="117" t="s">
         <v>313</v>
@@ -9039,39 +9211,42 @@
       <c r="F74" s="118"/>
       <c r="G74" s="118"/>
       <c r="H74" s="119" t="str">
-        <f t="shared" si="30"/>
-        <v>OV5640 Camera Module; from DFH</v>
+        <f t="shared" si="39"/>
+        <v>Nightlight on a stick - LED Strip; from DFH</v>
       </c>
       <c r="I74" s="120" t="s">
         <v>483</v>
       </c>
       <c r="J74" s="117">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="40"/>
+        <v>2</v>
       </c>
       <c r="K74" s="121">
-        <v>32.5</v>
+        <v>17.5</v>
       </c>
       <c r="L74" s="121">
-        <f t="shared" si="32"/>
-        <v>32.5</v>
+        <f t="shared" si="41"/>
+        <v>35</v>
       </c>
       <c r="M74" s="121">
-        <f t="shared" si="34"/>
-        <v>2.2422222222222223</v>
+        <f t="shared" ref="M74:M78" si="43">(20.18/9)*J74</f>
+        <v>4.4844444444444447</v>
       </c>
       <c r="N74" s="121">
         <v>0</v>
       </c>
       <c r="O74" s="121">
-        <f t="shared" si="33"/>
-        <v>34.742222222222225</v>
+        <f t="shared" si="42"/>
+        <v>39.484444444444442</v>
       </c>
       <c r="P74" s="121">
-        <f t="shared" si="35"/>
-        <v>32.736666666666672</v>
-      </c>
-      <c r="Q74" s="120"/>
+        <f t="shared" ref="P74:P78" si="44">O74-((18.05/9)*J74)</f>
+        <v>35.473333333333329</v>
+      </c>
+      <c r="Q74" s="122">
+        <f>-1*P74</f>
+        <v>-35.473333333333329</v>
+      </c>
       <c r="R74" s="117" t="s">
         <v>280</v>
       </c>
@@ -9084,7 +9259,7 @@
     </row>
     <row r="75" spans="1:20" ht="30">
       <c r="A75" s="116" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B75" s="117">
         <v>2</v>
@@ -9093,48 +9268,45 @@
         <v>313</v>
       </c>
       <c r="D75" s="117" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="E75" s="118"/>
       <c r="F75" s="118"/>
       <c r="G75" s="118"/>
       <c r="H75" s="119" t="str">
-        <f t="shared" si="30"/>
-        <v>Seeeduino XIAO; from DFH</v>
+        <f t="shared" si="39"/>
+        <v>Disco stick on black PCB - LED Strip; from DFH</v>
       </c>
       <c r="I75" s="120" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J75" s="117">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="K75" s="121">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="L75" s="121">
-        <f t="shared" si="32"/>
-        <v>20</v>
+        <f t="shared" si="41"/>
+        <v>33</v>
       </c>
       <c r="M75" s="121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>4.4844444444444447</v>
       </c>
       <c r="N75" s="121">
         <v>0</v>
       </c>
       <c r="O75" s="121">
-        <f t="shared" si="33"/>
-        <v>24.484444444444446</v>
+        <f t="shared" si="42"/>
+        <v>37.484444444444442</v>
       </c>
       <c r="P75" s="121">
-        <f t="shared" si="35"/>
-        <v>20.473333333333336</v>
-      </c>
-      <c r="Q75" s="122">
-        <f>-1*(P75/2)</f>
-        <v>-10.236666666666668</v>
-      </c>
+        <f t="shared" si="44"/>
+        <v>33.473333333333329</v>
+      </c>
+      <c r="Q75" s="120"/>
       <c r="R75" s="117" t="s">
         <v>280</v>
       </c>
@@ -9147,7 +9319,7 @@
     </row>
     <row r="76" spans="1:20" ht="30">
       <c r="A76" s="116" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B76" s="117">
         <v>1</v>
@@ -9156,48 +9328,45 @@
         <v>313</v>
       </c>
       <c r="D76" s="117" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="E76" s="118"/>
       <c r="F76" s="118"/>
       <c r="G76" s="118"/>
       <c r="H76" s="119" t="str">
-        <f t="shared" si="30"/>
-        <v>Daylight on a stick on black PCB; from DFH</v>
+        <f t="shared" si="39"/>
+        <v>OV5640 Camera Module; from DFH</v>
       </c>
       <c r="I76" s="120" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J76" s="117">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="K76" s="121">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="L76" s="121">
-        <f t="shared" si="32"/>
-        <v>15</v>
+        <f t="shared" si="41"/>
+        <v>32.5</v>
       </c>
       <c r="M76" s="121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.2422222222222223</v>
       </c>
       <c r="N76" s="121">
         <v>0</v>
       </c>
       <c r="O76" s="121">
-        <f t="shared" si="33"/>
-        <v>17.242222222222221</v>
+        <f t="shared" si="42"/>
+        <v>34.742222222222225</v>
       </c>
       <c r="P76" s="121">
-        <f t="shared" si="35"/>
-        <v>15.236666666666665</v>
-      </c>
-      <c r="Q76" s="122">
-        <f>-1*P76</f>
-        <v>-15.236666666666665</v>
-      </c>
+        <f t="shared" si="44"/>
+        <v>32.736666666666672</v>
+      </c>
+      <c r="Q76" s="120"/>
       <c r="R76" s="117" t="s">
         <v>280</v>
       </c>
@@ -9209,196 +9378,204 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="30">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="116" t="s">
+        <v>482</v>
+      </c>
+      <c r="B77" s="117">
+        <v>2</v>
+      </c>
+      <c r="C77" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" s="117" t="s">
+        <v>383</v>
+      </c>
+      <c r="E77" s="118"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="119" t="str">
+        <f t="shared" si="39"/>
+        <v>Seeeduino XIAO; from DFH</v>
+      </c>
+      <c r="I77" s="120" t="s">
+        <v>487</v>
+      </c>
+      <c r="J77" s="117">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="K77" s="121">
+        <v>10</v>
+      </c>
+      <c r="L77" s="121">
+        <f t="shared" si="41"/>
+        <v>20</v>
+      </c>
+      <c r="M77" s="121">
+        <f t="shared" si="43"/>
+        <v>4.4844444444444447</v>
+      </c>
+      <c r="N77" s="121">
+        <v>0</v>
+      </c>
+      <c r="O77" s="121">
+        <f t="shared" si="42"/>
+        <v>24.484444444444446</v>
+      </c>
+      <c r="P77" s="121">
+        <f t="shared" si="44"/>
+        <v>20.473333333333336</v>
+      </c>
+      <c r="Q77" s="122">
+        <f>-1*(P77/2)</f>
+        <v>-10.236666666666668</v>
+      </c>
+      <c r="R77" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="S77" s="123" t="s">
+        <v>485</v>
+      </c>
+      <c r="T77" s="124" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="30">
+      <c r="A78" s="116" t="s">
+        <v>480</v>
+      </c>
+      <c r="B78" s="117">
+        <v>1</v>
+      </c>
+      <c r="C78" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="D78" s="117" t="s">
+        <v>383</v>
+      </c>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="119" t="str">
+        <f t="shared" si="39"/>
+        <v>Daylight on a stick on black PCB; from DFH</v>
+      </c>
+      <c r="I78" s="120" t="s">
+        <v>486</v>
+      </c>
+      <c r="J78" s="117">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="121">
+        <v>15</v>
+      </c>
+      <c r="L78" s="121">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+      <c r="M78" s="121">
+        <f t="shared" si="43"/>
+        <v>2.2422222222222223</v>
+      </c>
+      <c r="N78" s="121">
+        <v>0</v>
+      </c>
+      <c r="O78" s="121">
+        <f t="shared" si="42"/>
+        <v>17.242222222222221</v>
+      </c>
+      <c r="P78" s="121">
+        <f t="shared" si="44"/>
+        <v>15.236666666666665</v>
+      </c>
+      <c r="Q78" s="122">
+        <f>-1*P78</f>
+        <v>-15.236666666666665</v>
+      </c>
+      <c r="R78" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="S78" s="123" t="s">
+        <v>485</v>
+      </c>
+      <c r="T78" s="124" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="30">
+      <c r="A79" s="65" t="s">
         <v>500</v>
       </c>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="75" t="s">
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="75" t="s">
         <v>499</v>
       </c>
-      <c r="J77" s="63">
-        <f t="shared" ref="J77:J86" si="36">B77</f>
-        <v>0</v>
-      </c>
-      <c r="K77" s="64"/>
-      <c r="L77" s="64">
-        <f t="shared" ref="L77:L80" si="37">J77*K77</f>
-        <v>0</v>
-      </c>
-      <c r="M77" s="64"/>
-      <c r="N77" s="64"/>
-      <c r="O77" s="64">
-        <f t="shared" ref="O77:O86" si="38">L77+M77+N77</f>
-        <v>0</v>
-      </c>
-      <c r="P77" s="64"/>
-      <c r="Q77" s="75"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="97"/>
-      <c r="T77" s="98"/>
-    </row>
-    <row r="78" spans="1:20" ht="30">
-      <c r="A78" s="65" t="s">
+      <c r="J79" s="63">
+        <f t="shared" ref="J79:J88" si="45">B79</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="64"/>
+      <c r="L79" s="64">
+        <f t="shared" ref="L79:L82" si="46">J79*K79</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="64"/>
+      <c r="N79" s="64"/>
+      <c r="O79" s="64">
+        <f t="shared" ref="O79:O88" si="47">L79+M79+N79</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="75"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="97"/>
+      <c r="T79" s="98"/>
+    </row>
+    <row r="80" spans="1:20" ht="30">
+      <c r="A80" s="65" t="s">
         <v>501</v>
       </c>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="75" t="s">
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="75" t="s">
         <v>499</v>
       </c>
-      <c r="J78" s="63">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="64"/>
-      <c r="L78" s="64">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="64"/>
-      <c r="N78" s="64"/>
-      <c r="O78" s="64">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="64"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="97"/>
-      <c r="T78" s="98"/>
-    </row>
-    <row r="79" spans="1:20" ht="30">
-      <c r="A79" s="116" t="s">
-        <v>549</v>
-      </c>
-      <c r="B79" s="117">
-        <v>1</v>
-      </c>
-      <c r="C79" s="117" t="s">
-        <v>313</v>
-      </c>
-      <c r="D79" s="117" t="s">
-        <v>298</v>
-      </c>
-      <c r="E79" s="118"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="119" t="str">
-        <f>A79</f>
-        <v>LDO Nema14 36mm Pancake Stepper Motor LDO-36STH20-1004AHG</v>
-      </c>
-      <c r="I79" s="120" t="s">
-        <v>499</v>
-      </c>
-      <c r="J79" s="117">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="K79" s="121">
-        <v>20.99</v>
-      </c>
-      <c r="L79" s="121">
-        <f t="shared" si="37"/>
-        <v>20.99</v>
-      </c>
-      <c r="M79" s="121">
-        <v>0</v>
-      </c>
-      <c r="N79" s="121">
-        <v>0</v>
-      </c>
-      <c r="O79" s="121">
-        <f t="shared" si="38"/>
-        <v>20.99</v>
-      </c>
-      <c r="P79" s="121">
-        <f>O79</f>
-        <v>20.99</v>
-      </c>
-      <c r="Q79" s="120"/>
-      <c r="R79" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S79" s="123" t="s">
-        <v>553</v>
-      </c>
-      <c r="T79" s="124" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="30">
-      <c r="A80" s="116" t="s">
-        <v>554</v>
-      </c>
-      <c r="B80" s="117">
-        <v>1</v>
-      </c>
-      <c r="C80" s="117" t="s">
-        <v>313</v>
-      </c>
-      <c r="D80" s="117" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="118"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="118"/>
-      <c r="H80" s="119" t="str">
-        <f>A80</f>
-        <v>Hartk Stealthburner Toolhead PCB</v>
-      </c>
-      <c r="I80" s="120" t="s">
-        <v>499</v>
-      </c>
-      <c r="J80" s="117">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="K80" s="121">
-        <v>21.99</v>
-      </c>
-      <c r="L80" s="121">
-        <f t="shared" si="37"/>
-        <v>21.99</v>
-      </c>
-      <c r="M80" s="121">
-        <v>0</v>
-      </c>
-      <c r="N80" s="121">
-        <v>0</v>
-      </c>
-      <c r="O80" s="121">
-        <f t="shared" si="38"/>
-        <v>21.99</v>
-      </c>
-      <c r="P80" s="121">
-        <f>O80</f>
-        <v>21.99</v>
-      </c>
-      <c r="Q80" s="120"/>
-      <c r="R80" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S80" s="123" t="s">
-        <v>553</v>
-      </c>
-      <c r="T80" s="124" t="s">
-        <v>553</v>
-      </c>
+      <c r="J80" s="63">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="64"/>
+      <c r="L80" s="64">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="64"/>
+      <c r="N80" s="64"/>
+      <c r="O80" s="64">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="64"/>
+      <c r="Q80" s="75"/>
+      <c r="R80" s="63"/>
+      <c r="S80" s="97"/>
+      <c r="T80" s="98"/>
     </row>
     <row r="81" spans="1:20" ht="30">
       <c r="A81" s="116" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B81" s="117">
         <v>1</v>
@@ -9413,22 +9590,22 @@
       <c r="F81" s="118"/>
       <c r="G81" s="118"/>
       <c r="H81" s="119" t="str">
-        <f>A81</f>
-        <v>5015 GDSTIME DC 24V 50x50x15 Centrifugal Blower Fan GDB5015Dual Ball Bearing 6000RPM 2.2W .1A XH2.54</v>
+        <f t="shared" ref="H81:H89" si="48">A81</f>
+        <v>LDO Nema14 36mm Pancake Stepper Motor LDO-36STH20-1004AHG</v>
       </c>
       <c r="I81" s="120" t="s">
         <v>499</v>
       </c>
       <c r="J81" s="117">
-        <f t="shared" ref="J81:J83" si="39">B81</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="K81" s="121">
-        <v>8.99</v>
+        <v>20.99</v>
       </c>
       <c r="L81" s="121">
-        <f t="shared" ref="L81:L83" si="40">J81*K81</f>
-        <v>8.99</v>
+        <f t="shared" si="46"/>
+        <v>20.99</v>
       </c>
       <c r="M81" s="121">
         <v>0</v>
@@ -9437,12 +9614,12 @@
         <v>0</v>
       </c>
       <c r="O81" s="121">
-        <f t="shared" ref="O81:O83" si="41">L81+M81+N81</f>
-        <v>8.99</v>
+        <f t="shared" si="47"/>
+        <v>20.99</v>
       </c>
       <c r="P81" s="121">
-        <f>O81</f>
-        <v>8.99</v>
+        <f t="shared" ref="P81:P91" si="49">O81</f>
+        <v>20.99</v>
       </c>
       <c r="Q81" s="120"/>
       <c r="R81" s="117" t="s">
@@ -9455,9 +9632,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" ht="30">
       <c r="A82" s="116" t="s">
-        <v>638</v>
+        <v>554</v>
       </c>
       <c r="B82" s="117">
         <v>1</v>
@@ -9472,52 +9649,51 @@
       <c r="F82" s="118"/>
       <c r="G82" s="118"/>
       <c r="H82" s="119" t="str">
-        <f>A82</f>
-        <v>Voron Stealthburner Fastener and LED Kit</v>
+        <f t="shared" si="48"/>
+        <v>Hartk Stealthburner Toolhead PCB</v>
       </c>
       <c r="I82" s="120" t="s">
-        <v>639</v>
+        <v>499</v>
       </c>
       <c r="J82" s="117">
-        <f>B82</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="K82" s="121">
-        <v>12</v>
+        <v>21.99</v>
       </c>
       <c r="L82" s="121">
-        <f>J82*K82</f>
-        <v>12</v>
+        <f t="shared" si="46"/>
+        <v>21.99</v>
       </c>
       <c r="M82" s="121">
-        <f>13.1/4</f>
-        <v>3.2749999999999999</v>
+        <v>0</v>
       </c>
       <c r="N82" s="121">
         <v>0</v>
       </c>
       <c r="O82" s="121">
-        <f>L82+M82+N82</f>
-        <v>15.275</v>
+        <f t="shared" si="47"/>
+        <v>21.99</v>
       </c>
       <c r="P82" s="121">
-        <f>O82</f>
-        <v>15.275</v>
+        <f t="shared" si="49"/>
+        <v>21.99</v>
       </c>
       <c r="Q82" s="120"/>
       <c r="R82" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S82" s="123" t="s">
-        <v>642</v>
+        <v>553</v>
       </c>
       <c r="T82" s="124" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="30">
       <c r="A83" s="116" t="s">
-        <v>640</v>
+        <v>556</v>
       </c>
       <c r="B83" s="117">
         <v>1</v>
@@ -9532,55 +9708,54 @@
       <c r="F83" s="118"/>
       <c r="G83" s="118"/>
       <c r="H83" s="119" t="str">
-        <f>A83</f>
-        <v xml:space="preserve">Voron 2.4 and Trident Sexbolt Z Endstop Super Kit </v>
+        <f t="shared" si="48"/>
+        <v>5015 GDSTIME DC 24V 50x50x15 Centrifugal Blower Fan GDB5015Dual Ball Bearing 6000RPM 2.2W .1A XH2.54</v>
       </c>
       <c r="I83" s="120" t="s">
-        <v>641</v>
+        <v>499</v>
       </c>
       <c r="J83" s="117">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="J83:J85" si="50">B83</f>
         <v>1</v>
       </c>
       <c r="K83" s="121">
-        <v>15</v>
+        <v>8.99</v>
       </c>
       <c r="L83" s="121">
-        <f t="shared" si="40"/>
-        <v>15</v>
+        <f t="shared" ref="L83:L85" si="51">J83*K83</f>
+        <v>8.99</v>
       </c>
       <c r="M83" s="121">
-        <f>13.1/4</f>
-        <v>3.2749999999999999</v>
+        <v>0</v>
       </c>
       <c r="N83" s="121">
         <v>0</v>
       </c>
       <c r="O83" s="121">
-        <f t="shared" si="41"/>
-        <v>18.274999999999999</v>
+        <f t="shared" ref="O83:O85" si="52">L83+M83+N83</f>
+        <v>8.99</v>
       </c>
       <c r="P83" s="121">
-        <f>O83</f>
-        <v>18.274999999999999</v>
+        <f t="shared" si="49"/>
+        <v>8.99</v>
       </c>
       <c r="Q83" s="120"/>
       <c r="R83" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S83" s="123" t="s">
-        <v>642</v>
+        <v>553</v>
       </c>
       <c r="T83" s="124" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="30">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="116" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B84" s="117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="117" t="s">
         <v>313</v>
@@ -9592,52 +9767,52 @@
       <c r="F84" s="118"/>
       <c r="G84" s="118"/>
       <c r="H84" s="119" t="str">
-        <f>A84</f>
-        <v>Capricornus PTFE Tube 1.9mm Teflonto Bowden Tube - Red</v>
+        <f t="shared" si="48"/>
+        <v>Voron Stealthburner Fastener and LED Kit</v>
       </c>
       <c r="I84" s="120" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="J84" s="117">
         <f>B84</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K84" s="121">
-        <v>4.99</v>
+        <v>12</v>
       </c>
       <c r="L84" s="121">
         <f>J84*K84</f>
-        <v>9.98</v>
+        <v>12</v>
       </c>
       <c r="M84" s="121">
-        <f>6.88*(2/5)</f>
-        <v>2.7520000000000002</v>
+        <f>13.1/4</f>
+        <v>3.2749999999999999</v>
       </c>
       <c r="N84" s="121">
         <v>0</v>
       </c>
       <c r="O84" s="121">
         <f>L84+M84+N84</f>
-        <v>12.732000000000001</v>
+        <v>15.275</v>
       </c>
       <c r="P84" s="121">
-        <f>O84</f>
-        <v>12.732000000000001</v>
+        <f t="shared" si="49"/>
+        <v>15.275</v>
       </c>
       <c r="Q84" s="120"/>
       <c r="R84" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S84" s="123" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="T84" s="124" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="116" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B85" s="117">
         <v>1</v>
@@ -9652,114 +9827,115 @@
       <c r="F85" s="118"/>
       <c r="G85" s="118"/>
       <c r="H85" s="119" t="str">
-        <f>A85</f>
-        <v>5mm x 10m Single Sided Self Adhesive Tape / 3mm thick</v>
+        <f t="shared" si="48"/>
+        <v xml:space="preserve">Voron 2.4 and Trident Sexbolt Z Endstop Super Kit </v>
       </c>
       <c r="I85" s="120" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="J85" s="117">
-        <f>B85</f>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="K85" s="121">
-        <v>5.99</v>
+        <v>15</v>
       </c>
       <c r="L85" s="121">
-        <f>J85*K85</f>
-        <v>5.99</v>
+        <f t="shared" si="51"/>
+        <v>15</v>
       </c>
       <c r="M85" s="121">
-        <f>6.88*(1/5)</f>
-        <v>1.3760000000000001</v>
+        <f>13.1/4</f>
+        <v>3.2749999999999999</v>
       </c>
       <c r="N85" s="121">
         <v>0</v>
       </c>
       <c r="O85" s="121">
-        <f>L85+M85+N85</f>
-        <v>7.3660000000000005</v>
+        <f t="shared" si="52"/>
+        <v>18.274999999999999</v>
       </c>
       <c r="P85" s="121">
-        <f>O85</f>
-        <v>7.3660000000000005</v>
+        <f t="shared" si="49"/>
+        <v>18.274999999999999</v>
       </c>
       <c r="Q85" s="120"/>
       <c r="R85" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S85" s="123" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="T85" s="124" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="30">
       <c r="A86" s="116" t="s">
-        <v>544</v>
+        <v>647</v>
       </c>
       <c r="B86" s="117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" s="117" t="s">
         <v>313</v>
       </c>
       <c r="D86" s="117" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="E86" s="118"/>
       <c r="F86" s="118"/>
       <c r="G86" s="118"/>
       <c r="H86" s="119" t="str">
-        <f>A86</f>
-        <v>MODIFI3D - PRO 3D Print Finishing and Repair Tool</v>
+        <f t="shared" si="48"/>
+        <v>Capricornus PTFE Tube 1.9mm Teflonto Bowden Tube - Red</v>
       </c>
       <c r="I86" s="120" t="s">
-        <v>545</v>
+        <v>648</v>
       </c>
       <c r="J86" s="117">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="K86" s="121"/>
+        <f>B86</f>
+        <v>2</v>
+      </c>
+      <c r="K86" s="121">
+        <v>4.99</v>
+      </c>
       <c r="L86" s="121">
-        <v>89.99</v>
+        <f>J86*K86</f>
+        <v>9.98</v>
       </c>
       <c r="M86" s="121">
-        <v>0</v>
+        <f>6.88*(2/5)</f>
+        <v>2.7520000000000002</v>
       </c>
       <c r="N86" s="121">
         <v>0</v>
       </c>
       <c r="O86" s="121">
-        <f t="shared" si="38"/>
-        <v>89.99</v>
+        <f>L86+M86+N86</f>
+        <v>12.732000000000001</v>
       </c>
       <c r="P86" s="121">
-        <f>O86</f>
-        <v>89.99</v>
-      </c>
-      <c r="Q86" s="122">
-        <f>-1*P86</f>
-        <v>-89.99</v>
-      </c>
+        <f t="shared" si="49"/>
+        <v>12.732000000000001</v>
+      </c>
+      <c r="Q86" s="120"/>
       <c r="R86" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S86" s="123" t="s">
-        <v>546</v>
+        <v>653</v>
       </c>
       <c r="T86" s="124" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="30">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="116" t="s">
-        <v>548</v>
+        <v>649</v>
       </c>
       <c r="B87" s="117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87" s="117" t="s">
         <v>313</v>
@@ -9771,51 +9947,52 @@
       <c r="F87" s="118"/>
       <c r="G87" s="118"/>
       <c r="H87" s="119" t="str">
-        <f>A87</f>
-        <v>SK6812 RGBW 5v LED (Similar to NeoPixel)</v>
+        <f t="shared" si="48"/>
+        <v>5mm x 10m Single Sided Self Adhesive Tape / 3mm thick</v>
       </c>
       <c r="I87" s="120" t="s">
-        <v>499</v>
+        <v>650</v>
       </c>
       <c r="J87" s="117">
         <f>B87</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K87" s="121">
-        <v>1.29</v>
+        <v>5.99</v>
       </c>
       <c r="L87" s="121">
-        <f t="shared" si="32"/>
-        <v>5.16</v>
+        <f>J87*K87</f>
+        <v>5.99</v>
       </c>
       <c r="M87" s="121">
-        <v>0</v>
+        <f>6.88*(1/5)</f>
+        <v>1.3760000000000001</v>
       </c>
       <c r="N87" s="121">
         <v>0</v>
       </c>
       <c r="O87" s="121">
-        <f t="shared" si="33"/>
-        <v>5.16</v>
+        <f>L87+M87+N87</f>
+        <v>7.3660000000000005</v>
       </c>
       <c r="P87" s="121">
-        <f>O87</f>
-        <v>5.16</v>
-      </c>
-      <c r="Q87" s="122"/>
+        <f t="shared" si="49"/>
+        <v>7.3660000000000005</v>
+      </c>
+      <c r="Q87" s="120"/>
       <c r="R87" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S87" s="123" t="s">
-        <v>558</v>
+        <v>652</v>
       </c>
       <c r="T87" s="124" t="s">
-        <v>552</v>
+        <v>652</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="30">
-      <c r="A88" s="152" t="s">
-        <v>617</v>
+      <c r="A88" s="116" t="s">
+        <v>544</v>
       </c>
       <c r="B88" s="117">
         <v>1</v>
@@ -9824,61 +10001,60 @@
         <v>313</v>
       </c>
       <c r="D88" s="117" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
       <c r="E88" s="118"/>
       <c r="F88" s="118"/>
       <c r="G88" s="118"/>
       <c r="H88" s="119" t="str">
-        <f t="shared" ref="H88:H92" si="42">A88</f>
-        <v>LBY 100pcs Binding Screw kit,M5 x 10/20/30/40/50; Nickel Plated (Black)</v>
+        <f t="shared" si="48"/>
+        <v>MODIFI3D - PRO 3D Print Finishing and Repair Tool</v>
       </c>
       <c r="I88" s="120" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
       <c r="J88" s="117">
-        <f>B88</f>
-        <v>1</v>
-      </c>
-      <c r="K88" s="121">
-        <v>9.19</v>
-      </c>
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="K88" s="121"/>
       <c r="L88" s="121">
-        <f t="shared" si="32"/>
-        <v>9.19</v>
+        <v>89.99</v>
       </c>
       <c r="M88" s="121">
         <v>0</v>
       </c>
       <c r="N88" s="121">
-        <f>1.3/2</f>
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="O88" s="121">
-        <f t="shared" si="33"/>
-        <v>9.84</v>
+        <f t="shared" si="47"/>
+        <v>89.99</v>
       </c>
       <c r="P88" s="121">
-        <f>O88</f>
-        <v>9.84</v>
-      </c>
-      <c r="Q88" s="120"/>
+        <f t="shared" si="49"/>
+        <v>89.99</v>
+      </c>
+      <c r="Q88" s="122">
+        <f>-1*P88</f>
+        <v>-89.99</v>
+      </c>
       <c r="R88" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S88" s="123" t="s">
-        <v>622</v>
+        <v>546</v>
       </c>
       <c r="T88" s="124" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="152" t="s">
-        <v>616</v>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="30">
+      <c r="A89" s="116" t="s">
+        <v>548</v>
       </c>
       <c r="B89" s="117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89" s="117" t="s">
         <v>313</v>
@@ -9890,55 +10066,54 @@
       <c r="F89" s="118"/>
       <c r="G89" s="118"/>
       <c r="H89" s="119" t="str">
+        <f t="shared" si="48"/>
+        <v>SK6812 RGBW 5v LED (Similar to NeoPixel)</v>
+      </c>
+      <c r="I89" s="120" t="s">
+        <v>499</v>
+      </c>
+      <c r="J89" s="117">
+        <f>B89</f>
+        <v>4</v>
+      </c>
+      <c r="K89" s="121">
+        <v>1.29</v>
+      </c>
+      <c r="L89" s="121">
+        <f t="shared" si="41"/>
+        <v>5.16</v>
+      </c>
+      <c r="M89" s="121">
+        <v>0</v>
+      </c>
+      <c r="N89" s="121">
+        <v>0</v>
+      </c>
+      <c r="O89" s="121">
         <f t="shared" si="42"/>
-        <v>uxcell 10pcs Sleeve Bearing 5x7x8mm</v>
-      </c>
-      <c r="I89" s="120" t="s">
-        <v>611</v>
-      </c>
-      <c r="J89" s="117">
-        <f t="shared" ref="J89:J115" si="43">B89</f>
-        <v>1</v>
-      </c>
-      <c r="K89" s="121">
-        <v>6.99</v>
-      </c>
-      <c r="L89" s="121">
-        <f t="shared" ref="L89:L115" si="44">J89*K89</f>
-        <v>6.99</v>
-      </c>
-      <c r="M89" s="121">
-        <v>0</v>
-      </c>
-      <c r="N89" s="121">
-        <f>1.3/2</f>
-        <v>0.65</v>
-      </c>
-      <c r="O89" s="121">
-        <f t="shared" ref="O89:O115" si="45">L89+M89+N89</f>
-        <v>7.6400000000000006</v>
+        <v>5.16</v>
       </c>
       <c r="P89" s="121">
-        <f>O89</f>
-        <v>7.6400000000000006</v>
-      </c>
-      <c r="Q89" s="120"/>
+        <f t="shared" si="49"/>
+        <v>5.16</v>
+      </c>
+      <c r="Q89" s="122"/>
       <c r="R89" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S89" s="123" t="s">
-        <v>619</v>
+        <v>558</v>
       </c>
       <c r="T89" s="124" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="30">
-      <c r="A90" s="152" t="s">
-        <v>559</v>
+      <c r="A90" s="137" t="s">
+        <v>617</v>
       </c>
       <c r="B90" s="117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="117" t="s">
         <v>313</v>
@@ -9950,52 +10125,52 @@
       <c r="F90" s="118"/>
       <c r="G90" s="118"/>
       <c r="H90" s="119" t="str">
-        <f t="shared" si="42"/>
-        <v>5015 24v Dual Ball Blower</v>
+        <f t="shared" ref="H90:H94" si="53">A90</f>
+        <v>LBY 100pcs Binding Screw kit,M5 x 10/20/30/40/50; Nickel Plated (Black)</v>
       </c>
       <c r="I90" s="120" t="s">
         <v>611</v>
       </c>
       <c r="J90" s="117">
-        <f t="shared" si="43"/>
-        <v>2</v>
+        <f>B90</f>
+        <v>1</v>
       </c>
       <c r="K90" s="121">
-        <v>8</v>
+        <v>9.19</v>
       </c>
       <c r="L90" s="121">
-        <f t="shared" si="44"/>
-        <v>16</v>
+        <f t="shared" si="41"/>
+        <v>9.19</v>
       </c>
       <c r="M90" s="121">
-        <f>14.76/3</f>
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="N90" s="121">
-        <v>0</v>
+        <f>1.3/2</f>
+        <v>0.65</v>
       </c>
       <c r="O90" s="121">
-        <f t="shared" si="45"/>
-        <v>20.92</v>
+        <f t="shared" si="42"/>
+        <v>9.84</v>
       </c>
       <c r="P90" s="121">
-        <f t="shared" ref="P90:P92" si="46">O90</f>
-        <v>20.92</v>
+        <f t="shared" si="49"/>
+        <v>9.84</v>
       </c>
       <c r="Q90" s="120"/>
       <c r="R90" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S90" s="123" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="T90" s="124" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="91" spans="1:20">
-      <c r="A91" s="152" t="s">
-        <v>563</v>
+      <c r="A91" s="137" t="s">
+        <v>616</v>
       </c>
       <c r="B91" s="117">
         <v>1</v>
@@ -10010,568 +10185,651 @@
       <c r="F91" s="118"/>
       <c r="G91" s="118"/>
       <c r="H91" s="119" t="str">
-        <f t="shared" si="42"/>
-        <v>Nevermore Printer Carbon</v>
+        <f t="shared" si="53"/>
+        <v>uxcell 10pcs Sleeve Bearing 5x7x8mm</v>
       </c>
       <c r="I91" s="120" t="s">
         <v>611</v>
       </c>
       <c r="J91" s="117">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="J91:J117" si="54">B91</f>
         <v>1</v>
       </c>
       <c r="K91" s="121">
-        <v>13.5</v>
+        <v>6.99</v>
       </c>
       <c r="L91" s="121">
-        <f t="shared" si="44"/>
-        <v>13.5</v>
+        <f t="shared" ref="L91:L117" si="55">J91*K91</f>
+        <v>6.99</v>
       </c>
       <c r="M91" s="121">
-        <f t="shared" ref="M91:M92" si="47">14.76/3</f>
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="N91" s="121">
-        <v>0</v>
+        <f>1.3/2</f>
+        <v>0.65</v>
       </c>
       <c r="O91" s="121">
-        <f t="shared" si="45"/>
-        <v>18.420000000000002</v>
+        <f t="shared" ref="O91:O117" si="56">L91+M91+N91</f>
+        <v>7.6400000000000006</v>
       </c>
       <c r="P91" s="121">
-        <f t="shared" si="46"/>
-        <v>18.420000000000002</v>
+        <f t="shared" si="49"/>
+        <v>7.6400000000000006</v>
       </c>
       <c r="Q91" s="120"/>
       <c r="R91" s="117" t="s">
         <v>280</v>
       </c>
       <c r="S91" s="123" t="s">
+        <v>619</v>
+      </c>
+      <c r="T91" s="124" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="30">
+      <c r="A92" s="154" t="s">
+        <v>559</v>
+      </c>
+      <c r="B92" s="106">
+        <v>2</v>
+      </c>
+      <c r="C92" s="106" t="s">
+        <v>313</v>
+      </c>
+      <c r="D92" s="106" t="s">
+        <v>298</v>
+      </c>
+      <c r="E92" s="111"/>
+      <c r="F92" s="111"/>
+      <c r="G92" s="111"/>
+      <c r="H92" s="112" t="str">
+        <f t="shared" si="53"/>
+        <v>5015 24v Dual Ball Blower</v>
+      </c>
+      <c r="I92" s="105" t="s">
+        <v>611</v>
+      </c>
+      <c r="J92" s="106">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="K92" s="107">
+        <v>8</v>
+      </c>
+      <c r="L92" s="107">
+        <f t="shared" si="55"/>
+        <v>16</v>
+      </c>
+      <c r="M92" s="107">
+        <f>14.76/3</f>
+        <v>4.92</v>
+      </c>
+      <c r="N92" s="107">
+        <v>0</v>
+      </c>
+      <c r="O92" s="107">
+        <f t="shared" si="56"/>
+        <v>20.92</v>
+      </c>
+      <c r="P92" s="107">
+        <f t="shared" ref="P92:P94" si="57">O92</f>
+        <v>20.92</v>
+      </c>
+      <c r="Q92" s="105"/>
+      <c r="R92" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S92" s="108" t="s">
+        <v>625</v>
+      </c>
+      <c r="T92" s="109" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="154" t="s">
+        <v>563</v>
+      </c>
+      <c r="B93" s="106">
+        <v>1</v>
+      </c>
+      <c r="C93" s="106" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" s="106" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" s="111"/>
+      <c r="F93" s="111"/>
+      <c r="G93" s="111"/>
+      <c r="H93" s="112" t="str">
+        <f t="shared" si="53"/>
+        <v>Nevermore Printer Carbon</v>
+      </c>
+      <c r="I93" s="105" t="s">
+        <v>611</v>
+      </c>
+      <c r="J93" s="106">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="107">
+        <v>13.5</v>
+      </c>
+      <c r="L93" s="107">
+        <f t="shared" si="55"/>
+        <v>13.5</v>
+      </c>
+      <c r="M93" s="107">
+        <f t="shared" ref="M93:M94" si="58">14.76/3</f>
+        <v>4.92</v>
+      </c>
+      <c r="N93" s="107">
+        <v>0</v>
+      </c>
+      <c r="O93" s="107">
+        <f t="shared" si="56"/>
+        <v>18.420000000000002</v>
+      </c>
+      <c r="P93" s="107">
+        <f t="shared" si="57"/>
+        <v>18.420000000000002</v>
+      </c>
+      <c r="Q93" s="105"/>
+      <c r="R93" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S93" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="T91" s="124" t="s">
+      <c r="T93" s="109" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="152" t="s">
+    <row r="94" spans="1:20">
+      <c r="A94" s="154" t="s">
         <v>564</v>
       </c>
-      <c r="B92" s="117">
-        <v>1</v>
-      </c>
-      <c r="C92" s="117" t="s">
+      <c r="B94" s="106">
+        <v>1</v>
+      </c>
+      <c r="C94" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D92" s="117" t="s">
+      <c r="D94" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E92" s="118"/>
-      <c r="F92" s="118"/>
-      <c r="G92" s="118"/>
-      <c r="H92" s="119" t="str">
-        <f t="shared" si="42"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="111"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="112" t="str">
+        <f t="shared" si="53"/>
         <v>Neodymium Magnet 6x3 Round - 10 Pack</v>
       </c>
-      <c r="I92" s="120" t="s">
+      <c r="I94" s="105" t="s">
         <v>611</v>
       </c>
-      <c r="J92" s="117">
-        <f t="shared" si="43"/>
-        <v>1</v>
-      </c>
-      <c r="K92" s="121">
+      <c r="J94" s="106">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="107">
         <v>1.69</v>
       </c>
-      <c r="L92" s="121">
-        <f>J92*K92</f>
+      <c r="L94" s="107">
+        <f>J94*K94</f>
         <v>1.69</v>
       </c>
-      <c r="M92" s="121">
-        <f t="shared" si="47"/>
+      <c r="M94" s="107">
+        <f t="shared" si="58"/>
         <v>4.92</v>
       </c>
-      <c r="N92" s="121">
-        <v>0</v>
-      </c>
-      <c r="O92" s="121">
-        <f>L92+M92+N92</f>
+      <c r="N94" s="107">
+        <v>0</v>
+      </c>
+      <c r="O94" s="107">
+        <f>L94+M94+N94</f>
         <v>6.6099999999999994</v>
       </c>
-      <c r="P92" s="121">
-        <f t="shared" si="46"/>
+      <c r="P94" s="107">
+        <f t="shared" si="57"/>
         <v>6.6099999999999994</v>
       </c>
-      <c r="Q92" s="120"/>
-      <c r="R92" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S92" s="123" t="s">
+      <c r="Q94" s="105"/>
+      <c r="R94" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S94" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="T92" s="124" t="s">
+      <c r="T94" s="109" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="30">
-      <c r="A93" s="152" t="s">
+    <row r="95" spans="1:20" ht="30">
+      <c r="A95" s="154" t="s">
         <v>607</v>
       </c>
-      <c r="B93" s="117">
+      <c r="B95" s="106">
         <v>8</v>
       </c>
-      <c r="C93" s="117" t="s">
+      <c r="C95" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D93" s="117" t="s">
+      <c r="D95" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E93" s="118"/>
-      <c r="F93" s="118"/>
-      <c r="G93" s="118"/>
-      <c r="H93" s="119" t="str">
-        <f>A93</f>
+      <c r="E95" s="111"/>
+      <c r="F95" s="111"/>
+      <c r="G95" s="111"/>
+      <c r="H95" s="112" t="str">
+        <f>A95</f>
         <v>M3x12 SHCS; Class 12.9 alloy steel black oxide finish</v>
       </c>
-      <c r="I93" s="120" t="s">
+      <c r="I95" s="105" t="s">
         <v>611</v>
       </c>
-      <c r="J93" s="117">
-        <f t="shared" si="43"/>
+      <c r="J95" s="106">
+        <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="K93" s="153">
+      <c r="K95" s="155">
         <v>0.12</v>
       </c>
-      <c r="L93" s="121">
-        <f t="shared" ref="L93:L96" si="48">J93*K93</f>
+      <c r="L95" s="107">
+        <f t="shared" ref="L95:L98" si="59">J95*K95</f>
         <v>0.96</v>
       </c>
-      <c r="M93" s="121">
+      <c r="M95" s="107">
         <f>4.95/4</f>
         <v>1.2375</v>
       </c>
-      <c r="N93" s="121">
+      <c r="N95" s="107">
         <f>0.82/4</f>
         <v>0.20499999999999999</v>
       </c>
-      <c r="O93" s="121">
-        <f>L93+M93+N93</f>
+      <c r="O95" s="107">
+        <f>L95+M95+N95</f>
         <v>2.4024999999999999</v>
       </c>
-      <c r="P93" s="121">
-        <f>O93</f>
+      <c r="P95" s="107">
+        <f>O95</f>
         <v>2.4024999999999999</v>
       </c>
-      <c r="Q93" s="120"/>
-      <c r="R93" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S93" s="123" t="s">
+      <c r="Q95" s="105"/>
+      <c r="R95" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S95" s="108" t="s">
         <v>612</v>
       </c>
-      <c r="T93" s="124" t="s">
+      <c r="T95" s="109" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="152" t="s">
+    <row r="96" spans="1:20">
+      <c r="A96" s="154" t="s">
         <v>606</v>
       </c>
-      <c r="B94" s="117">
+      <c r="B96" s="106">
         <v>8</v>
       </c>
-      <c r="C94" s="117" t="s">
+      <c r="C96" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D94" s="117" t="s">
+      <c r="D96" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E94" s="118"/>
-      <c r="F94" s="118"/>
-      <c r="G94" s="118"/>
-      <c r="H94" s="119" t="str">
-        <f t="shared" ref="H94:H96" si="49">A94</f>
+      <c r="E96" s="111"/>
+      <c r="F96" s="111"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="112" t="str">
+        <f t="shared" ref="H96:H98" si="60">A96</f>
         <v>M5x8 SHCS; Class 12.9 alloy steel black oxide finish</v>
       </c>
-      <c r="I94" s="120" t="s">
+      <c r="I96" s="105" t="s">
         <v>611</v>
       </c>
-      <c r="J94" s="117">
-        <f t="shared" si="43"/>
+      <c r="J96" s="106">
+        <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="K94" s="153">
+      <c r="K96" s="155">
         <v>0.11</v>
       </c>
-      <c r="L94" s="121">
-        <f t="shared" si="48"/>
+      <c r="L96" s="107">
+        <f t="shared" si="59"/>
         <v>0.88</v>
       </c>
-      <c r="M94" s="121">
-        <f t="shared" ref="M94:M96" si="50">4.95/4</f>
+      <c r="M96" s="107">
+        <f t="shared" ref="M96:M98" si="61">4.95/4</f>
         <v>1.2375</v>
       </c>
-      <c r="N94" s="121">
-        <f t="shared" ref="N94:N96" si="51">0.82/4</f>
+      <c r="N96" s="107">
+        <f t="shared" ref="N96:N98" si="62">0.82/4</f>
         <v>0.20499999999999999</v>
       </c>
-      <c r="O94" s="121">
-        <f>L94+M94+N94</f>
+      <c r="O96" s="107">
+        <f>L96+M96+N96</f>
         <v>2.3225000000000002</v>
       </c>
-      <c r="P94" s="121">
-        <f t="shared" ref="P94:P96" si="52">O94</f>
+      <c r="P96" s="107">
+        <f t="shared" ref="P96:P98" si="63">O96</f>
         <v>2.3225000000000002</v>
       </c>
-      <c r="Q94" s="120"/>
-      <c r="R94" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S94" s="123" t="s">
+      <c r="Q96" s="105"/>
+      <c r="R96" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S96" s="108" t="s">
         <v>614</v>
       </c>
-      <c r="T94" s="124" t="s">
+      <c r="T96" s="109" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
-      <c r="A95" s="152" t="s">
+    <row r="97" spans="1:20">
+      <c r="A97" s="154" t="s">
         <v>608</v>
       </c>
-      <c r="B95" s="117">
+      <c r="B97" s="106">
         <v>12</v>
       </c>
-      <c r="C95" s="117" t="s">
+      <c r="C97" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D95" s="117" t="s">
+      <c r="D97" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E95" s="118"/>
-      <c r="F95" s="118"/>
-      <c r="G95" s="118"/>
-      <c r="H95" s="119" t="str">
-        <f t="shared" si="49"/>
+      <c r="E97" s="111"/>
+      <c r="F97" s="111"/>
+      <c r="G97" s="111"/>
+      <c r="H97" s="112" t="str">
+        <f t="shared" si="60"/>
         <v>M3x30 SHCS; Class 12.9 alloy steel black oxide finish</v>
       </c>
-      <c r="I95" s="120" t="s">
+      <c r="I97" s="105" t="s">
         <v>611</v>
       </c>
-      <c r="J95" s="117">
-        <f t="shared" si="43"/>
+      <c r="J97" s="106">
+        <f t="shared" si="54"/>
         <v>12</v>
       </c>
-      <c r="K95" s="153">
+      <c r="K97" s="155">
         <v>0.2</v>
       </c>
-      <c r="L95" s="121">
-        <f t="shared" si="48"/>
+      <c r="L97" s="107">
+        <f t="shared" si="59"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="M95" s="121">
-        <f t="shared" si="50"/>
+      <c r="M97" s="107">
+        <f t="shared" si="61"/>
         <v>1.2375</v>
       </c>
-      <c r="N95" s="121">
-        <f t="shared" si="51"/>
+      <c r="N97" s="107">
+        <f t="shared" si="62"/>
         <v>0.20499999999999999</v>
       </c>
-      <c r="O95" s="121">
-        <f>L95+M95+N95</f>
+      <c r="O97" s="107">
+        <f>L97+M97+N97</f>
         <v>3.8425000000000002</v>
       </c>
-      <c r="P95" s="121">
-        <f t="shared" si="52"/>
+      <c r="P97" s="107">
+        <f t="shared" si="63"/>
         <v>3.8425000000000002</v>
       </c>
-      <c r="Q95" s="120"/>
-      <c r="R95" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S95" s="123" t="s">
+      <c r="Q97" s="105"/>
+      <c r="R97" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S97" s="108" t="s">
         <v>614</v>
       </c>
-      <c r="T95" s="124" t="s">
+      <c r="T97" s="109" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="30">
-      <c r="A96" s="152" t="s">
+    <row r="98" spans="1:20" ht="30">
+      <c r="A98" s="154" t="s">
         <v>609</v>
       </c>
-      <c r="B96" s="117">
+      <c r="B98" s="106">
         <v>8</v>
       </c>
-      <c r="C96" s="117" t="s">
+      <c r="C98" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D96" s="117" t="s">
+      <c r="D98" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="E96" s="118"/>
-      <c r="F96" s="118"/>
-      <c r="G96" s="118"/>
-      <c r="H96" s="119" t="str">
-        <f t="shared" si="49"/>
+      <c r="E98" s="111"/>
+      <c r="F98" s="111"/>
+      <c r="G98" s="111"/>
+      <c r="H98" s="112" t="str">
+        <f t="shared" si="60"/>
         <v>M3x30 SHCS; Stainless steel 18-8 (A-2)</v>
       </c>
-      <c r="I96" s="120" t="s">
+      <c r="I98" s="105" t="s">
         <v>610</v>
       </c>
-      <c r="J96" s="117">
-        <f t="shared" si="43"/>
+      <c r="J98" s="106">
+        <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="K96" s="153">
+      <c r="K98" s="155">
         <v>0.13</v>
       </c>
-      <c r="L96" s="121">
-        <f t="shared" si="48"/>
+      <c r="L98" s="107">
+        <f t="shared" si="59"/>
         <v>1.04</v>
       </c>
-      <c r="M96" s="121">
-        <f t="shared" si="50"/>
+      <c r="M98" s="107">
+        <f t="shared" si="61"/>
         <v>1.2375</v>
       </c>
-      <c r="N96" s="121">
-        <f t="shared" si="51"/>
+      <c r="N98" s="107">
+        <f t="shared" si="62"/>
         <v>0.20499999999999999</v>
       </c>
-      <c r="O96" s="121">
-        <f t="shared" si="45"/>
+      <c r="O98" s="107">
+        <f t="shared" si="56"/>
         <v>2.4824999999999999</v>
       </c>
-      <c r="P96" s="121">
-        <f t="shared" si="52"/>
+      <c r="P98" s="107">
+        <f t="shared" si="63"/>
         <v>2.4824999999999999</v>
       </c>
-      <c r="Q96" s="122">
-        <f>-1*P96</f>
+      <c r="Q98" s="114">
+        <f>-1*P98</f>
         <v>-2.4824999999999999</v>
       </c>
-      <c r="R96" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S96" s="123" t="s">
+      <c r="R98" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S98" s="108" t="s">
         <v>614</v>
       </c>
-      <c r="T96" s="124" t="s">
+      <c r="T98" s="109" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="30">
-      <c r="A97" s="61" t="s">
+    <row r="99" spans="1:20" ht="30">
+      <c r="A99" s="101" t="s">
         <v>654</v>
       </c>
-      <c r="B97" s="63">
-        <v>1</v>
-      </c>
-      <c r="C97" s="63" t="s">
+      <c r="B99" s="106">
+        <v>1</v>
+      </c>
+      <c r="C99" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D97" s="63" t="s">
+      <c r="D99" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="67" t="str">
-        <f>A97</f>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="112" t="str">
+        <f>A99</f>
         <v>Clockwise Tools DITR-0105 Digital Dial Indicator Gauge; 0.00005 Inch/0.001mm Resolution</v>
       </c>
-      <c r="I97" s="75" t="s">
+      <c r="I99" s="105" t="s">
         <v>655</v>
       </c>
-      <c r="J97" s="63">
-        <f>B97</f>
-        <v>1</v>
-      </c>
-      <c r="K97" s="64">
+      <c r="J99" s="106">
+        <f t="shared" ref="J99:J112" si="64">B99</f>
+        <v>1</v>
+      </c>
+      <c r="K99" s="107">
         <v>63.84</v>
       </c>
-      <c r="L97" s="64">
-        <f>J97*K97</f>
+      <c r="L99" s="107">
+        <f t="shared" ref="L99:L112" si="65">J99*K99</f>
         <v>63.84</v>
       </c>
-      <c r="M97" s="64">
-        <v>0</v>
-      </c>
-      <c r="N97" s="64">
+      <c r="M99" s="107">
+        <v>0</v>
+      </c>
+      <c r="N99" s="107">
         <f>5.91/2</f>
         <v>2.9550000000000001</v>
       </c>
-      <c r="O97" s="64">
-        <f>L97+M97+N97</f>
+      <c r="O99" s="107">
+        <f t="shared" ref="O99:O112" si="66">L99+M99+N99</f>
         <v>66.795000000000002</v>
       </c>
-      <c r="P97" s="64">
-        <f>O97</f>
+      <c r="P99" s="107">
+        <f>O99</f>
         <v>66.795000000000002</v>
       </c>
-      <c r="Q97" s="75"/>
-      <c r="R97" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="S97" s="97" t="s">
+      <c r="Q99" s="105"/>
+      <c r="R99" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S99" s="108" t="s">
         <v>657</v>
       </c>
-      <c r="T97" s="98" t="s">
+      <c r="T99" s="109" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
-      <c r="A98" s="61" t="s">
+    <row r="100" spans="1:20">
+      <c r="A100" s="101" t="s">
         <v>656</v>
       </c>
-      <c r="B98" s="63">
-        <v>1</v>
-      </c>
-      <c r="C98" s="63" t="s">
+      <c r="B100" s="106">
+        <v>1</v>
+      </c>
+      <c r="C100" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D98" s="63" t="s">
+      <c r="D100" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="67" t="str">
-        <f>A98</f>
+      <c r="E100" s="111"/>
+      <c r="F100" s="111"/>
+      <c r="G100" s="111"/>
+      <c r="H100" s="112" t="str">
+        <f>A100</f>
         <v>TÜRLEN Premium 22 pc Dial/Digital Indicator End Tip Point Set</v>
       </c>
-      <c r="I98" s="75" t="s">
+      <c r="I100" s="105" t="s">
         <v>655</v>
       </c>
-      <c r="J98" s="63">
-        <f>B98</f>
-        <v>1</v>
-      </c>
-      <c r="K98" s="64">
+      <c r="J100" s="106">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K100" s="107">
         <v>9.99</v>
       </c>
-      <c r="L98" s="64">
-        <f>J98*K98</f>
+      <c r="L100" s="107">
+        <f t="shared" si="65"/>
         <v>9.99</v>
       </c>
-      <c r="M98" s="64">
-        <v>0</v>
-      </c>
-      <c r="N98" s="64">
+      <c r="M100" s="107">
+        <v>0</v>
+      </c>
+      <c r="N100" s="107">
         <f>5.91/2</f>
         <v>2.9550000000000001</v>
       </c>
-      <c r="O98" s="64">
-        <f>L98+M98+N98</f>
+      <c r="O100" s="107">
+        <f t="shared" si="66"/>
         <v>12.945</v>
       </c>
-      <c r="P98" s="64">
-        <f>O98</f>
+      <c r="P100" s="107">
+        <f>O100</f>
         <v>12.945</v>
       </c>
-      <c r="Q98" s="75"/>
-      <c r="R98" s="63" t="s">
+      <c r="Q100" s="105"/>
+      <c r="R100" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S100" s="108" t="s">
+        <v>659</v>
+      </c>
+      <c r="T100" s="109" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="30">
+      <c r="A101" s="116" t="s">
+        <v>663</v>
+      </c>
+      <c r="B101" s="117">
+        <v>1</v>
+      </c>
+      <c r="C101" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="D101" s="117" t="s">
+        <v>298</v>
+      </c>
+      <c r="E101" s="118"/>
+      <c r="F101" s="118"/>
+      <c r="G101" s="118"/>
+      <c r="H101" s="119"/>
+      <c r="I101" s="120" t="s">
+        <v>662</v>
+      </c>
+      <c r="J101" s="117">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K101" s="121">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="L101" s="121">
+        <f t="shared" si="65"/>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="M101" s="121">
+        <v>0</v>
+      </c>
+      <c r="N101" s="121">
+        <v>1.33</v>
+      </c>
+      <c r="O101" s="121">
+        <f t="shared" si="66"/>
+        <v>19.340000000000003</v>
+      </c>
+      <c r="P101" s="121">
+        <f>O101</f>
+        <v>19.340000000000003</v>
+      </c>
+      <c r="Q101" s="120"/>
+      <c r="R101" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="S98" s="97" t="s">
-        <v>659</v>
-      </c>
-      <c r="T98" s="98" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
-      <c r="A99" s="65"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="63">
-        <f>B99</f>
-        <v>0</v>
-      </c>
-      <c r="K99" s="64"/>
-      <c r="L99" s="64">
-        <f>J99*K99</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="64"/>
-      <c r="N99" s="64"/>
-      <c r="O99" s="64">
-        <f>L99+M99+N99</f>
-        <v>0</v>
-      </c>
-      <c r="P99" s="64"/>
-      <c r="Q99" s="75"/>
-      <c r="R99" s="63"/>
-      <c r="S99" s="97"/>
-      <c r="T99" s="98"/>
-    </row>
-    <row r="100" spans="1:20">
-      <c r="A100" s="65"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="75"/>
-      <c r="J100" s="63">
-        <f>B100</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="64"/>
-      <c r="L100" s="64">
-        <f>J100*K100</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="64"/>
-      <c r="N100" s="64"/>
-      <c r="O100" s="64">
-        <f>L100+M100+N100</f>
-        <v>0</v>
-      </c>
-      <c r="P100" s="64"/>
-      <c r="Q100" s="75"/>
-      <c r="R100" s="63"/>
-      <c r="S100" s="97"/>
-      <c r="T100" s="98"/>
-    </row>
-    <row r="101" spans="1:20">
-      <c r="A101" s="65"/>
-      <c r="B101" s="63"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="75"/>
-      <c r="J101" s="63">
-        <f>B101</f>
-        <v>0</v>
-      </c>
-      <c r="K101" s="64"/>
-      <c r="L101" s="64">
-        <f>J101*K101</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="64"/>
-      <c r="N101" s="64"/>
-      <c r="O101" s="64">
-        <f>L101+M101+N101</f>
-        <v>0</v>
-      </c>
-      <c r="P101" s="64"/>
-      <c r="Q101" s="75"/>
-      <c r="R101" s="63"/>
-      <c r="S101" s="97"/>
-      <c r="T101" s="98"/>
+      <c r="S101" s="123" t="s">
+        <v>660</v>
+      </c>
+      <c r="T101" s="124" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="65"/>
@@ -10584,18 +10842,18 @@
       <c r="H102" s="67"/>
       <c r="I102" s="75"/>
       <c r="J102" s="63">
-        <f>B102</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K102" s="64"/>
       <c r="L102" s="64">
-        <f>J102*K102</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M102" s="64"/>
       <c r="N102" s="64"/>
       <c r="O102" s="64">
-        <f>L102+M102+N102</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P102" s="64"/>
@@ -10615,18 +10873,18 @@
       <c r="H103" s="67"/>
       <c r="I103" s="75"/>
       <c r="J103" s="63">
-        <f>B103</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K103" s="64"/>
       <c r="L103" s="64">
-        <f>J103*K103</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M103" s="64"/>
       <c r="N103" s="64"/>
       <c r="O103" s="64">
-        <f>L103+M103+N103</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P103" s="64"/>
@@ -10646,18 +10904,18 @@
       <c r="H104" s="67"/>
       <c r="I104" s="75"/>
       <c r="J104" s="63">
-        <f>B104</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K104" s="64"/>
       <c r="L104" s="64">
-        <f>J104*K104</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M104" s="64"/>
       <c r="N104" s="64"/>
       <c r="O104" s="64">
-        <f>L104+M104+N104</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P104" s="64"/>
@@ -10677,18 +10935,18 @@
       <c r="H105" s="67"/>
       <c r="I105" s="75"/>
       <c r="J105" s="63">
-        <f>B105</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K105" s="64"/>
       <c r="L105" s="64">
-        <f>J105*K105</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M105" s="64"/>
       <c r="N105" s="64"/>
       <c r="O105" s="64">
-        <f>L105+M105+N105</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P105" s="64"/>
@@ -10708,18 +10966,18 @@
       <c r="H106" s="67"/>
       <c r="I106" s="75"/>
       <c r="J106" s="63">
-        <f>B106</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K106" s="64"/>
       <c r="L106" s="64">
-        <f>J106*K106</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M106" s="64"/>
       <c r="N106" s="64"/>
       <c r="O106" s="64">
-        <f>L106+M106+N106</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P106" s="64"/>
@@ -10739,18 +10997,18 @@
       <c r="H107" s="67"/>
       <c r="I107" s="75"/>
       <c r="J107" s="63">
-        <f>B107</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K107" s="64"/>
       <c r="L107" s="64">
-        <f>J107*K107</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M107" s="64"/>
       <c r="N107" s="64"/>
       <c r="O107" s="64">
-        <f>L107+M107+N107</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P107" s="64"/>
@@ -10770,18 +11028,18 @@
       <c r="H108" s="67"/>
       <c r="I108" s="75"/>
       <c r="J108" s="63">
-        <f>B108</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K108" s="64"/>
       <c r="L108" s="64">
-        <f>J108*K108</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M108" s="64"/>
       <c r="N108" s="64"/>
       <c r="O108" s="64">
-        <f>L108+M108+N108</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P108" s="64"/>
@@ -10801,18 +11059,18 @@
       <c r="H109" s="67"/>
       <c r="I109" s="75"/>
       <c r="J109" s="63">
-        <f>B109</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K109" s="64"/>
       <c r="L109" s="64">
-        <f>J109*K109</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M109" s="64"/>
       <c r="N109" s="64"/>
       <c r="O109" s="64">
-        <f>L109+M109+N109</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P109" s="64"/>
@@ -10832,18 +11090,18 @@
       <c r="H110" s="67"/>
       <c r="I110" s="75"/>
       <c r="J110" s="63">
-        <f>B110</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K110" s="64"/>
       <c r="L110" s="64">
-        <f>J110*K110</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M110" s="64"/>
       <c r="N110" s="64"/>
       <c r="O110" s="64">
-        <f>L110+M110+N110</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P110" s="64"/>
@@ -10863,18 +11121,18 @@
       <c r="H111" s="67"/>
       <c r="I111" s="75"/>
       <c r="J111" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K111" s="64"/>
       <c r="L111" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M111" s="64"/>
       <c r="N111" s="64"/>
       <c r="O111" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P111" s="64"/>
@@ -10894,18 +11152,18 @@
       <c r="H112" s="67"/>
       <c r="I112" s="75"/>
       <c r="J112" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K112" s="64"/>
       <c r="L112" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M112" s="64"/>
       <c r="N112" s="64"/>
       <c r="O112" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P112" s="64"/>
@@ -10925,18 +11183,18 @@
       <c r="H113" s="67"/>
       <c r="I113" s="75"/>
       <c r="J113" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K113" s="64"/>
       <c r="L113" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M113" s="64"/>
       <c r="N113" s="64"/>
       <c r="O113" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P113" s="64"/>
@@ -10956,18 +11214,18 @@
       <c r="H114" s="67"/>
       <c r="I114" s="75"/>
       <c r="J114" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K114" s="64"/>
       <c r="L114" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M114" s="64"/>
       <c r="N114" s="64"/>
       <c r="O114" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P114" s="64"/>
@@ -10987,18 +11245,18 @@
       <c r="H115" s="67"/>
       <c r="I115" s="75"/>
       <c r="J115" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K115" s="64"/>
       <c r="L115" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M115" s="64"/>
       <c r="N115" s="64"/>
       <c r="O115" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P115" s="64"/>
@@ -11018,18 +11276,18 @@
       <c r="H116" s="67"/>
       <c r="I116" s="75"/>
       <c r="J116" s="63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K116" s="64"/>
       <c r="L116" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M116" s="64"/>
       <c r="N116" s="64"/>
       <c r="O116" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P116" s="64"/>
@@ -11049,18 +11307,18 @@
       <c r="H117" s="67"/>
       <c r="I117" s="75"/>
       <c r="J117" s="63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K117" s="64"/>
       <c r="L117" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M117" s="64"/>
       <c r="N117" s="64"/>
       <c r="O117" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P117" s="64"/>
@@ -11080,18 +11338,18 @@
       <c r="H118" s="67"/>
       <c r="I118" s="75"/>
       <c r="J118" s="63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K118" s="64"/>
       <c r="L118" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M118" s="64"/>
       <c r="N118" s="64"/>
       <c r="O118" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P118" s="64"/>
@@ -11111,18 +11369,18 @@
       <c r="H119" s="67"/>
       <c r="I119" s="75"/>
       <c r="J119" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K119" s="64"/>
       <c r="L119" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M119" s="64"/>
       <c r="N119" s="64"/>
       <c r="O119" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P119" s="64"/>
@@ -11142,18 +11400,18 @@
       <c r="H120" s="67"/>
       <c r="I120" s="75"/>
       <c r="J120" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K120" s="64"/>
       <c r="L120" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M120" s="64"/>
       <c r="N120" s="64"/>
       <c r="O120" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P120" s="64"/>
@@ -11173,18 +11431,18 @@
       <c r="H121" s="67"/>
       <c r="I121" s="75"/>
       <c r="J121" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K121" s="64"/>
       <c r="L121" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M121" s="64"/>
       <c r="N121" s="64"/>
       <c r="O121" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P121" s="64"/>
@@ -11204,18 +11462,18 @@
       <c r="H122" s="67"/>
       <c r="I122" s="75"/>
       <c r="J122" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K122" s="64"/>
       <c r="L122" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M122" s="64"/>
       <c r="N122" s="64"/>
       <c r="O122" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P122" s="64"/>
@@ -11235,18 +11493,18 @@
       <c r="H123" s="67"/>
       <c r="I123" s="75"/>
       <c r="J123" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K123" s="64"/>
       <c r="L123" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M123" s="64"/>
       <c r="N123" s="64"/>
       <c r="O123" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P123" s="64"/>
@@ -11266,18 +11524,18 @@
       <c r="H124" s="67"/>
       <c r="I124" s="75"/>
       <c r="J124" s="63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K124" s="64"/>
       <c r="L124" s="64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M124" s="64"/>
       <c r="N124" s="64"/>
       <c r="O124" s="64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P124" s="64"/>
@@ -11297,18 +11555,18 @@
       <c r="H125" s="67"/>
       <c r="I125" s="75"/>
       <c r="J125" s="63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K125" s="64"/>
       <c r="L125" s="64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M125" s="64"/>
       <c r="N125" s="64"/>
       <c r="O125" s="64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P125" s="64"/>
@@ -11328,18 +11586,18 @@
       <c r="H126" s="67"/>
       <c r="I126" s="75"/>
       <c r="J126" s="63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K126" s="64"/>
       <c r="L126" s="64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M126" s="64"/>
       <c r="N126" s="64"/>
       <c r="O126" s="64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P126" s="64"/>
@@ -11359,18 +11617,18 @@
       <c r="H127" s="67"/>
       <c r="I127" s="75"/>
       <c r="J127" s="63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K127" s="64"/>
       <c r="L127" s="64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M127" s="64"/>
       <c r="N127" s="64"/>
       <c r="O127" s="64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P127" s="64"/>
@@ -11390,18 +11648,18 @@
       <c r="H128" s="67"/>
       <c r="I128" s="75"/>
       <c r="J128" s="63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K128" s="64"/>
       <c r="L128" s="64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M128" s="64"/>
       <c r="N128" s="64"/>
       <c r="O128" s="64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P128" s="64"/>
@@ -11421,18 +11679,18 @@
       <c r="H129" s="67"/>
       <c r="I129" s="75"/>
       <c r="J129" s="63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K129" s="64"/>
       <c r="L129" s="64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M129" s="64"/>
       <c r="N129" s="64"/>
       <c r="O129" s="64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P129" s="64"/>
@@ -11441,7 +11699,7 @@
       <c r="S129" s="97"/>
       <c r="T129" s="98"/>
     </row>
-    <row r="130" spans="1:20" ht="17" thickBot="1">
+    <row r="130" spans="1:20">
       <c r="A130" s="65"/>
       <c r="B130" s="63"/>
       <c r="C130" s="63"/>
@@ -11451,58 +11709,59 @@
       <c r="G130" s="65"/>
       <c r="H130" s="67"/>
       <c r="I130" s="75"/>
-      <c r="J130" s="63"/>
+      <c r="J130" s="63">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="K130" s="64"/>
-      <c r="L130" s="64"/>
+      <c r="L130" s="64">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="M130" s="64"/>
       <c r="N130" s="64"/>
-      <c r="O130" s="64"/>
+      <c r="O130" s="64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="P130" s="64"/>
-      <c r="Q130" s="62"/>
-      <c r="S130" s="65"/>
-      <c r="T130" s="65"/>
-    </row>
-    <row r="131" spans="1:20" ht="18" thickTop="1">
+      <c r="Q130" s="75"/>
+      <c r="R130" s="63"/>
+      <c r="S130" s="97"/>
+      <c r="T130" s="98"/>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" s="65"/>
       <c r="B131" s="63"/>
       <c r="C131" s="63"/>
       <c r="D131" s="63"/>
       <c r="E131" s="65"/>
       <c r="F131" s="65"/>
-      <c r="G131" s="80"/>
-      <c r="H131" s="76"/>
-      <c r="I131" s="125" t="s">
-        <v>423</v>
-      </c>
-      <c r="J131" s="77"/>
-      <c r="K131" s="76"/>
-      <c r="L131" s="76">
-        <f>SUM(L3:L129)</f>
-        <v>2959.3299999999986</v>
-      </c>
-      <c r="M131" s="76">
-        <f>SUM(M3:M129)</f>
-        <v>227.22000000000006</v>
-      </c>
-      <c r="N131" s="76">
-        <f>SUM(N3:N129)</f>
-        <v>8.0300000000000011</v>
-      </c>
-      <c r="O131" s="76">
-        <f>SUM(O3:O129)</f>
-        <v>3194.5799999999977</v>
-      </c>
-      <c r="P131" s="76">
-        <f>SUM(P3:P129)</f>
-        <v>3093.7099999999991</v>
-      </c>
-      <c r="Q131" s="76">
-        <f>SUM(Q3:Q129)</f>
-        <v>-365.57416666666666</v>
-      </c>
-      <c r="R131" s="81"/>
-    </row>
-    <row r="132" spans="1:20">
+      <c r="G131" s="65"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="75"/>
+      <c r="J131" s="63">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="64"/>
+      <c r="L131" s="64">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="64"/>
+      <c r="N131" s="64"/>
+      <c r="O131" s="64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P131" s="64"/>
+      <c r="Q131" s="75"/>
+      <c r="R131" s="63"/>
+      <c r="S131" s="97"/>
+      <c r="T131" s="98"/>
+    </row>
+    <row r="132" spans="1:20" ht="17" thickBot="1">
       <c r="A132" s="65"/>
       <c r="B132" s="63"/>
       <c r="C132" s="63"/>
@@ -11519,38 +11778,49 @@
       <c r="N132" s="64"/>
       <c r="O132" s="64"/>
       <c r="P132" s="64"/>
-      <c r="Q132" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="R132" s="64">
-        <f>O131-P131+Q131</f>
-        <v>-264.70416666666813</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20">
+      <c r="Q132" s="62"/>
+      <c r="S132" s="65"/>
+      <c r="T132" s="65"/>
+    </row>
+    <row r="133" spans="1:20" ht="18" thickTop="1">
       <c r="A133" s="65"/>
       <c r="B133" s="63"/>
       <c r="C133" s="63"/>
       <c r="D133" s="63"/>
       <c r="E133" s="65"/>
       <c r="F133" s="65"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="67"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="63"/>
-      <c r="K133" s="64"/>
-      <c r="L133" s="64"/>
-      <c r="M133" s="64"/>
-      <c r="N133" s="64"/>
-      <c r="O133" s="64"/>
-      <c r="P133" s="64"/>
-      <c r="Q133" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="R133" s="64">
-        <f>P131</f>
-        <v>3093.7099999999991</v>
-      </c>
+      <c r="G133" s="80"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="125" t="s">
+        <v>423</v>
+      </c>
+      <c r="J133" s="77"/>
+      <c r="K133" s="76"/>
+      <c r="L133" s="76">
+        <f t="shared" ref="L133:Q133" si="67">SUM(L3:L131)</f>
+        <v>2997.3399999999983</v>
+      </c>
+      <c r="M133" s="76">
+        <f t="shared" si="67"/>
+        <v>227.22000000000006</v>
+      </c>
+      <c r="N133" s="76">
+        <f t="shared" si="67"/>
+        <v>9.3600000000000012</v>
+      </c>
+      <c r="O133" s="76">
+        <f t="shared" si="67"/>
+        <v>3233.9199999999973</v>
+      </c>
+      <c r="P133" s="76">
+        <f t="shared" si="67"/>
+        <v>3169.0399999999991</v>
+      </c>
+      <c r="Q133" s="76">
+        <f t="shared" si="67"/>
+        <v>-365.57416666666666</v>
+      </c>
+      <c r="R133" s="81"/>
     </row>
     <row r="134" spans="1:20">
       <c r="A134" s="65"/>
@@ -11570,11 +11840,11 @@
       <c r="O134" s="64"/>
       <c r="P134" s="64"/>
       <c r="Q134" s="65" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="R134" s="64">
-        <f>SUM(Q3:Q129)*-1</f>
-        <v>365.57416666666666</v>
+        <f>O133-P133+Q133</f>
+        <v>-300.69416666666837</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -11586,7 +11856,7 @@
       <c r="F135" s="65"/>
       <c r="G135" s="65"/>
       <c r="H135" s="67"/>
-      <c r="I135" s="62"/>
+      <c r="I135" s="75"/>
       <c r="J135" s="63"/>
       <c r="K135" s="64"/>
       <c r="L135" s="64"/>
@@ -11594,11 +11864,12 @@
       <c r="N135" s="64"/>
       <c r="O135" s="64"/>
       <c r="P135" s="64"/>
-      <c r="Q135" s="87" t="s">
-        <v>443</v>
-      </c>
-      <c r="R135" s="88">
-        <v>146.82</v>
+      <c r="Q135" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="R135" s="64">
+        <f>P133</f>
+        <v>3169.0399999999991</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -11610,7 +11881,7 @@
       <c r="F136" s="65"/>
       <c r="G136" s="65"/>
       <c r="H136" s="67"/>
-      <c r="I136" s="62"/>
+      <c r="I136" s="75"/>
       <c r="J136" s="63"/>
       <c r="K136" s="64"/>
       <c r="L136" s="64"/>
@@ -11618,11 +11889,12 @@
       <c r="N136" s="64"/>
       <c r="O136" s="64"/>
       <c r="P136" s="64"/>
-      <c r="Q136" s="87" t="s">
-        <v>444</v>
-      </c>
-      <c r="R136" s="88">
-        <v>71.98</v>
+      <c r="Q136" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="R136" s="64">
+        <f>SUM(Q3:Q131)*-1</f>
+        <v>365.57416666666666</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -11642,12 +11914,11 @@
       <c r="N137" s="64"/>
       <c r="O137" s="64"/>
       <c r="P137" s="64"/>
-      <c r="Q137" s="65" t="s">
-        <v>445</v>
-      </c>
-      <c r="R137" s="64">
-        <f>530.9+136.98+543.42+131.12+35.27+22.95+182.63+89.99+11.05+581.28+17.48+45.95+35.83+14.98+148.13+134.12+130.1</f>
-        <v>2792.18</v>
+      <c r="Q137" s="87" t="s">
+        <v>443</v>
+      </c>
+      <c r="R137" s="88">
+        <v>146.82</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -11667,17 +11938,56 @@
       <c r="N138" s="64"/>
       <c r="O138" s="64"/>
       <c r="P138" s="64"/>
-      <c r="Q138" s="65"/>
-      <c r="R138" s="64"/>
+      <c r="Q138" s="87" t="s">
+        <v>444</v>
+      </c>
+      <c r="R138" s="88">
+        <v>71.98</v>
+      </c>
     </row>
     <row r="139" spans="1:20">
+      <c r="A139" s="65"/>
+      <c r="B139" s="63"/>
+      <c r="C139" s="63"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
       <c r="H139" s="67"/>
-      <c r="Q139" s="57"/>
-      <c r="R139" s="64"/>
+      <c r="I139" s="62"/>
+      <c r="J139" s="63"/>
+      <c r="K139" s="64"/>
+      <c r="L139" s="64"/>
+      <c r="M139" s="64"/>
+      <c r="N139" s="64"/>
+      <c r="O139" s="64"/>
+      <c r="P139" s="64"/>
+      <c r="Q139" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="R139" s="64">
+        <f>530.9+136.98+543.42+131.12+35.27+22.95+182.63+89.99+11.05+581.28+17.48+45.95+35.83+14.98+148.13+134.12+130.1</f>
+        <v>2792.18</v>
+      </c>
     </row>
     <row r="140" spans="1:20">
+      <c r="A140" s="65"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
       <c r="H140" s="67"/>
-      <c r="Q140" s="57"/>
+      <c r="I140" s="62"/>
+      <c r="J140" s="63"/>
+      <c r="K140" s="64"/>
+      <c r="L140" s="64"/>
+      <c r="M140" s="64"/>
+      <c r="N140" s="64"/>
+      <c r="O140" s="64"/>
+      <c r="P140" s="64"/>
+      <c r="Q140" s="65"/>
       <c r="R140" s="64"/>
     </row>
     <row r="141" spans="1:20">
@@ -11686,10 +11996,12 @@
       <c r="R141" s="64"/>
     </row>
     <row r="142" spans="1:20">
+      <c r="H142" s="67"/>
       <c r="Q142" s="57"/>
       <c r="R142" s="64"/>
     </row>
     <row r="143" spans="1:20">
+      <c r="H143" s="67"/>
       <c r="Q143" s="57"/>
       <c r="R143" s="64"/>
     </row>
@@ -11710,14 +12022,22 @@
       <c r="R147" s="64"/>
     </row>
     <row r="148" spans="17:18">
+      <c r="Q148" s="57"/>
       <c r="R148" s="64"/>
+    </row>
+    <row r="149" spans="17:18">
+      <c r="Q149" s="57"/>
+      <c r="R149" s="64"/>
+    </row>
+    <row r="150" spans="17:18">
+      <c r="R150" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R129" xr:uid="{DB0DC2B0-407F-9946-A6F5-0517B7729D5C}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R131" xr:uid="{DB0DC2B0-407F-9946-A6F5-0517B7729D5C}">
       <formula1>$AD$4:$AD$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -11805,52 +12125,55 @@
     <hyperlink ref="A61" r:id="rId81" xr:uid="{1E44D0C5-2B80-6C40-8D17-9D31CF6FD944}"/>
     <hyperlink ref="G6" r:id="rId82" xr:uid="{C6EA3740-81E4-B640-88C8-3A15309E7309}"/>
     <hyperlink ref="G7" r:id="rId83" xr:uid="{AEBB2135-11D8-8145-960E-CF0CB68228A3}"/>
-    <hyperlink ref="A65" r:id="rId84" xr:uid="{894BE992-E4D0-744B-AC7C-5D0BFB533815}"/>
+    <hyperlink ref="A66" r:id="rId84" xr:uid="{894BE992-E4D0-744B-AC7C-5D0BFB533815}"/>
     <hyperlink ref="A64" r:id="rId85" xr:uid="{B121025F-B9D8-6541-8E45-BFBF6B9EBFE7}"/>
     <hyperlink ref="A63" r:id="rId86" xr:uid="{81390D92-870E-C84A-8855-EC0AFE3EF261}"/>
-    <hyperlink ref="A66" r:id="rId87" xr:uid="{5DB840B2-46B9-BA48-A980-11B64496C83D}"/>
-    <hyperlink ref="A67" r:id="rId88" xr:uid="{E8977432-3FE9-3349-A5F6-7E10358CF36F}"/>
+    <hyperlink ref="A68" r:id="rId87" xr:uid="{5DB840B2-46B9-BA48-A980-11B64496C83D}"/>
+    <hyperlink ref="A69" r:id="rId88" xr:uid="{E8977432-3FE9-3349-A5F6-7E10358CF36F}"/>
     <hyperlink ref="F29" r:id="rId89" xr:uid="{13FF8408-FD63-9241-A7DF-357B2ADD15D8}"/>
     <hyperlink ref="A30" r:id="rId90" xr:uid="{C01B79DE-8912-2B41-91DF-EC5EA1DD3888}"/>
     <hyperlink ref="F39" r:id="rId91" xr:uid="{88603DA9-A020-654B-AB72-175FC13D034C}"/>
     <hyperlink ref="A47" r:id="rId92" xr:uid="{D2A36D58-E15F-7E44-8EA3-6C4685C8E3B6}"/>
-    <hyperlink ref="A68" r:id="rId93" xr:uid="{85B2FF62-2608-CB48-BB1D-A10E8DC456BE}"/>
-    <hyperlink ref="A69" r:id="rId94" xr:uid="{74A5D6C7-F7CE-964A-91E1-00B79BAFEB5B}"/>
-    <hyperlink ref="A70" r:id="rId95" xr:uid="{D4E64753-7DF1-BC46-9783-EE4EA90305B4}"/>
+    <hyperlink ref="A70" r:id="rId93" xr:uid="{85B2FF62-2608-CB48-BB1D-A10E8DC456BE}"/>
+    <hyperlink ref="A71" r:id="rId94" xr:uid="{74A5D6C7-F7CE-964A-91E1-00B79BAFEB5B}"/>
+    <hyperlink ref="A72" r:id="rId95" xr:uid="{D4E64753-7DF1-BC46-9783-EE4EA90305B4}"/>
     <hyperlink ref="E61" r:id="rId96" xr:uid="{A782B948-F32A-DF45-85B9-9862EE145443}"/>
-    <hyperlink ref="A71" r:id="rId97" xr:uid="{E39F14A3-4AE1-FE41-AADE-2275E109D5E7}"/>
-    <hyperlink ref="A72" r:id="rId98" xr:uid="{B31ACB39-14B2-F342-BF62-356704801E5C}"/>
-    <hyperlink ref="A73" r:id="rId99" xr:uid="{E0DFEB3E-1B65-104C-895C-63E7833C538C}"/>
-    <hyperlink ref="A74" r:id="rId100" xr:uid="{D4CC3802-04BE-B14C-8DCE-3AB15733D983}"/>
-    <hyperlink ref="A75" r:id="rId101" xr:uid="{86DAA688-EE23-6A4A-A517-12DB5FD32832}"/>
-    <hyperlink ref="A76" r:id="rId102" xr:uid="{A6FC9FB5-F7AB-7E42-9201-841F5EB0F339}"/>
-    <hyperlink ref="A86" r:id="rId103" xr:uid="{B202E3DB-830A-9842-B8BE-60AE407C9CF5}"/>
-    <hyperlink ref="A87" r:id="rId104" xr:uid="{FF2F95B1-9208-2E49-AC68-2C515FAAC5A6}"/>
-    <hyperlink ref="A79" r:id="rId105" xr:uid="{4A4ED3AA-8D87-AC4C-ADF9-C62C98509344}"/>
-    <hyperlink ref="A80" r:id="rId106" xr:uid="{86827A56-C08F-F149-AE5D-2A99BCF46739}"/>
-    <hyperlink ref="A81" r:id="rId107" xr:uid="{B66DC76F-B3E8-AA4B-8C7C-D488169E59A6}"/>
-    <hyperlink ref="A93" r:id="rId108" display="M3x12; Class 12.9 alloy steel black oxide finish" xr:uid="{C6C236BE-6147-5C46-9779-E67B15B2436F}"/>
-    <hyperlink ref="A95" r:id="rId109" xr:uid="{8E702139-CDB2-1D47-82AE-DC48D42F76C9}"/>
-    <hyperlink ref="A94" r:id="rId110" xr:uid="{02A48F8B-121C-3041-8978-92C074E34614}"/>
-    <hyperlink ref="A96" r:id="rId111" xr:uid="{95B9BD04-11C6-3F41-9C2C-422882941AD1}"/>
-    <hyperlink ref="A88" r:id="rId112" display="LBY 100pcs Binding Screw kit,M5 x 10/20/30/40/50mm; Nickel Plated (Black)" xr:uid="{C6C0C6A2-3C65-9B4D-97C2-9B8EC2335002}"/>
-    <hyperlink ref="A89" r:id="rId113" xr:uid="{DEFE7E5B-4A16-4449-872F-545BBF5C42CB}"/>
+    <hyperlink ref="A73" r:id="rId97" xr:uid="{E39F14A3-4AE1-FE41-AADE-2275E109D5E7}"/>
+    <hyperlink ref="A74" r:id="rId98" xr:uid="{B31ACB39-14B2-F342-BF62-356704801E5C}"/>
+    <hyperlink ref="A75" r:id="rId99" xr:uid="{E0DFEB3E-1B65-104C-895C-63E7833C538C}"/>
+    <hyperlink ref="A76" r:id="rId100" xr:uid="{D4CC3802-04BE-B14C-8DCE-3AB15733D983}"/>
+    <hyperlink ref="A77" r:id="rId101" xr:uid="{86DAA688-EE23-6A4A-A517-12DB5FD32832}"/>
+    <hyperlink ref="A78" r:id="rId102" xr:uid="{A6FC9FB5-F7AB-7E42-9201-841F5EB0F339}"/>
+    <hyperlink ref="A88" r:id="rId103" xr:uid="{B202E3DB-830A-9842-B8BE-60AE407C9CF5}"/>
+    <hyperlink ref="A89" r:id="rId104" xr:uid="{FF2F95B1-9208-2E49-AC68-2C515FAAC5A6}"/>
+    <hyperlink ref="A81" r:id="rId105" xr:uid="{4A4ED3AA-8D87-AC4C-ADF9-C62C98509344}"/>
+    <hyperlink ref="A82" r:id="rId106" xr:uid="{86827A56-C08F-F149-AE5D-2A99BCF46739}"/>
+    <hyperlink ref="A83" r:id="rId107" xr:uid="{B66DC76F-B3E8-AA4B-8C7C-D488169E59A6}"/>
+    <hyperlink ref="A95" r:id="rId108" display="M3x12; Class 12.9 alloy steel black oxide finish" xr:uid="{C6C236BE-6147-5C46-9779-E67B15B2436F}"/>
+    <hyperlink ref="A97" r:id="rId109" xr:uid="{8E702139-CDB2-1D47-82AE-DC48D42F76C9}"/>
+    <hyperlink ref="A96" r:id="rId110" xr:uid="{02A48F8B-121C-3041-8978-92C074E34614}"/>
+    <hyperlink ref="A98" r:id="rId111" xr:uid="{95B9BD04-11C6-3F41-9C2C-422882941AD1}"/>
+    <hyperlink ref="A90" r:id="rId112" display="LBY 100pcs Binding Screw kit,M5 x 10/20/30/40/50mm; Nickel Plated (Black)" xr:uid="{C6C0C6A2-3C65-9B4D-97C2-9B8EC2335002}"/>
+    <hyperlink ref="A91" r:id="rId113" xr:uid="{DEFE7E5B-4A16-4449-872F-545BBF5C42CB}"/>
     <hyperlink ref="E54" r:id="rId114" xr:uid="{987CD14A-8779-0D41-8911-CA09393372AD}"/>
-    <hyperlink ref="A92" r:id="rId115" xr:uid="{9070E90A-5085-284B-8696-5BB7B3503AFA}"/>
-    <hyperlink ref="A91" r:id="rId116" xr:uid="{C241A602-940E-C545-BBDF-F91B4A0ACD76}"/>
-    <hyperlink ref="A90" r:id="rId117" xr:uid="{EA8BD24D-2EF5-2C49-8621-AA212E41A1A2}"/>
+    <hyperlink ref="A94" r:id="rId115" xr:uid="{9070E90A-5085-284B-8696-5BB7B3503AFA}"/>
+    <hyperlink ref="A93" r:id="rId116" xr:uid="{C241A602-940E-C545-BBDF-F91B4A0ACD76}"/>
+    <hyperlink ref="A92" r:id="rId117" xr:uid="{EA8BD24D-2EF5-2C49-8621-AA212E41A1A2}"/>
     <hyperlink ref="F42" r:id="rId118" xr:uid="{E946E855-ED01-C742-A20D-67542909A11B}"/>
-    <hyperlink ref="E66" r:id="rId119" xr:uid="{C3BCA868-CC90-474F-9E85-BDDAF5AE4BD2}"/>
+    <hyperlink ref="E68" r:id="rId119" xr:uid="{C3BCA868-CC90-474F-9E85-BDDAF5AE4BD2}"/>
     <hyperlink ref="G29" r:id="rId120" xr:uid="{404B2434-E410-1A45-B95C-6F453F70FDA6}"/>
-    <hyperlink ref="A82" r:id="rId121" xr:uid="{5AE46B62-4A57-6B49-94F8-F4D2A88BCBD5}"/>
-    <hyperlink ref="A83" r:id="rId122" xr:uid="{8D9DEDFD-DDB6-B343-8957-FC1D5F91B7B8}"/>
-    <hyperlink ref="A84" r:id="rId123" xr:uid="{4FD8E1FD-54A0-174E-9B21-42A46B3397FB}"/>
-    <hyperlink ref="A85" r:id="rId124" xr:uid="{F56E788D-C6A9-B649-9AB7-7E76F82CF976}"/>
-    <hyperlink ref="A97" r:id="rId125" xr:uid="{8587D93C-CC3D-5145-B889-402E59B34174}"/>
-    <hyperlink ref="A98" r:id="rId126" xr:uid="{068EE0AD-578C-D647-8898-1D3A11DBF731}"/>
+    <hyperlink ref="A84" r:id="rId121" xr:uid="{5AE46B62-4A57-6B49-94F8-F4D2A88BCBD5}"/>
+    <hyperlink ref="A85" r:id="rId122" xr:uid="{8D9DEDFD-DDB6-B343-8957-FC1D5F91B7B8}"/>
+    <hyperlink ref="A86" r:id="rId123" xr:uid="{4FD8E1FD-54A0-174E-9B21-42A46B3397FB}"/>
+    <hyperlink ref="A87" r:id="rId124" xr:uid="{F56E788D-C6A9-B649-9AB7-7E76F82CF976}"/>
+    <hyperlink ref="A99" r:id="rId125" xr:uid="{8587D93C-CC3D-5145-B889-402E59B34174}"/>
+    <hyperlink ref="A100" r:id="rId126" xr:uid="{068EE0AD-578C-D647-8898-1D3A11DBF731}"/>
+    <hyperlink ref="A101" r:id="rId127" xr:uid="{085731C5-E1A9-9146-ADE1-BF564D4EC38A}"/>
+    <hyperlink ref="A65" r:id="rId128" xr:uid="{BECCBEF3-FC46-E449-83A0-3E40BE616C6B}"/>
+    <hyperlink ref="A67" r:id="rId129" xr:uid="{06C374C7-3A50-1E42-8E9B-5EBA34721F53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId127"/>
+  <legacyDrawing r:id="rId130"/>
 </worksheet>
 </file>
 
@@ -11875,18 +12198,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="19">
       <c r="A2" s="3" t="s">
@@ -12003,29 +12326,29 @@
     <col min="8" max="8" width="170" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="149" customFormat="1">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:8" s="135" customFormat="1">
+      <c r="A1" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="135" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="136" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="136" t="s">
         <v>605</v>
       </c>
-      <c r="E1" s="149" t="s">
+      <c r="E1" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="149" t="s">
+      <c r="F1" s="135" t="s">
         <v>572</v>
       </c>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="135" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="149" t="s">
+      <c r="H1" s="135" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12233,16 +12556,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="19">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="153" t="s">
         <v>583</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -12385,16 +12708,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19">
-      <c r="A27" s="151" t="s">
+      <c r="A27" s="153" t="s">
         <v>601</v>
       </c>
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
@@ -12593,28 +12916,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
     </row>
     <row r="2" spans="1:20" s="90" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="91" t="s">
@@ -14557,28 +14880,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
     </row>
     <row r="2" spans="1:20" s="90" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="91" t="s">
@@ -17048,7 +17371,7 @@
   <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -19014,24 +19337,24 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17" thickBot="1">
-      <c r="A73" s="136" t="s">
+      <c r="A73" s="140" t="s">
         <v>288</v>
       </c>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="137"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="137"/>
-      <c r="J73" s="137"/>
-      <c r="K73" s="137"/>
-      <c r="L73" s="137"/>
-      <c r="M73" s="137"/>
-      <c r="N73" s="137"/>
-      <c r="O73" s="137"/>
-      <c r="P73" s="138"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="141"/>
+      <c r="E73" s="141"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="141"/>
+      <c r="I73" s="141"/>
+      <c r="J73" s="141"/>
+      <c r="K73" s="141"/>
+      <c r="L73" s="141"/>
+      <c r="M73" s="141"/>
+      <c r="N73" s="141"/>
+      <c r="O73" s="141"/>
+      <c r="P73" s="142"/>
     </row>
     <row r="74" spans="1:16" ht="17">
       <c r="A74" s="13" t="s">
@@ -19239,24 +19562,24 @@
     </row>
     <row r="85" spans="1:16" ht="17" thickBot="1"/>
     <row r="86" spans="1:16" ht="17" thickBot="1">
-      <c r="A86" s="139" t="s">
+      <c r="A86" s="143" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="140"/>
-      <c r="C86" s="140"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="140"/>
-      <c r="F86" s="140"/>
-      <c r="G86" s="140"/>
-      <c r="H86" s="140"/>
-      <c r="I86" s="140"/>
-      <c r="J86" s="140"/>
-      <c r="K86" s="140"/>
-      <c r="L86" s="140"/>
-      <c r="M86" s="140"/>
-      <c r="N86" s="140"/>
-      <c r="O86" s="140"/>
-      <c r="P86" s="141"/>
+      <c r="B86" s="144"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="144"/>
+      <c r="F86" s="144"/>
+      <c r="G86" s="144"/>
+      <c r="H86" s="144"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="144"/>
+      <c r="L86" s="144"/>
+      <c r="M86" s="144"/>
+      <c r="N86" s="144"/>
+      <c r="O86" s="144"/>
+      <c r="P86" s="145"/>
     </row>
     <row r="87" spans="1:16" ht="17">
       <c r="A87" s="13" t="s">
@@ -19679,10 +20002,10 @@
     </row>
     <row r="104" spans="1:16" ht="17" thickBot="1"/>
     <row r="105" spans="1:16" ht="17" thickTop="1">
-      <c r="A105" s="142" t="s">
+      <c r="A105" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="143"/>
+      <c r="B105" s="147"/>
       <c r="C105" s="24"/>
       <c r="D105" s="25"/>
       <c r="E105" s="26"/>
@@ -19699,8 +20022,8 @@
       <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" ht="17" thickBot="1">
-      <c r="A106" s="144"/>
-      <c r="B106" s="145"/>
+      <c r="A106" s="148"/>
+      <c r="B106" s="149"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -20083,9 +20406,9 @@
   </sheetPr>
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:R12"/>
+      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22050,24 +22373,24 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17" thickBot="1">
-      <c r="A73" s="136" t="s">
+      <c r="A73" s="140" t="s">
         <v>288</v>
       </c>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="137"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="137"/>
-      <c r="J73" s="137"/>
-      <c r="K73" s="137"/>
-      <c r="L73" s="137"/>
-      <c r="M73" s="137"/>
-      <c r="N73" s="137"/>
-      <c r="O73" s="137"/>
-      <c r="P73" s="138"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="141"/>
+      <c r="E73" s="141"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="141"/>
+      <c r="I73" s="141"/>
+      <c r="J73" s="141"/>
+      <c r="K73" s="141"/>
+      <c r="L73" s="141"/>
+      <c r="M73" s="141"/>
+      <c r="N73" s="141"/>
+      <c r="O73" s="141"/>
+      <c r="P73" s="142"/>
     </row>
     <row r="74" spans="1:16" ht="17">
       <c r="A74" s="13" t="s">
@@ -22275,24 +22598,24 @@
     </row>
     <row r="85" spans="1:16" ht="17" thickBot="1"/>
     <row r="86" spans="1:16" ht="17" thickBot="1">
-      <c r="A86" s="139" t="s">
+      <c r="A86" s="143" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="140"/>
-      <c r="C86" s="140"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="140"/>
-      <c r="F86" s="140"/>
-      <c r="G86" s="140"/>
-      <c r="H86" s="140"/>
-      <c r="I86" s="140"/>
-      <c r="J86" s="140"/>
-      <c r="K86" s="140"/>
-      <c r="L86" s="140"/>
-      <c r="M86" s="140"/>
-      <c r="N86" s="140"/>
-      <c r="O86" s="140"/>
-      <c r="P86" s="141"/>
+      <c r="B86" s="144"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="144"/>
+      <c r="F86" s="144"/>
+      <c r="G86" s="144"/>
+      <c r="H86" s="144"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="144"/>
+      <c r="L86" s="144"/>
+      <c r="M86" s="144"/>
+      <c r="N86" s="144"/>
+      <c r="O86" s="144"/>
+      <c r="P86" s="145"/>
     </row>
     <row r="87" spans="1:16" ht="17">
       <c r="A87" s="13" t="s">
@@ -22715,10 +23038,10 @@
     </row>
     <row r="104" spans="1:16" ht="17" thickBot="1"/>
     <row r="105" spans="1:16" ht="17" thickTop="1">
-      <c r="A105" s="142" t="s">
+      <c r="A105" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="143"/>
+      <c r="B105" s="147"/>
       <c r="C105" s="24"/>
       <c r="D105" s="25"/>
       <c r="E105" s="26"/>
@@ -22735,8 +23058,8 @@
       <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" ht="17" thickBot="1">
-      <c r="A106" s="144"/>
-      <c r="B106" s="145"/>
+      <c r="A106" s="148"/>
+      <c r="B106" s="149"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -23116,7 +23439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CBDA4A-1E57-6F4A-B60C-8E88D01B7C12}">
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
@@ -25072,7 +25395,7 @@
   <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -26605,7 +26928,7 @@
   <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
@@ -26674,10 +26997,10 @@
         <f>voron2.4_350mm_bom!M1</f>
         <v>Notes</v>
       </c>
-      <c r="Q1" s="146" t="s">
+      <c r="Q1" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="147"/>
+      <c r="R1" s="151"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="str">

--- a/BOM/voron2.4_350mm_bom.xlsx
+++ b/BOM/voron2.4_350mm_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwilder/Documents/3D Printing/cee-wals/voron-2.4/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1648580-090B-E947-B7B2-E3C0C57DAB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F2BE85-F974-4040-BD35-FDC096D0DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="50420" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="50420" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="West3D Voron 2.4 BOM" sheetId="6" r:id="rId1"/>
@@ -1161,7 +1161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="673">
   <si>
     <t>Category</t>
   </si>
@@ -3301,6 +3301,9 @@
   </si>
   <si>
     <t>vendor: printedsolid.com; Additional filament for printing mods</t>
+  </si>
+  <si>
+    <t>Didn't order for some reason</t>
   </si>
 </sst>
 </file>
@@ -4290,7 +4293,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4652,17 +4655,11 @@
     <xf numFmtId="0" fontId="35" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="39" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4670,10 +4667,11 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="39" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4719,8 +4717,36 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="39" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5128,10 +5154,10 @@
   <dimension ref="A1:AD150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5158,28 +5184,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
     </row>
     <row r="2" spans="1:30" s="90" customFormat="1" ht="23" customHeight="1" thickBot="1">
       <c r="A2" s="91" t="s">
@@ -5827,59 +5853,59 @@
       <c r="T12" s="98"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="129">
-        <v>1</v>
-      </c>
-      <c r="C13" s="129" t="s">
+      <c r="B13" s="102">
+        <v>1</v>
+      </c>
+      <c r="C13" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="116" t="s">
+      <c r="D13" s="102"/>
+      <c r="E13" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="133" t="str">
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104" t="str">
         <f>E13</f>
         <v>Omron G3NA-210B-DC5 10A SSR</v>
       </c>
-      <c r="I13" s="134"/>
-      <c r="J13" s="117">
+      <c r="I13" s="162"/>
+      <c r="J13" s="106">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K13" s="121">
+      <c r="K13" s="107">
         <v>28.99</v>
       </c>
-      <c r="L13" s="121">
+      <c r="L13" s="107">
         <f t="shared" si="0"/>
         <v>28.99</v>
       </c>
-      <c r="M13" s="121">
-        <v>0</v>
-      </c>
-      <c r="N13" s="121">
-        <v>0</v>
-      </c>
-      <c r="O13" s="121">
+      <c r="M13" s="107">
+        <v>0</v>
+      </c>
+      <c r="N13" s="107">
+        <v>0</v>
+      </c>
+      <c r="O13" s="107">
         <f t="shared" si="1"/>
         <v>28.99</v>
       </c>
-      <c r="P13" s="121">
+      <c r="P13" s="107">
         <f>O13</f>
         <v>28.99</v>
       </c>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S13" s="123" t="s">
+      <c r="Q13" s="105"/>
+      <c r="R13" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S13" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T13" s="124" t="s">
+      <c r="T13" s="109" t="s">
         <v>553</v>
       </c>
     </row>
@@ -5941,510 +5967,509 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="129">
-        <v>1</v>
-      </c>
-      <c r="C15" s="129" t="s">
+      <c r="B15" s="102">
+        <v>1</v>
+      </c>
+      <c r="C15" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="116" t="s">
+      <c r="D15" s="102"/>
+      <c r="E15" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="116" t="s">
+      <c r="F15" s="101" t="s">
         <v>328</v>
       </c>
-      <c r="G15" s="116" t="s">
+      <c r="G15" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="H15" s="133" t="str">
+      <c r="H15" s="104" t="str">
         <f>A15</f>
         <v>Mean Well LRS-200-24 200W 24V 8.8A Power Supply (PSU)</v>
       </c>
-      <c r="I15" s="120"/>
-      <c r="J15" s="117">
+      <c r="I15" s="105"/>
+      <c r="J15" s="106">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="107">
         <v>30.99</v>
       </c>
-      <c r="L15" s="121">
+      <c r="L15" s="107">
         <f t="shared" si="0"/>
         <v>30.99</v>
       </c>
-      <c r="M15" s="121">
-        <v>0</v>
-      </c>
-      <c r="N15" s="121">
-        <v>0</v>
-      </c>
-      <c r="O15" s="121">
+      <c r="M15" s="107">
+        <v>0</v>
+      </c>
+      <c r="N15" s="107">
+        <v>0</v>
+      </c>
+      <c r="O15" s="107">
         <f t="shared" si="1"/>
         <v>30.99</v>
       </c>
-      <c r="P15" s="121">
+      <c r="P15" s="107">
         <f>O15</f>
         <v>30.99</v>
       </c>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S15" s="123" t="s">
+      <c r="Q15" s="105"/>
+      <c r="R15" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S15" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T15" s="124" t="s">
+      <c r="T15" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="129">
-        <v>1</v>
-      </c>
-      <c r="C16" s="129" t="s">
+      <c r="B16" s="102">
+        <v>1</v>
+      </c>
+      <c r="C16" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="133" t="str">
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104" t="str">
         <f t="shared" ref="H16:H23" si="4">A16</f>
         <v>Mean Well RS-25-5 25W Power Supply (PSU)</v>
       </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="117">
+      <c r="I16" s="105"/>
+      <c r="J16" s="106">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K16" s="121">
+      <c r="K16" s="107">
         <v>18.989999999999998</v>
       </c>
-      <c r="L16" s="121">
+      <c r="L16" s="107">
         <f t="shared" si="0"/>
         <v>18.989999999999998</v>
       </c>
-      <c r="M16" s="121">
-        <v>0</v>
-      </c>
-      <c r="N16" s="121">
-        <v>0</v>
-      </c>
-      <c r="O16" s="121">
+      <c r="M16" s="107">
+        <v>0</v>
+      </c>
+      <c r="N16" s="107">
+        <v>0</v>
+      </c>
+      <c r="O16" s="107">
         <f t="shared" si="1"/>
         <v>18.989999999999998</v>
       </c>
-      <c r="P16" s="121">
+      <c r="P16" s="107">
         <f t="shared" ref="P16:P22" si="5">O16</f>
         <v>18.989999999999998</v>
       </c>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S16" s="123" t="s">
+      <c r="Q16" s="105"/>
+      <c r="R16" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S16" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T16" s="124" t="s">
+      <c r="T16" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="45">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="153" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="129">
-        <v>1</v>
-      </c>
-      <c r="C17" s="129" t="s">
+      <c r="B17" s="154">
+        <v>1</v>
+      </c>
+      <c r="C17" s="154" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="116" t="s">
+      <c r="D17" s="154"/>
+      <c r="E17" s="153" t="s">
         <v>332</v>
       </c>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="133" t="str">
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="156" t="str">
         <f t="shared" si="4"/>
         <v>ZF - Rocker Switch DPST 16A On-Off - WRG32F2BBRLN</v>
       </c>
-      <c r="I17" s="120"/>
-      <c r="J17" s="117">
+      <c r="I17" s="157" t="s">
+        <v>672</v>
+      </c>
+      <c r="J17" s="158">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K17" s="121">
+      <c r="K17" s="159">
         <v>2.99</v>
       </c>
-      <c r="L17" s="121">
+      <c r="L17" s="159">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="M17" s="121">
-        <v>0</v>
-      </c>
-      <c r="N17" s="121">
-        <v>0</v>
-      </c>
-      <c r="O17" s="121">
+      <c r="M17" s="159">
+        <v>0</v>
+      </c>
+      <c r="N17" s="159">
+        <v>0</v>
+      </c>
+      <c r="O17" s="159">
         <f t="shared" si="1"/>
         <v>2.99</v>
       </c>
-      <c r="P17" s="121">
-        <f t="shared" si="5"/>
-        <v>2.99</v>
-      </c>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S17" s="123" t="s">
+      <c r="P17" s="159">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="158"/>
+      <c r="S17" s="160" t="s">
         <v>553</v>
       </c>
-      <c r="T17" s="124" t="s">
+      <c r="T17" s="161" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="B18" s="129">
-        <v>1</v>
-      </c>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="133" t="str">
+      <c r="B18" s="102">
+        <v>1</v>
+      </c>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104" t="str">
         <f t="shared" si="4"/>
         <v>TycoElectronics - 10EHG1-2 Filtered Power Inlet</v>
       </c>
-      <c r="I18" s="120"/>
-      <c r="J18" s="117">
+      <c r="I18" s="105"/>
+      <c r="J18" s="106">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K18" s="121">
+      <c r="K18" s="107">
         <v>20.99</v>
       </c>
-      <c r="L18" s="121">
+      <c r="L18" s="107">
         <f t="shared" si="0"/>
         <v>20.99</v>
       </c>
-      <c r="M18" s="121">
-        <v>0</v>
-      </c>
-      <c r="N18" s="121">
-        <v>0</v>
-      </c>
-      <c r="O18" s="121">
+      <c r="M18" s="107">
+        <v>0</v>
+      </c>
+      <c r="N18" s="107">
+        <v>0</v>
+      </c>
+      <c r="O18" s="107">
         <f t="shared" si="1"/>
         <v>20.99</v>
       </c>
-      <c r="P18" s="121">
+      <c r="P18" s="107">
         <f t="shared" si="5"/>
         <v>20.99</v>
       </c>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S18" s="123" t="s">
+      <c r="Q18" s="105"/>
+      <c r="R18" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S18" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T18" s="124" t="s">
+      <c r="T18" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="129">
+      <c r="B19" s="102">
         <v>3</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="133" t="str">
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104" t="str">
         <f t="shared" si="4"/>
         <v>Fuse 8A 250V Holder Cartridge 5 X 20mm Glass</v>
       </c>
-      <c r="I19" s="120"/>
-      <c r="J19" s="117">
+      <c r="I19" s="105"/>
+      <c r="J19" s="106">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K19" s="121">
+      <c r="K19" s="107">
         <v>0.99</v>
       </c>
-      <c r="L19" s="121">
+      <c r="L19" s="107">
         <f t="shared" si="0"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="M19" s="121">
-        <v>0</v>
-      </c>
-      <c r="N19" s="121">
-        <v>0</v>
-      </c>
-      <c r="O19" s="121">
+      <c r="M19" s="107">
+        <v>0</v>
+      </c>
+      <c r="N19" s="107">
+        <v>0</v>
+      </c>
+      <c r="O19" s="107">
         <f t="shared" si="1"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="P19" s="121">
+      <c r="P19" s="107">
         <f t="shared" si="5"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S19" s="123" t="s">
+      <c r="Q19" s="105"/>
+      <c r="R19" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S19" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T19" s="124" t="s">
+      <c r="T19" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="101" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="129">
-        <v>1</v>
-      </c>
-      <c r="C20" s="129" t="s">
+      <c r="B20" s="102">
+        <v>1</v>
+      </c>
+      <c r="C20" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="116" t="s">
+      <c r="D20" s="102"/>
+      <c r="E20" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="133" t="str">
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104" t="str">
         <f t="shared" si="4"/>
         <v>GDSTIME DC 24V 40x40x10 Axial Fan GDA4010</v>
       </c>
-      <c r="I20" s="120" t="s">
+      <c r="I20" s="105" t="s">
         <v>557</v>
       </c>
-      <c r="J20" s="117">
+      <c r="J20" s="106">
         <v>2</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K20" s="107">
         <v>6.99</v>
       </c>
-      <c r="L20" s="121">
+      <c r="L20" s="107">
         <f t="shared" si="0"/>
         <v>13.98</v>
       </c>
-      <c r="M20" s="121">
-        <v>0</v>
-      </c>
-      <c r="N20" s="121">
-        <v>0</v>
-      </c>
-      <c r="O20" s="121">
+      <c r="M20" s="107">
+        <v>0</v>
+      </c>
+      <c r="N20" s="107">
+        <v>0</v>
+      </c>
+      <c r="O20" s="107">
         <f t="shared" si="1"/>
         <v>13.98</v>
       </c>
-      <c r="P20" s="121">
+      <c r="P20" s="107">
         <f t="shared" si="5"/>
         <v>13.98</v>
       </c>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S20" s="123" t="s">
+      <c r="Q20" s="105"/>
+      <c r="R20" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S20" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T20" s="124" t="s">
+      <c r="T20" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="101" t="s">
         <v>336</v>
       </c>
-      <c r="B21" s="129">
-        <v>1</v>
-      </c>
-      <c r="C21" s="129" t="s">
+      <c r="B21" s="102">
+        <v>1</v>
+      </c>
+      <c r="C21" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="133" t="str">
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104" t="str">
         <f t="shared" si="4"/>
         <v>GDSTIME DC 24V 40x40x20 Centrifugal Blower Fan GDB4020</v>
       </c>
-      <c r="I21" s="120"/>
-      <c r="J21" s="117">
+      <c r="I21" s="105"/>
+      <c r="J21" s="106">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K21" s="121">
+      <c r="K21" s="107">
         <v>6.99</v>
       </c>
-      <c r="L21" s="121">
+      <c r="L21" s="107">
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="M21" s="121">
-        <v>0</v>
-      </c>
-      <c r="N21" s="121">
-        <v>0</v>
-      </c>
-      <c r="O21" s="121">
+      <c r="M21" s="107">
+        <v>0</v>
+      </c>
+      <c r="N21" s="107">
+        <v>0</v>
+      </c>
+      <c r="O21" s="107">
         <f t="shared" si="1"/>
         <v>6.99</v>
       </c>
-      <c r="P21" s="121">
+      <c r="P21" s="107">
         <f t="shared" si="5"/>
         <v>6.99</v>
       </c>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S21" s="123" t="s">
+      <c r="Q21" s="105"/>
+      <c r="R21" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S21" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T21" s="124" t="s">
+      <c r="T21" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="30">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="B22" s="129">
+      <c r="B22" s="102">
         <v>3</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="133" t="str">
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104" t="str">
         <f t="shared" si="4"/>
         <v>GDSTIME DC 24V 60x60x20 Axial Fan GDA6020 Dual Ball Bearing 5000RPM 1.7W 0.1A XH2.54</v>
       </c>
-      <c r="I22" s="120"/>
-      <c r="J22" s="117">
+      <c r="I22" s="105"/>
+      <c r="J22" s="106">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K22" s="121">
+      <c r="K22" s="107">
         <v>6.99</v>
       </c>
-      <c r="L22" s="121">
+      <c r="L22" s="107">
         <f t="shared" si="0"/>
         <v>20.97</v>
       </c>
-      <c r="M22" s="121">
-        <v>0</v>
-      </c>
-      <c r="N22" s="121">
-        <v>0</v>
-      </c>
-      <c r="O22" s="121">
+      <c r="M22" s="107">
+        <v>0</v>
+      </c>
+      <c r="N22" s="107">
+        <v>0</v>
+      </c>
+      <c r="O22" s="107">
         <f t="shared" si="1"/>
         <v>20.97</v>
       </c>
-      <c r="P22" s="121">
+      <c r="P22" s="107">
         <f t="shared" si="5"/>
         <v>20.97</v>
       </c>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S22" s="123" t="s">
+      <c r="Q22" s="105"/>
+      <c r="R22" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S22" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T22" s="124" t="s">
+      <c r="T22" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="101" t="s">
         <v>338</v>
       </c>
-      <c r="B23" s="129">
-        <v>1</v>
-      </c>
-      <c r="C23" s="129" t="s">
+      <c r="B23" s="102">
+        <v>1</v>
+      </c>
+      <c r="C23" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="133" t="str">
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104" t="str">
         <f t="shared" si="4"/>
         <v>125C Cutoff 15A Thermal Fuse</v>
       </c>
-      <c r="I23" s="120" t="s">
+      <c r="I23" s="105" t="s">
         <v>543</v>
       </c>
-      <c r="J23" s="117">
+      <c r="J23" s="106">
         <v>2</v>
       </c>
-      <c r="K23" s="121">
+      <c r="K23" s="107">
         <v>1.29</v>
       </c>
-      <c r="L23" s="121">
+      <c r="L23" s="107">
         <f t="shared" si="0"/>
         <v>2.58</v>
       </c>
-      <c r="M23" s="121">
-        <v>0</v>
-      </c>
-      <c r="N23" s="121">
-        <v>0</v>
-      </c>
-      <c r="O23" s="121">
+      <c r="M23" s="107">
+        <v>0</v>
+      </c>
+      <c r="N23" s="107">
+        <v>0</v>
+      </c>
+      <c r="O23" s="107">
         <f t="shared" si="1"/>
         <v>2.58</v>
       </c>
-      <c r="P23" s="121">
+      <c r="P23" s="107">
         <f>O23</f>
         <v>2.58</v>
       </c>
-      <c r="Q23" s="122">
+      <c r="Q23" s="114">
         <f>-1*K23</f>
         <v>-1.29</v>
       </c>
-      <c r="R23" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S23" s="123" t="s">
+      <c r="R23" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S23" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T23" s="124" t="s">
+      <c r="T23" s="109" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6682,61 +6707,61 @@
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="126" t="s">
         <v>385</v>
       </c>
-      <c r="B28" s="129">
+      <c r="B28" s="102">
         <v>7</v>
       </c>
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="116" t="s">
+      <c r="D28" s="102"/>
+      <c r="E28" s="101" t="s">
         <v>386</v>
       </c>
-      <c r="F28" s="130" t="s">
+      <c r="F28" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="133" t="str">
+      <c r="G28" s="103"/>
+      <c r="H28" s="104" t="str">
         <f>E28</f>
         <v>TMC2226</v>
       </c>
-      <c r="I28" s="120"/>
-      <c r="J28" s="117">
+      <c r="I28" s="105"/>
+      <c r="J28" s="106">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="K28" s="121">
+      <c r="K28" s="107">
         <v>6.49</v>
       </c>
-      <c r="L28" s="121">
+      <c r="L28" s="107">
         <f t="shared" si="0"/>
         <v>45.43</v>
       </c>
-      <c r="M28" s="121">
-        <v>0</v>
-      </c>
-      <c r="N28" s="121">
-        <v>0</v>
-      </c>
-      <c r="O28" s="121">
+      <c r="M28" s="107">
+        <v>0</v>
+      </c>
+      <c r="N28" s="107">
+        <v>0</v>
+      </c>
+      <c r="O28" s="107">
         <f t="shared" si="1"/>
         <v>45.43</v>
       </c>
-      <c r="P28" s="121">
+      <c r="P28" s="107">
         <f>O28</f>
         <v>45.43</v>
       </c>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S28" s="123" t="s">
+      <c r="Q28" s="114"/>
+      <c r="R28" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S28" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T28" s="124" t="s">
+      <c r="T28" s="109" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6760,7 +6785,7 @@
       <c r="G29" s="116" t="s">
         <v>634</v>
       </c>
-      <c r="H29" s="133" t="str">
+      <c r="H29" s="132" t="str">
         <f>G29</f>
         <v>BTT HDMI7 V1.0 Display from DFH</v>
       </c>
@@ -6967,57 +6992,57 @@
       <c r="T32" s="98"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="B33" s="129">
+      <c r="B33" s="102">
         <v>8</v>
       </c>
-      <c r="C33" s="129" t="s">
+      <c r="C33" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="131" t="str">
+      <c r="D33" s="102"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="110" t="str">
         <f>A33</f>
         <v>6mm x 3mm Round Neomydium Magnets</v>
       </c>
-      <c r="I33" s="120" t="s">
+      <c r="I33" s="105" t="s">
         <v>542</v>
       </c>
-      <c r="J33" s="117">
+      <c r="J33" s="106">
         <v>16</v>
       </c>
-      <c r="K33" s="121">
+      <c r="K33" s="107">
         <v>0.49</v>
       </c>
-      <c r="L33" s="121">
+      <c r="L33" s="107">
         <f t="shared" si="0"/>
         <v>7.84</v>
       </c>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121">
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107">
         <f t="shared" si="1"/>
         <v>7.84</v>
       </c>
-      <c r="P33" s="121">
+      <c r="P33" s="107">
         <f>O33</f>
         <v>7.84</v>
       </c>
-      <c r="Q33" s="122">
+      <c r="Q33" s="114">
         <f>-1*(K33*8)</f>
         <v>-3.92</v>
       </c>
-      <c r="R33" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S33" s="123" t="s">
+      <c r="R33" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S33" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T33" s="124" t="s">
+      <c r="T33" s="109" t="s">
         <v>553</v>
       </c>
     </row>
@@ -7106,179 +7131,179 @@
       <c r="T35" s="98"/>
     </row>
     <row r="36" spans="1:20" ht="30">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="126" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="129">
-        <v>1</v>
-      </c>
-      <c r="C36" s="129" t="s">
+      <c r="B36" s="102">
+        <v>1</v>
+      </c>
+      <c r="C36" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="116" t="s">
+      <c r="D36" s="102"/>
+      <c r="E36" s="101" t="s">
         <v>350</v>
       </c>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="131" t="str">
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="110" t="str">
         <f>E36</f>
         <v>BMG Components Kit Nano Coated RNC</v>
       </c>
-      <c r="I36" s="120"/>
-      <c r="J36" s="117">
+      <c r="I36" s="105"/>
+      <c r="J36" s="106">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K36" s="121">
+      <c r="K36" s="107">
         <v>32.99</v>
       </c>
-      <c r="L36" s="121">
+      <c r="L36" s="107">
         <f t="shared" si="0"/>
         <v>32.99</v>
       </c>
-      <c r="M36" s="121">
-        <v>0</v>
-      </c>
-      <c r="N36" s="121">
-        <v>0</v>
-      </c>
-      <c r="O36" s="121">
+      <c r="M36" s="107">
+        <v>0</v>
+      </c>
+      <c r="N36" s="107">
+        <v>0</v>
+      </c>
+      <c r="O36" s="107">
         <f t="shared" si="1"/>
         <v>32.99</v>
       </c>
-      <c r="P36" s="121">
+      <c r="P36" s="107">
         <f>O36</f>
         <v>32.99</v>
       </c>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S36" s="123" t="s">
+      <c r="Q36" s="114"/>
+      <c r="R36" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S36" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T36" s="124" t="s">
+      <c r="T36" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="30">
-      <c r="A37" s="116" t="s">
+      <c r="A37" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="B37" s="129">
-        <v>1</v>
-      </c>
-      <c r="C37" s="129" t="s">
+      <c r="B37" s="102">
+        <v>1</v>
+      </c>
+      <c r="C37" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D37" s="129"/>
-      <c r="E37" s="116" t="s">
+      <c r="D37" s="102"/>
+      <c r="E37" s="101" t="s">
         <v>352</v>
       </c>
-      <c r="F37" s="130" t="s">
+      <c r="F37" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="G37" s="130"/>
-      <c r="H37" s="131" t="str">
+      <c r="G37" s="103"/>
+      <c r="H37" s="110" t="str">
         <f>A37</f>
         <v>Wiring Harness for Voron 2.4 / Trident</v>
       </c>
-      <c r="I37" s="120" t="s">
+      <c r="I37" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="J37" s="117">
+      <c r="J37" s="106">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K37" s="121">
+      <c r="K37" s="107">
         <v>79.989999999999995</v>
       </c>
-      <c r="L37" s="121">
+      <c r="L37" s="107">
         <f t="shared" si="0"/>
         <v>79.989999999999995</v>
       </c>
-      <c r="M37" s="121">
-        <v>0</v>
-      </c>
-      <c r="N37" s="121">
-        <v>0</v>
-      </c>
-      <c r="O37" s="121">
+      <c r="M37" s="107">
+        <v>0</v>
+      </c>
+      <c r="N37" s="107">
+        <v>0</v>
+      </c>
+      <c r="O37" s="107">
         <f t="shared" si="1"/>
         <v>79.989999999999995</v>
       </c>
-      <c r="P37" s="121">
+      <c r="P37" s="107">
         <f t="shared" ref="P37:P38" si="12">O37</f>
         <v>79.989999999999995</v>
       </c>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S37" s="123" t="s">
+      <c r="Q37" s="114"/>
+      <c r="R37" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S37" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T37" s="124" t="s">
+      <c r="T37" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="30">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="101" t="s">
         <v>394</v>
       </c>
-      <c r="B38" s="129">
-        <v>1</v>
-      </c>
-      <c r="C38" s="129" t="s">
+      <c r="B38" s="102">
+        <v>1</v>
+      </c>
+      <c r="C38" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="129"/>
-      <c r="E38" s="116" t="s">
+      <c r="D38" s="102"/>
+      <c r="E38" s="101" t="s">
         <v>393</v>
       </c>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="131" t="str">
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="110" t="str">
         <f>E38</f>
         <v>IGUS Cable Chain Set (350mm)</v>
       </c>
-      <c r="I38" s="120" t="s">
+      <c r="I38" s="105" t="s">
         <v>395</v>
       </c>
-      <c r="J38" s="117">
+      <c r="J38" s="106">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K38" s="121">
+      <c r="K38" s="107">
         <v>79.989999999999995</v>
       </c>
-      <c r="L38" s="121">
+      <c r="L38" s="107">
         <f t="shared" si="0"/>
         <v>79.989999999999995</v>
       </c>
-      <c r="M38" s="121">
-        <v>0</v>
-      </c>
-      <c r="N38" s="121">
-        <v>0</v>
-      </c>
-      <c r="O38" s="121">
+      <c r="M38" s="107">
+        <v>0</v>
+      </c>
+      <c r="N38" s="107">
+        <v>0</v>
+      </c>
+      <c r="O38" s="107">
         <f t="shared" si="1"/>
         <v>79.989999999999995</v>
       </c>
-      <c r="P38" s="121">
+      <c r="P38" s="107">
         <f t="shared" si="12"/>
         <v>79.989999999999995</v>
       </c>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S38" s="123" t="s">
+      <c r="Q38" s="105"/>
+      <c r="R38" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S38" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T38" s="124" t="s">
+      <c r="T38" s="109" t="s">
         <v>553</v>
       </c>
     </row>
@@ -7534,8 +7559,8 @@
         <v>298</v>
       </c>
       <c r="D43" s="129"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
       <c r="G43" s="130"/>
       <c r="H43" s="119" t="str">
         <f>A43</f>
@@ -7582,63 +7607,63 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="30">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="B44" s="129">
-        <v>1</v>
-      </c>
-      <c r="C44" s="129" t="s">
+      <c r="B44" s="102">
+        <v>1</v>
+      </c>
+      <c r="C44" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D44" s="129"/>
-      <c r="E44" s="132" t="s">
+      <c r="D44" s="102"/>
+      <c r="E44" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="F44" s="132" t="s">
+      <c r="F44" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="G44" s="116" t="s">
+      <c r="G44" s="101" t="s">
         <v>406</v>
       </c>
-      <c r="H44" s="119" t="str">
+      <c r="H44" s="112" t="str">
         <f>G44</f>
         <v>Phaetus Rapido UHF /TL PT1000 (black)</v>
       </c>
-      <c r="I44" s="120"/>
-      <c r="J44" s="117">
+      <c r="I44" s="105"/>
+      <c r="J44" s="106">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K44" s="121">
+      <c r="K44" s="107">
         <v>119.99</v>
       </c>
-      <c r="L44" s="121">
+      <c r="L44" s="107">
         <f t="shared" si="0"/>
         <v>119.99</v>
       </c>
-      <c r="M44" s="121">
-        <v>0</v>
-      </c>
-      <c r="N44" s="121">
-        <v>0</v>
-      </c>
-      <c r="O44" s="121">
+      <c r="M44" s="107">
+        <v>0</v>
+      </c>
+      <c r="N44" s="107">
+        <v>0</v>
+      </c>
+      <c r="O44" s="107">
         <f t="shared" si="1"/>
         <v>119.99</v>
       </c>
-      <c r="P44" s="121">
+      <c r="P44" s="107">
         <f t="shared" si="13"/>
         <v>119.99</v>
       </c>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S44" s="123" t="s">
+      <c r="Q44" s="105"/>
+      <c r="R44" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S44" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T44" s="124" t="s">
+      <c r="T44" s="109" t="s">
         <v>553</v>
       </c>
     </row>
@@ -8030,61 +8055,61 @@
       <c r="T52" s="98"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="116" t="s">
+      <c r="A53" s="101" t="s">
         <v>412</v>
       </c>
-      <c r="B53" s="129">
+      <c r="B53" s="102">
         <v>2</v>
       </c>
-      <c r="C53" s="129" t="s">
+      <c r="C53" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="D53" s="129"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="119" t="str">
+      <c r="D53" s="102"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="112" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">3-3 DIN Mounting Fast Wire Cable Connectors / Wago Connector </v>
       </c>
-      <c r="I53" s="120" t="s">
+      <c r="I53" s="105" t="s">
         <v>555</v>
       </c>
-      <c r="J53" s="117">
+      <c r="J53" s="106">
         <v>3</v>
       </c>
-      <c r="K53" s="121">
+      <c r="K53" s="107">
         <v>3.49</v>
       </c>
-      <c r="L53" s="121">
+      <c r="L53" s="107">
         <f t="shared" si="15"/>
         <v>10.47</v>
       </c>
-      <c r="M53" s="121">
-        <v>0</v>
-      </c>
-      <c r="N53" s="121">
-        <v>0</v>
-      </c>
-      <c r="O53" s="121">
+      <c r="M53" s="107">
+        <v>0</v>
+      </c>
+      <c r="N53" s="107">
+        <v>0</v>
+      </c>
+      <c r="O53" s="107">
         <f>L53+M53+N53</f>
         <v>10.47</v>
       </c>
-      <c r="P53" s="121">
+      <c r="P53" s="107">
         <f>O53</f>
         <v>10.47</v>
       </c>
-      <c r="Q53" s="122">
+      <c r="Q53" s="114">
         <f>-1*K53</f>
         <v>-3.49</v>
       </c>
-      <c r="R53" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S53" s="123" t="s">
+      <c r="R53" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S53" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T53" s="124" t="s">
+      <c r="T53" s="109" t="s">
         <v>553</v>
       </c>
     </row>
@@ -8154,7 +8179,7 @@
         <v>67</v>
       </c>
       <c r="B55" s="66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="66" t="s">
         <v>313</v>
@@ -8172,7 +8197,7 @@
       </c>
       <c r="J55" s="63">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="64"/>
       <c r="L55" s="64">
@@ -8196,7 +8221,7 @@
         <v>367</v>
       </c>
       <c r="B56" s="66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="66" t="s">
         <v>313</v>
@@ -8211,7 +8236,7 @@
       </c>
       <c r="J56" s="63">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="64"/>
       <c r="L56" s="64">
@@ -8244,7 +8269,7 @@
       <c r="E57" s="118"/>
       <c r="F57" s="118"/>
       <c r="G57" s="130"/>
-      <c r="H57" s="138" t="str">
+      <c r="H57" s="135" t="str">
         <f>A57</f>
         <v>3M VHB Tape 5952 5mm width</v>
       </c>
@@ -8302,7 +8327,7 @@
       <c r="E58" s="118"/>
       <c r="F58" s="118"/>
       <c r="G58" s="130"/>
-      <c r="H58" s="138" t="str">
+      <c r="H58" s="135" t="str">
         <f>A58</f>
         <v>3M VHB Tape 5952 6.35mm width</v>
       </c>
@@ -8556,7 +8581,7 @@
         <v>446</v>
       </c>
       <c r="B63" s="63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="63" t="s">
         <v>313</v>
@@ -8574,20 +8599,20 @@
       </c>
       <c r="J63" s="63">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="64">
         <v>4</v>
       </c>
       <c r="L63" s="64">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M63" s="64"/>
       <c r="N63" s="64"/>
       <c r="O63" s="64">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P63" s="64"/>
       <c r="Q63" s="75"/>
@@ -9574,179 +9599,179 @@
       <c r="T80" s="98"/>
     </row>
     <row r="81" spans="1:20" ht="30">
-      <c r="A81" s="116" t="s">
+      <c r="A81" s="101" t="s">
         <v>549</v>
       </c>
-      <c r="B81" s="117">
-        <v>1</v>
-      </c>
-      <c r="C81" s="117" t="s">
+      <c r="B81" s="106">
+        <v>1</v>
+      </c>
+      <c r="C81" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D81" s="117" t="s">
+      <c r="D81" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E81" s="118"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="119" t="str">
+      <c r="E81" s="111"/>
+      <c r="F81" s="111"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="112" t="str">
         <f t="shared" ref="H81:H89" si="48">A81</f>
         <v>LDO Nema14 36mm Pancake Stepper Motor LDO-36STH20-1004AHG</v>
       </c>
-      <c r="I81" s="120" t="s">
+      <c r="I81" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="J81" s="117">
+      <c r="J81" s="106">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="K81" s="121">
+      <c r="K81" s="107">
         <v>20.99</v>
       </c>
-      <c r="L81" s="121">
+      <c r="L81" s="107">
         <f t="shared" si="46"/>
         <v>20.99</v>
       </c>
-      <c r="M81" s="121">
-        <v>0</v>
-      </c>
-      <c r="N81" s="121">
-        <v>0</v>
-      </c>
-      <c r="O81" s="121">
+      <c r="M81" s="107">
+        <v>0</v>
+      </c>
+      <c r="N81" s="107">
+        <v>0</v>
+      </c>
+      <c r="O81" s="107">
         <f t="shared" si="47"/>
         <v>20.99</v>
       </c>
-      <c r="P81" s="121">
+      <c r="P81" s="107">
         <f t="shared" ref="P81:P91" si="49">O81</f>
         <v>20.99</v>
       </c>
-      <c r="Q81" s="120"/>
-      <c r="R81" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S81" s="123" t="s">
+      <c r="Q81" s="105"/>
+      <c r="R81" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S81" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T81" s="124" t="s">
+      <c r="T81" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="30">
-      <c r="A82" s="116" t="s">
+      <c r="A82" s="101" t="s">
         <v>554</v>
       </c>
-      <c r="B82" s="117">
-        <v>1</v>
-      </c>
-      <c r="C82" s="117" t="s">
+      <c r="B82" s="106">
+        <v>1</v>
+      </c>
+      <c r="C82" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D82" s="117" t="s">
+      <c r="D82" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E82" s="118"/>
-      <c r="F82" s="118"/>
-      <c r="G82" s="118"/>
-      <c r="H82" s="119" t="str">
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="112" t="str">
         <f t="shared" si="48"/>
         <v>Hartk Stealthburner Toolhead PCB</v>
       </c>
-      <c r="I82" s="120" t="s">
+      <c r="I82" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="J82" s="117">
+      <c r="J82" s="106">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="K82" s="121">
+      <c r="K82" s="107">
         <v>21.99</v>
       </c>
-      <c r="L82" s="121">
+      <c r="L82" s="107">
         <f t="shared" si="46"/>
         <v>21.99</v>
       </c>
-      <c r="M82" s="121">
-        <v>0</v>
-      </c>
-      <c r="N82" s="121">
-        <v>0</v>
-      </c>
-      <c r="O82" s="121">
+      <c r="M82" s="107">
+        <v>0</v>
+      </c>
+      <c r="N82" s="107">
+        <v>0</v>
+      </c>
+      <c r="O82" s="107">
         <f t="shared" si="47"/>
         <v>21.99</v>
       </c>
-      <c r="P82" s="121">
+      <c r="P82" s="107">
         <f t="shared" si="49"/>
         <v>21.99</v>
       </c>
-      <c r="Q82" s="120"/>
-      <c r="R82" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S82" s="123" t="s">
+      <c r="Q82" s="105"/>
+      <c r="R82" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S82" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T82" s="124" t="s">
+      <c r="T82" s="109" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="30">
-      <c r="A83" s="116" t="s">
+      <c r="A83" s="101" t="s">
         <v>556</v>
       </c>
-      <c r="B83" s="117">
-        <v>1</v>
-      </c>
-      <c r="C83" s="117" t="s">
+      <c r="B83" s="106">
+        <v>1</v>
+      </c>
+      <c r="C83" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D83" s="117" t="s">
+      <c r="D83" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="119" t="str">
+      <c r="E83" s="111"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="112" t="str">
         <f t="shared" si="48"/>
         <v>5015 GDSTIME DC 24V 50x50x15 Centrifugal Blower Fan GDB5015Dual Ball Bearing 6000RPM 2.2W .1A XH2.54</v>
       </c>
-      <c r="I83" s="120" t="s">
+      <c r="I83" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="J83" s="117">
+      <c r="J83" s="106">
         <f t="shared" ref="J83:J85" si="50">B83</f>
         <v>1</v>
       </c>
-      <c r="K83" s="121">
+      <c r="K83" s="107">
         <v>8.99</v>
       </c>
-      <c r="L83" s="121">
+      <c r="L83" s="107">
         <f t="shared" ref="L83:L85" si="51">J83*K83</f>
         <v>8.99</v>
       </c>
-      <c r="M83" s="121">
-        <v>0</v>
-      </c>
-      <c r="N83" s="121">
-        <v>0</v>
-      </c>
-      <c r="O83" s="121">
+      <c r="M83" s="107">
+        <v>0</v>
+      </c>
+      <c r="N83" s="107">
+        <v>0</v>
+      </c>
+      <c r="O83" s="107">
         <f t="shared" ref="O83:O85" si="52">L83+M83+N83</f>
         <v>8.99</v>
       </c>
-      <c r="P83" s="121">
+      <c r="P83" s="107">
         <f t="shared" si="49"/>
         <v>8.99</v>
       </c>
-      <c r="Q83" s="120"/>
-      <c r="R83" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S83" s="123" t="s">
+      <c r="Q83" s="105"/>
+      <c r="R83" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S83" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="T83" s="124" t="s">
+      <c r="T83" s="109" t="s">
         <v>553</v>
       </c>
     </row>
@@ -9991,245 +10016,245 @@
       </c>
     </row>
     <row r="88" spans="1:20" ht="30">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="101" t="s">
         <v>544</v>
       </c>
-      <c r="B88" s="117">
-        <v>1</v>
-      </c>
-      <c r="C88" s="117" t="s">
+      <c r="B88" s="106">
+        <v>1</v>
+      </c>
+      <c r="C88" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D88" s="117" t="s">
+      <c r="D88" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="E88" s="118"/>
-      <c r="F88" s="118"/>
-      <c r="G88" s="118"/>
-      <c r="H88" s="119" t="str">
+      <c r="E88" s="111"/>
+      <c r="F88" s="111"/>
+      <c r="G88" s="111"/>
+      <c r="H88" s="112" t="str">
         <f t="shared" si="48"/>
         <v>MODIFI3D - PRO 3D Print Finishing and Repair Tool</v>
       </c>
-      <c r="I88" s="120" t="s">
+      <c r="I88" s="105" t="s">
         <v>545</v>
       </c>
-      <c r="J88" s="117">
+      <c r="J88" s="106">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="K88" s="121"/>
-      <c r="L88" s="121">
+      <c r="K88" s="107"/>
+      <c r="L88" s="107">
         <v>89.99</v>
       </c>
-      <c r="M88" s="121">
-        <v>0</v>
-      </c>
-      <c r="N88" s="121">
-        <v>0</v>
-      </c>
-      <c r="O88" s="121">
+      <c r="M88" s="107">
+        <v>0</v>
+      </c>
+      <c r="N88" s="107">
+        <v>0</v>
+      </c>
+      <c r="O88" s="107">
         <f t="shared" si="47"/>
         <v>89.99</v>
       </c>
-      <c r="P88" s="121">
+      <c r="P88" s="107">
         <f t="shared" si="49"/>
         <v>89.99</v>
       </c>
-      <c r="Q88" s="122">
+      <c r="Q88" s="114">
         <f>-1*P88</f>
         <v>-89.99</v>
       </c>
-      <c r="R88" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S88" s="123" t="s">
+      <c r="R88" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S88" s="108" t="s">
         <v>546</v>
       </c>
-      <c r="T88" s="124" t="s">
+      <c r="T88" s="109" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="30">
-      <c r="A89" s="116" t="s">
+      <c r="A89" s="101" t="s">
         <v>548</v>
       </c>
-      <c r="B89" s="117">
+      <c r="B89" s="106">
         <v>4</v>
       </c>
-      <c r="C89" s="117" t="s">
+      <c r="C89" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D89" s="117" t="s">
+      <c r="D89" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E89" s="118"/>
-      <c r="F89" s="118"/>
-      <c r="G89" s="118"/>
-      <c r="H89" s="119" t="str">
+      <c r="E89" s="111"/>
+      <c r="F89" s="111"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="112" t="str">
         <f t="shared" si="48"/>
         <v>SK6812 RGBW 5v LED (Similar to NeoPixel)</v>
       </c>
-      <c r="I89" s="120" t="s">
+      <c r="I89" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="J89" s="117">
+      <c r="J89" s="106">
         <f>B89</f>
         <v>4</v>
       </c>
-      <c r="K89" s="121">
+      <c r="K89" s="107">
         <v>1.29</v>
       </c>
-      <c r="L89" s="121">
+      <c r="L89" s="107">
         <f t="shared" si="41"/>
         <v>5.16</v>
       </c>
-      <c r="M89" s="121">
-        <v>0</v>
-      </c>
-      <c r="N89" s="121">
-        <v>0</v>
-      </c>
-      <c r="O89" s="121">
+      <c r="M89" s="107">
+        <v>0</v>
+      </c>
+      <c r="N89" s="107">
+        <v>0</v>
+      </c>
+      <c r="O89" s="107">
         <f t="shared" si="42"/>
         <v>5.16</v>
       </c>
-      <c r="P89" s="121">
+      <c r="P89" s="107">
         <f t="shared" si="49"/>
         <v>5.16</v>
       </c>
-      <c r="Q89" s="122"/>
-      <c r="R89" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S89" s="123" t="s">
+      <c r="Q89" s="114"/>
+      <c r="R89" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S89" s="108" t="s">
         <v>558</v>
       </c>
-      <c r="T89" s="124" t="s">
+      <c r="T89" s="109" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="30">
-      <c r="A90" s="137" t="s">
+      <c r="A90" s="136" t="s">
         <v>617</v>
       </c>
-      <c r="B90" s="117">
-        <v>1</v>
-      </c>
-      <c r="C90" s="117" t="s">
+      <c r="B90" s="106">
+        <v>1</v>
+      </c>
+      <c r="C90" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D90" s="117" t="s">
+      <c r="D90" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E90" s="118"/>
-      <c r="F90" s="118"/>
-      <c r="G90" s="118"/>
-      <c r="H90" s="119" t="str">
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="111"/>
+      <c r="H90" s="112" t="str">
         <f t="shared" ref="H90:H94" si="53">A90</f>
         <v>LBY 100pcs Binding Screw kit,M5 x 10/20/30/40/50; Nickel Plated (Black)</v>
       </c>
-      <c r="I90" s="120" t="s">
+      <c r="I90" s="105" t="s">
         <v>611</v>
       </c>
-      <c r="J90" s="117">
+      <c r="J90" s="106">
         <f>B90</f>
         <v>1</v>
       </c>
-      <c r="K90" s="121">
+      <c r="K90" s="107">
         <v>9.19</v>
       </c>
-      <c r="L90" s="121">
+      <c r="L90" s="107">
         <f t="shared" si="41"/>
         <v>9.19</v>
       </c>
-      <c r="M90" s="121">
-        <v>0</v>
-      </c>
-      <c r="N90" s="121">
+      <c r="M90" s="107">
+        <v>0</v>
+      </c>
+      <c r="N90" s="107">
         <f>1.3/2</f>
         <v>0.65</v>
       </c>
-      <c r="O90" s="121">
+      <c r="O90" s="107">
         <f t="shared" si="42"/>
         <v>9.84</v>
       </c>
-      <c r="P90" s="121">
+      <c r="P90" s="107">
         <f t="shared" si="49"/>
         <v>9.84</v>
       </c>
-      <c r="Q90" s="120"/>
-      <c r="R90" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S90" s="123" t="s">
+      <c r="Q90" s="105"/>
+      <c r="R90" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S90" s="108" t="s">
         <v>622</v>
       </c>
-      <c r="T90" s="124" t="s">
+      <c r="T90" s="109" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="91" spans="1:20">
-      <c r="A91" s="137" t="s">
+      <c r="A91" s="136" t="s">
         <v>616</v>
       </c>
-      <c r="B91" s="117">
-        <v>1</v>
-      </c>
-      <c r="C91" s="117" t="s">
+      <c r="B91" s="106">
+        <v>1</v>
+      </c>
+      <c r="C91" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D91" s="117" t="s">
+      <c r="D91" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E91" s="118"/>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="119" t="str">
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
+      <c r="G91" s="111"/>
+      <c r="H91" s="112" t="str">
         <f t="shared" si="53"/>
         <v>uxcell 10pcs Sleeve Bearing 5x7x8mm</v>
       </c>
-      <c r="I91" s="120" t="s">
+      <c r="I91" s="105" t="s">
         <v>611</v>
       </c>
-      <c r="J91" s="117">
+      <c r="J91" s="106">
         <f t="shared" ref="J91:J117" si="54">B91</f>
         <v>1</v>
       </c>
-      <c r="K91" s="121">
+      <c r="K91" s="107">
         <v>6.99</v>
       </c>
-      <c r="L91" s="121">
+      <c r="L91" s="107">
         <f t="shared" ref="L91:L117" si="55">J91*K91</f>
         <v>6.99</v>
       </c>
-      <c r="M91" s="121">
-        <v>0</v>
-      </c>
-      <c r="N91" s="121">
+      <c r="M91" s="107">
+        <v>0</v>
+      </c>
+      <c r="N91" s="107">
         <f>1.3/2</f>
         <v>0.65</v>
       </c>
-      <c r="O91" s="121">
+      <c r="O91" s="107">
         <f t="shared" ref="O91:O117" si="56">L91+M91+N91</f>
         <v>7.6400000000000006</v>
       </c>
-      <c r="P91" s="121">
+      <c r="P91" s="107">
         <f t="shared" si="49"/>
         <v>7.6400000000000006</v>
       </c>
-      <c r="Q91" s="120"/>
-      <c r="R91" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S91" s="123" t="s">
+      <c r="Q91" s="105"/>
+      <c r="R91" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S91" s="108" t="s">
         <v>619</v>
       </c>
-      <c r="T91" s="124" t="s">
+      <c r="T91" s="109" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="30">
-      <c r="A92" s="154" t="s">
+      <c r="A92" s="136" t="s">
         <v>559</v>
       </c>
       <c r="B92" s="106">
@@ -10289,7 +10314,7 @@
       </c>
     </row>
     <row r="93" spans="1:20">
-      <c r="A93" s="154" t="s">
+      <c r="A93" s="136" t="s">
         <v>563</v>
       </c>
       <c r="B93" s="106">
@@ -10349,7 +10374,7 @@
       </c>
     </row>
     <row r="94" spans="1:20">
-      <c r="A94" s="154" t="s">
+      <c r="A94" s="136" t="s">
         <v>564</v>
       </c>
       <c r="B94" s="106">
@@ -10409,7 +10434,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="30">
-      <c r="A95" s="154" t="s">
+      <c r="A95" s="136" t="s">
         <v>607</v>
       </c>
       <c r="B95" s="106">
@@ -10435,7 +10460,7 @@
         <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="K95" s="155">
+      <c r="K95" s="137">
         <v>0.12</v>
       </c>
       <c r="L95" s="107">
@@ -10470,7 +10495,7 @@
       </c>
     </row>
     <row r="96" spans="1:20">
-      <c r="A96" s="154" t="s">
+      <c r="A96" s="136" t="s">
         <v>606</v>
       </c>
       <c r="B96" s="106">
@@ -10496,7 +10521,7 @@
         <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="K96" s="155">
+      <c r="K96" s="137">
         <v>0.11</v>
       </c>
       <c r="L96" s="107">
@@ -10531,7 +10556,7 @@
       </c>
     </row>
     <row r="97" spans="1:20">
-      <c r="A97" s="154" t="s">
+      <c r="A97" s="136" t="s">
         <v>608</v>
       </c>
       <c r="B97" s="106">
@@ -10557,7 +10582,7 @@
         <f t="shared" si="54"/>
         <v>12</v>
       </c>
-      <c r="K97" s="155">
+      <c r="K97" s="137">
         <v>0.2</v>
       </c>
       <c r="L97" s="107">
@@ -10592,7 +10617,7 @@
       </c>
     </row>
     <row r="98" spans="1:20" ht="30">
-      <c r="A98" s="154" t="s">
+      <c r="A98" s="136" t="s">
         <v>609</v>
       </c>
       <c r="B98" s="106">
@@ -10618,7 +10643,7 @@
         <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="K98" s="155">
+      <c r="K98" s="137">
         <v>0.13</v>
       </c>
       <c r="L98" s="107">
@@ -10776,58 +10801,58 @@
       </c>
     </row>
     <row r="101" spans="1:20" ht="30">
-      <c r="A101" s="116" t="s">
+      <c r="A101" s="101" t="s">
         <v>663</v>
       </c>
-      <c r="B101" s="117">
-        <v>1</v>
-      </c>
-      <c r="C101" s="117" t="s">
+      <c r="B101" s="106">
+        <v>1</v>
+      </c>
+      <c r="C101" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="D101" s="117" t="s">
+      <c r="D101" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="E101" s="118"/>
-      <c r="F101" s="118"/>
-      <c r="G101" s="118"/>
-      <c r="H101" s="119"/>
-      <c r="I101" s="120" t="s">
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="112"/>
+      <c r="I101" s="105" t="s">
         <v>662</v>
       </c>
-      <c r="J101" s="117">
+      <c r="J101" s="106">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="K101" s="121">
+      <c r="K101" s="107">
         <v>18.010000000000002</v>
       </c>
-      <c r="L101" s="121">
+      <c r="L101" s="107">
         <f t="shared" si="65"/>
         <v>18.010000000000002</v>
       </c>
-      <c r="M101" s="121">
-        <v>0</v>
-      </c>
-      <c r="N101" s="121">
+      <c r="M101" s="107">
+        <v>0</v>
+      </c>
+      <c r="N101" s="107">
         <v>1.33</v>
       </c>
-      <c r="O101" s="121">
+      <c r="O101" s="107">
         <f t="shared" si="66"/>
         <v>19.340000000000003</v>
       </c>
-      <c r="P101" s="121">
+      <c r="P101" s="107">
         <f>O101</f>
         <v>19.340000000000003</v>
       </c>
-      <c r="Q101" s="120"/>
-      <c r="R101" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="S101" s="123" t="s">
+      <c r="Q101" s="105"/>
+      <c r="R101" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="S101" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="T101" s="124" t="s">
+      <c r="T101" s="109" t="s">
         <v>661</v>
       </c>
     </row>
@@ -11798,7 +11823,7 @@
       <c r="K133" s="76"/>
       <c r="L133" s="76">
         <f t="shared" ref="L133:Q133" si="67">SUM(L3:L131)</f>
-        <v>2997.3399999999983</v>
+        <v>2993.3399999999983</v>
       </c>
       <c r="M133" s="76">
         <f t="shared" si="67"/>
@@ -11810,11 +11835,11 @@
       </c>
       <c r="O133" s="76">
         <f t="shared" si="67"/>
-        <v>3233.9199999999973</v>
+        <v>3229.9199999999973</v>
       </c>
       <c r="P133" s="76">
         <f t="shared" si="67"/>
-        <v>3169.0399999999991</v>
+        <v>3166.0499999999993</v>
       </c>
       <c r="Q133" s="76">
         <f t="shared" si="67"/>
@@ -11844,7 +11869,7 @@
       </c>
       <c r="R134" s="64">
         <f>O133-P133+Q133</f>
-        <v>-300.69416666666837</v>
+        <v>-301.70416666666858</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -11869,7 +11894,7 @@
       </c>
       <c r="R135" s="64">
         <f>P133</f>
-        <v>3169.0399999999991</v>
+        <v>3166.0499999999993</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -12198,18 +12223,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="19">
       <c r="A2" s="3" t="s">
@@ -12326,29 +12351,29 @@
     <col min="8" max="8" width="170" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="135" customFormat="1">
-      <c r="A1" s="135" t="s">
+    <row r="1" spans="1:8" s="133" customFormat="1">
+      <c r="A1" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="133" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="134" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="134" t="s">
         <v>605</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="133" t="s">
         <v>572</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="133" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12556,16 +12581,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="19">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="152" t="s">
         <v>583</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -12708,16 +12733,16 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19">
-      <c r="A27" s="153" t="s">
+      <c r="A27" s="152" t="s">
         <v>601</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
@@ -12916,28 +12941,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
     </row>
     <row r="2" spans="1:20" s="90" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="91" t="s">
@@ -14880,28 +14905,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
     </row>
     <row r="2" spans="1:20" s="90" customFormat="1" ht="23" customHeight="1">
       <c r="A2" s="91" t="s">
@@ -19337,24 +19362,24 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17" thickBot="1">
-      <c r="A73" s="140" t="s">
+      <c r="A73" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="B73" s="141"/>
-      <c r="C73" s="141"/>
-      <c r="D73" s="141"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
-      <c r="J73" s="141"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="141"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="141"/>
-      <c r="O73" s="141"/>
-      <c r="P73" s="142"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="140"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="140"/>
+      <c r="N73" s="140"/>
+      <c r="O73" s="140"/>
+      <c r="P73" s="141"/>
     </row>
     <row r="74" spans="1:16" ht="17">
       <c r="A74" s="13" t="s">
@@ -19562,24 +19587,24 @@
     </row>
     <row r="85" spans="1:16" ht="17" thickBot="1"/>
     <row r="86" spans="1:16" ht="17" thickBot="1">
-      <c r="A86" s="143" t="s">
+      <c r="A86" s="142" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="144"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
-      <c r="E86" s="144"/>
-      <c r="F86" s="144"/>
-      <c r="G86" s="144"/>
-      <c r="H86" s="144"/>
-      <c r="I86" s="144"/>
-      <c r="J86" s="144"/>
-      <c r="K86" s="144"/>
-      <c r="L86" s="144"/>
-      <c r="M86" s="144"/>
-      <c r="N86" s="144"/>
-      <c r="O86" s="144"/>
-      <c r="P86" s="145"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
+      <c r="J86" s="143"/>
+      <c r="K86" s="143"/>
+      <c r="L86" s="143"/>
+      <c r="M86" s="143"/>
+      <c r="N86" s="143"/>
+      <c r="O86" s="143"/>
+      <c r="P86" s="144"/>
     </row>
     <row r="87" spans="1:16" ht="17">
       <c r="A87" s="13" t="s">
@@ -20002,10 +20027,10 @@
     </row>
     <row r="104" spans="1:16" ht="17" thickBot="1"/>
     <row r="105" spans="1:16" ht="17" thickTop="1">
-      <c r="A105" s="146" t="s">
+      <c r="A105" s="145" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="147"/>
+      <c r="B105" s="146"/>
       <c r="C105" s="24"/>
       <c r="D105" s="25"/>
       <c r="E105" s="26"/>
@@ -20022,8 +20047,8 @@
       <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" ht="17" thickBot="1">
-      <c r="A106" s="148"/>
-      <c r="B106" s="149"/>
+      <c r="A106" s="147"/>
+      <c r="B106" s="148"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -22373,24 +22398,24 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="17" thickBot="1">
-      <c r="A73" s="140" t="s">
+      <c r="A73" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="B73" s="141"/>
-      <c r="C73" s="141"/>
-      <c r="D73" s="141"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
-      <c r="J73" s="141"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="141"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="141"/>
-      <c r="O73" s="141"/>
-      <c r="P73" s="142"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="140"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="140"/>
+      <c r="N73" s="140"/>
+      <c r="O73" s="140"/>
+      <c r="P73" s="141"/>
     </row>
     <row r="74" spans="1:16" ht="17">
       <c r="A74" s="13" t="s">
@@ -22598,24 +22623,24 @@
     </row>
     <row r="85" spans="1:16" ht="17" thickBot="1"/>
     <row r="86" spans="1:16" ht="17" thickBot="1">
-      <c r="A86" s="143" t="s">
+      <c r="A86" s="142" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="144"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
-      <c r="E86" s="144"/>
-      <c r="F86" s="144"/>
-      <c r="G86" s="144"/>
-      <c r="H86" s="144"/>
-      <c r="I86" s="144"/>
-      <c r="J86" s="144"/>
-      <c r="K86" s="144"/>
-      <c r="L86" s="144"/>
-      <c r="M86" s="144"/>
-      <c r="N86" s="144"/>
-      <c r="O86" s="144"/>
-      <c r="P86" s="145"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
+      <c r="J86" s="143"/>
+      <c r="K86" s="143"/>
+      <c r="L86" s="143"/>
+      <c r="M86" s="143"/>
+      <c r="N86" s="143"/>
+      <c r="O86" s="143"/>
+      <c r="P86" s="144"/>
     </row>
     <row r="87" spans="1:16" ht="17">
       <c r="A87" s="13" t="s">
@@ -23038,10 +23063,10 @@
     </row>
     <row r="104" spans="1:16" ht="17" thickBot="1"/>
     <row r="105" spans="1:16" ht="17" thickTop="1">
-      <c r="A105" s="146" t="s">
+      <c r="A105" s="145" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="147"/>
+      <c r="B105" s="146"/>
       <c r="C105" s="24"/>
       <c r="D105" s="25"/>
       <c r="E105" s="26"/>
@@ -23058,8 +23083,8 @@
       <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" ht="17" thickBot="1">
-      <c r="A106" s="148"/>
-      <c r="B106" s="149"/>
+      <c r="A106" s="147"/>
+      <c r="B106" s="148"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -26997,10 +27022,10 @@
         <f>voron2.4_350mm_bom!M1</f>
         <v>Notes</v>
       </c>
-      <c r="Q1" s="150" t="s">
+      <c r="Q1" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="151"/>
+      <c r="R1" s="150"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="str">
